--- a/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
+++ b/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A86FE67-A9E7-47C0-85C2-27C574287423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D0DE6-2A78-4BA7-B513-DC0B66DF7FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="68">
   <si>
     <t>branchname</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>2025-01-01 - 2025-01-28</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2025-02-01 - 2025-02-28</t>
   </si>
 </sst>
 </file>
@@ -9108,6 +9114,4360 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1">
+        <v>45689</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45690</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45691</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45692</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45693</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45694</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45695</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45696</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45697</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45698</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45699</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45700</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45701</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45702</v>
+      </c>
+      <c r="P2" s="1">
+        <v>45703</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45704</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45705</v>
+      </c>
+      <c r="S2" s="1">
+        <v>45706</v>
+      </c>
+      <c r="T2" s="1">
+        <v>45707</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45708</v>
+      </c>
+      <c r="V2" s="1">
+        <v>45709</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45710</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45711</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>45712</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>45713</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45714</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>45715</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>45716</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2">
+        <v>53</v>
+      </c>
+      <c r="I4" s="2">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>72</v>
+      </c>
+      <c r="L4" s="2">
+        <v>58</v>
+      </c>
+      <c r="M4" s="2">
+        <v>12</v>
+      </c>
+      <c r="N4" s="2">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2">
+        <v>55</v>
+      </c>
+      <c r="P4" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>8</v>
+      </c>
+      <c r="S4" s="2">
+        <v>42</v>
+      </c>
+      <c r="T4" s="2">
+        <v>47</v>
+      </c>
+      <c r="U4" s="2">
+        <v>68</v>
+      </c>
+      <c r="V4" s="2">
+        <v>55</v>
+      </c>
+      <c r="W4" s="2">
+        <v>35</v>
+      </c>
+      <c r="X4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>58</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>50</v>
+      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>47</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <v>35</v>
+      </c>
+      <c r="P5">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>54</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>45</v>
+      </c>
+      <c r="V5">
+        <v>32</v>
+      </c>
+      <c r="W5">
+        <v>33</v>
+      </c>
+      <c r="Y5">
+        <v>48</v>
+      </c>
+      <c r="Z5">
+        <v>38</v>
+      </c>
+      <c r="AA5">
+        <v>44</v>
+      </c>
+      <c r="AB5">
+        <v>47</v>
+      </c>
+      <c r="AC5">
+        <v>37</v>
+      </c>
+      <c r="AG5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2">
+        <v>92</v>
+      </c>
+      <c r="F6" s="2">
+        <v>65</v>
+      </c>
+      <c r="G6" s="2">
+        <v>82</v>
+      </c>
+      <c r="H6" s="2">
+        <v>67</v>
+      </c>
+      <c r="I6" s="2">
+        <v>67</v>
+      </c>
+      <c r="J6" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2">
+        <v>88</v>
+      </c>
+      <c r="L6" s="2">
+        <v>107</v>
+      </c>
+      <c r="M6" s="2">
+        <v>21</v>
+      </c>
+      <c r="N6" s="2">
+        <v>64</v>
+      </c>
+      <c r="O6" s="2">
+        <v>52</v>
+      </c>
+      <c r="P6" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>55</v>
+      </c>
+      <c r="R6" s="2">
+        <v>12</v>
+      </c>
+      <c r="S6" s="2">
+        <v>11</v>
+      </c>
+      <c r="T6" s="2">
+        <v>76</v>
+      </c>
+      <c r="U6" s="2">
+        <v>77</v>
+      </c>
+      <c r="V6" s="2">
+        <v>76</v>
+      </c>
+      <c r="W6" s="2">
+        <v>61</v>
+      </c>
+      <c r="X6" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>59</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2">
+        <v>74</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2">
+        <v>51</v>
+      </c>
+      <c r="H8" s="2">
+        <v>63</v>
+      </c>
+      <c r="I8" s="2">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>55</v>
+      </c>
+      <c r="L8" s="2">
+        <v>66</v>
+      </c>
+      <c r="M8" s="2">
+        <v>22</v>
+      </c>
+      <c r="N8" s="2">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2">
+        <v>64</v>
+      </c>
+      <c r="P8" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>45</v>
+      </c>
+      <c r="R8" s="2">
+        <v>8</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3</v>
+      </c>
+      <c r="T8" s="2">
+        <v>42</v>
+      </c>
+      <c r="U8" s="2">
+        <v>53</v>
+      </c>
+      <c r="V8" s="2">
+        <v>63</v>
+      </c>
+      <c r="W8" s="2">
+        <v>51</v>
+      </c>
+      <c r="X8" s="2">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>47</v>
+      </c>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>15</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>11</v>
+      </c>
+      <c r="AA9">
+        <v>11</v>
+      </c>
+      <c r="AB9">
+        <v>48</v>
+      </c>
+      <c r="AC9">
+        <v>5</v>
+      </c>
+      <c r="AG9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
+        <v>15</v>
+      </c>
+      <c r="O10" s="2">
+        <v>9</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2">
+        <v>2</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
+        <v>19</v>
+      </c>
+      <c r="U10" s="2">
+        <v>12</v>
+      </c>
+      <c r="V10" s="2">
+        <v>14</v>
+      </c>
+      <c r="W10" s="2">
+        <v>7</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>11</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>13</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>8</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AG11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>6</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
+        <v>3</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
+        <v>4</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>6</v>
+      </c>
+      <c r="AB15">
+        <v>5</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2">
+        <v>9</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
+        <v>11</v>
+      </c>
+      <c r="L16" s="2">
+        <v>15</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
+        <v>4</v>
+      </c>
+      <c r="O16" s="2">
+        <v>15</v>
+      </c>
+      <c r="P16" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>8</v>
+      </c>
+      <c r="T16" s="2">
+        <v>8</v>
+      </c>
+      <c r="U16" s="2">
+        <v>12</v>
+      </c>
+      <c r="V16" s="2">
+        <v>11</v>
+      </c>
+      <c r="W16" s="2">
+        <v>6</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>16</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>9</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>8</v>
+      </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
+      <c r="AA17">
+        <v>4</v>
+      </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
+      <c r="AC17">
+        <v>4</v>
+      </c>
+      <c r="AG17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>7</v>
+      </c>
+      <c r="L18" s="2">
+        <v>4</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2">
+        <v>3</v>
+      </c>
+      <c r="U18" s="2">
+        <v>4</v>
+      </c>
+      <c r="V18" s="2">
+        <v>2</v>
+      </c>
+      <c r="W18" s="2">
+        <v>2</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>28</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <v>22</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>36</v>
+      </c>
+      <c r="L19">
+        <v>22</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>18</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>19</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>13</v>
+      </c>
+      <c r="U19">
+        <v>29</v>
+      </c>
+      <c r="V19">
+        <v>18</v>
+      </c>
+      <c r="W19">
+        <v>19</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>38</v>
+      </c>
+      <c r="Z19">
+        <v>28</v>
+      </c>
+      <c r="AA19">
+        <v>27</v>
+      </c>
+      <c r="AB19">
+        <v>17</v>
+      </c>
+      <c r="AC19">
+        <v>19</v>
+      </c>
+      <c r="AG19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>3</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2">
+        <v>2</v>
+      </c>
+      <c r="W20" s="2">
+        <v>3</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>33</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>33</v>
+      </c>
+      <c r="O21">
+        <v>13</v>
+      </c>
+      <c r="P21">
+        <v>14</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>27</v>
+      </c>
+      <c r="U21">
+        <v>16</v>
+      </c>
+      <c r="V21">
+        <v>15</v>
+      </c>
+      <c r="W21">
+        <v>14</v>
+      </c>
+      <c r="X21">
+        <v>5</v>
+      </c>
+      <c r="Y21">
+        <v>19</v>
+      </c>
+      <c r="Z21">
+        <v>21</v>
+      </c>
+      <c r="AA21">
+        <v>34</v>
+      </c>
+      <c r="AB21">
+        <v>28</v>
+      </c>
+      <c r="AC21">
+        <v>20</v>
+      </c>
+      <c r="AG21">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>3</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2">
+        <v>2</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2">
+        <v>2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>3</v>
+      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>38</v>
+      </c>
+      <c r="L23">
+        <v>34</v>
+      </c>
+      <c r="N23">
+        <v>31</v>
+      </c>
+      <c r="O23">
+        <v>15</v>
+      </c>
+      <c r="P23">
+        <v>17</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>26</v>
+      </c>
+      <c r="U23">
+        <v>41</v>
+      </c>
+      <c r="V23">
+        <v>29</v>
+      </c>
+      <c r="W23">
+        <v>9</v>
+      </c>
+      <c r="Y23">
+        <v>36</v>
+      </c>
+      <c r="Z23">
+        <v>34</v>
+      </c>
+      <c r="AA23">
+        <v>22</v>
+      </c>
+      <c r="AB23">
+        <v>25</v>
+      </c>
+      <c r="AC23">
+        <v>31</v>
+      </c>
+      <c r="AG23">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
+        <v>9</v>
+      </c>
+      <c r="L24" s="2">
+        <v>4</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <v>8</v>
+      </c>
+      <c r="O24" s="2">
+        <v>5</v>
+      </c>
+      <c r="P24" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2">
+        <v>2</v>
+      </c>
+      <c r="T24" s="2">
+        <v>8</v>
+      </c>
+      <c r="U24" s="2">
+        <v>13</v>
+      </c>
+      <c r="V24" s="2">
+        <v>2</v>
+      </c>
+      <c r="W24" s="2">
+        <v>2</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>31</v>
+      </c>
+      <c r="L25">
+        <v>43</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>32</v>
+      </c>
+      <c r="O25">
+        <v>33</v>
+      </c>
+      <c r="P25">
+        <v>20</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>17</v>
+      </c>
+      <c r="T25">
+        <v>25</v>
+      </c>
+      <c r="U25">
+        <v>29</v>
+      </c>
+      <c r="V25">
+        <v>41</v>
+      </c>
+      <c r="W25">
+        <v>21</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>37</v>
+      </c>
+      <c r="Z25">
+        <v>30</v>
+      </c>
+      <c r="AA25">
+        <v>29</v>
+      </c>
+      <c r="AB25">
+        <v>35</v>
+      </c>
+      <c r="AC25">
+        <v>33</v>
+      </c>
+      <c r="AG25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>85</v>
+      </c>
+      <c r="C26" s="2">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2">
+        <v>99</v>
+      </c>
+      <c r="E26" s="2">
+        <v>93</v>
+      </c>
+      <c r="F26" s="2">
+        <v>68</v>
+      </c>
+      <c r="G26" s="2">
+        <v>92</v>
+      </c>
+      <c r="H26" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" s="2">
+        <v>86</v>
+      </c>
+      <c r="J26" s="2">
+        <v>36</v>
+      </c>
+      <c r="K26" s="2">
+        <v>100</v>
+      </c>
+      <c r="L26" s="2">
+        <v>133</v>
+      </c>
+      <c r="M26" s="2">
+        <v>35</v>
+      </c>
+      <c r="N26" s="2">
+        <v>81</v>
+      </c>
+      <c r="O26" s="2">
+        <v>87</v>
+      </c>
+      <c r="P26" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>49</v>
+      </c>
+      <c r="R26" s="2">
+        <v>13</v>
+      </c>
+      <c r="S26" s="2">
+        <v>36</v>
+      </c>
+      <c r="T26" s="2">
+        <v>100</v>
+      </c>
+      <c r="U26" s="2">
+        <v>119</v>
+      </c>
+      <c r="V26" s="2">
+        <v>95</v>
+      </c>
+      <c r="W26" s="2">
+        <v>93</v>
+      </c>
+      <c r="X26" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>14</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>11</v>
+      </c>
+      <c r="V27">
+        <v>12</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <v>12</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AB27">
+        <v>6</v>
+      </c>
+      <c r="AC27">
+        <v>7</v>
+      </c>
+      <c r="AG27">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>12</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>12</v>
+      </c>
+      <c r="U29">
+        <v>11</v>
+      </c>
+      <c r="W29">
+        <v>6</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>10</v>
+      </c>
+      <c r="Z29">
+        <v>7</v>
+      </c>
+      <c r="AA29">
+        <v>10</v>
+      </c>
+      <c r="AB29">
+        <v>11</v>
+      </c>
+      <c r="AG29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
+        <v>3</v>
+      </c>
+      <c r="L30" s="2">
+        <v>9</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>3</v>
+      </c>
+      <c r="O30" s="2">
+        <v>3</v>
+      </c>
+      <c r="P30" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2">
+        <v>6</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2">
+        <v>3</v>
+      </c>
+      <c r="U30" s="2">
+        <v>6</v>
+      </c>
+      <c r="V30" s="2">
+        <v>6</v>
+      </c>
+      <c r="W30" s="2">
+        <v>5</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>36</v>
+      </c>
+      <c r="G31">
+        <v>22</v>
+      </c>
+      <c r="H31">
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <v>17</v>
+      </c>
+      <c r="K31">
+        <v>29</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>13</v>
+      </c>
+      <c r="O31">
+        <v>23</v>
+      </c>
+      <c r="P31">
+        <v>19</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>22</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>26</v>
+      </c>
+      <c r="U31">
+        <v>16</v>
+      </c>
+      <c r="V31">
+        <v>19</v>
+      </c>
+      <c r="W31">
+        <v>13</v>
+      </c>
+      <c r="Y31">
+        <v>22</v>
+      </c>
+      <c r="Z31">
+        <v>31</v>
+      </c>
+      <c r="AA31">
+        <v>27</v>
+      </c>
+      <c r="AB31">
+        <v>24</v>
+      </c>
+      <c r="AC31">
+        <v>18</v>
+      </c>
+      <c r="AG31">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2">
+        <v>2</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2">
+        <v>1</v>
+      </c>
+      <c r="U32" s="2">
+        <v>2</v>
+      </c>
+      <c r="V32" s="2">
+        <v>2</v>
+      </c>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <v>8</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="Z33">
+        <v>7</v>
+      </c>
+      <c r="AA33">
+        <v>3</v>
+      </c>
+      <c r="AB33">
+        <v>10</v>
+      </c>
+      <c r="AC33">
+        <v>6</v>
+      </c>
+      <c r="AG33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>39</v>
+      </c>
+      <c r="E34" s="2">
+        <v>29</v>
+      </c>
+      <c r="F34" s="2">
+        <v>30</v>
+      </c>
+      <c r="G34" s="2">
+        <v>34</v>
+      </c>
+      <c r="H34" s="2">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>59</v>
+      </c>
+      <c r="L34" s="2">
+        <v>31</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>34</v>
+      </c>
+      <c r="O34" s="2">
+        <v>37</v>
+      </c>
+      <c r="P34" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2">
+        <v>16</v>
+      </c>
+      <c r="U34" s="2">
+        <v>24</v>
+      </c>
+      <c r="V34" s="2">
+        <v>31</v>
+      </c>
+      <c r="W34" s="2">
+        <v>15</v>
+      </c>
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <v>16</v>
+      </c>
+      <c r="G35">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <v>25</v>
+      </c>
+      <c r="L35">
+        <v>14</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>22</v>
+      </c>
+      <c r="O35">
+        <v>29</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>11</v>
+      </c>
+      <c r="T35">
+        <v>18</v>
+      </c>
+      <c r="U35">
+        <v>27</v>
+      </c>
+      <c r="V35">
+        <v>27</v>
+      </c>
+      <c r="W35">
+        <v>16</v>
+      </c>
+      <c r="Y35">
+        <v>29</v>
+      </c>
+      <c r="Z35">
+        <v>20</v>
+      </c>
+      <c r="AA35">
+        <v>18</v>
+      </c>
+      <c r="AB35">
+        <v>24</v>
+      </c>
+      <c r="AC35">
+        <v>20</v>
+      </c>
+      <c r="AG35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2">
+        <v>17</v>
+      </c>
+      <c r="H36" s="2">
+        <v>13</v>
+      </c>
+      <c r="I36" s="2">
+        <v>9</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>15</v>
+      </c>
+      <c r="L36" s="2">
+        <v>11</v>
+      </c>
+      <c r="M36" s="2">
+        <v>5</v>
+      </c>
+      <c r="N36" s="2">
+        <v>34</v>
+      </c>
+      <c r="O36" s="2">
+        <v>15</v>
+      </c>
+      <c r="P36" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2">
+        <v>5</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>15</v>
+      </c>
+      <c r="U36" s="2">
+        <v>18</v>
+      </c>
+      <c r="V36" s="2">
+        <v>13</v>
+      </c>
+      <c r="W36" s="2">
+        <v>7</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>13</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>18</v>
+      </c>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>72</v>
+      </c>
+      <c r="E37">
+        <v>77</v>
+      </c>
+      <c r="F37">
+        <v>63</v>
+      </c>
+      <c r="G37">
+        <v>82</v>
+      </c>
+      <c r="H37">
+        <v>58</v>
+      </c>
+      <c r="I37">
+        <v>40</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>77</v>
+      </c>
+      <c r="L37">
+        <v>87</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <v>75</v>
+      </c>
+      <c r="O37">
+        <v>58</v>
+      </c>
+      <c r="P37">
+        <v>39</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>115</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>43</v>
+      </c>
+      <c r="U37">
+        <v>61</v>
+      </c>
+      <c r="V37">
+        <v>63</v>
+      </c>
+      <c r="W37">
+        <v>41</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+      <c r="Y37">
+        <v>104</v>
+      </c>
+      <c r="Z37">
+        <v>65</v>
+      </c>
+      <c r="AA37">
+        <v>56</v>
+      </c>
+      <c r="AB37">
+        <v>70</v>
+      </c>
+      <c r="AC37">
+        <v>66</v>
+      </c>
+      <c r="AG37">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2">
+        <v>21</v>
+      </c>
+      <c r="H38" s="2">
+        <v>7</v>
+      </c>
+      <c r="I38" s="2">
+        <v>11</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2">
+        <v>10</v>
+      </c>
+      <c r="L38" s="2">
+        <v>21</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>7</v>
+      </c>
+      <c r="O38" s="2">
+        <v>19</v>
+      </c>
+      <c r="P38" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2">
+        <v>14</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1</v>
+      </c>
+      <c r="T38" s="2">
+        <v>1</v>
+      </c>
+      <c r="U38" s="2">
+        <v>12</v>
+      </c>
+      <c r="V38" s="2">
+        <v>16</v>
+      </c>
+      <c r="W38" s="2">
+        <v>6</v>
+      </c>
+      <c r="X38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>14</v>
+      </c>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>71</v>
+      </c>
+      <c r="E39">
+        <v>54</v>
+      </c>
+      <c r="F39">
+        <v>40</v>
+      </c>
+      <c r="G39">
+        <v>66</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>45</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>80</v>
+      </c>
+      <c r="L39">
+        <v>70</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <v>67</v>
+      </c>
+      <c r="O39">
+        <v>58</v>
+      </c>
+      <c r="P39">
+        <v>43</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>4</v>
+      </c>
+      <c r="V39">
+        <v>86</v>
+      </c>
+      <c r="W39">
+        <v>46</v>
+      </c>
+      <c r="Y39">
+        <v>70</v>
+      </c>
+      <c r="Z39">
+        <v>69</v>
+      </c>
+      <c r="AA39">
+        <v>52</v>
+      </c>
+      <c r="AB39">
+        <v>64</v>
+      </c>
+      <c r="AC39">
+        <v>49</v>
+      </c>
+      <c r="AG39">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2">
+        <v>6</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2">
+        <v>2</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>1</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2">
+        <v>4</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>12</v>
+      </c>
+      <c r="AA41">
+        <v>3</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AG41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>18</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2">
+        <v>9</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2">
+        <v>19</v>
+      </c>
+      <c r="L42" s="2">
+        <v>12</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2">
+        <v>13</v>
+      </c>
+      <c r="O42" s="2">
+        <v>7</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2">
+        <v>11</v>
+      </c>
+      <c r="V42" s="2">
+        <v>16</v>
+      </c>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>81</v>
+      </c>
+      <c r="E43">
+        <v>73</v>
+      </c>
+      <c r="F43">
+        <v>57</v>
+      </c>
+      <c r="G43">
+        <v>64</v>
+      </c>
+      <c r="H43">
+        <v>45</v>
+      </c>
+      <c r="K43">
+        <v>86</v>
+      </c>
+      <c r="L43">
+        <v>79</v>
+      </c>
+      <c r="N43">
+        <v>60</v>
+      </c>
+      <c r="O43">
+        <v>70</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>81</v>
+      </c>
+      <c r="V43">
+        <v>64</v>
+      </c>
+      <c r="Y43">
+        <v>90</v>
+      </c>
+      <c r="Z43">
+        <v>73</v>
+      </c>
+      <c r="AA43">
+        <v>56</v>
+      </c>
+      <c r="AB43">
+        <v>63</v>
+      </c>
+      <c r="AC43">
+        <v>59</v>
+      </c>
+      <c r="AG43">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>12</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2">
+        <v>3</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2">
+        <v>4</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2">
+        <v>3</v>
+      </c>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>18</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>6</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>18</v>
+      </c>
+      <c r="AA45">
+        <v>5</v>
+      </c>
+      <c r="AC45">
+        <v>3</v>
+      </c>
+      <c r="AG45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>7</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>6</v>
+      </c>
+      <c r="U46">
+        <v>7</v>
+      </c>
+      <c r="V46">
+        <v>8</v>
+      </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
+      <c r="Y46">
+        <v>7</v>
+      </c>
+      <c r="Z46">
+        <v>5</v>
+      </c>
+      <c r="AA46">
+        <v>9</v>
+      </c>
+      <c r="AB46">
+        <v>11</v>
+      </c>
+      <c r="AC46">
+        <v>9</v>
+      </c>
+      <c r="AG46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <v>24</v>
+      </c>
+      <c r="E47" s="2">
+        <v>28</v>
+      </c>
+      <c r="F47" s="2">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2">
+        <v>10</v>
+      </c>
+      <c r="H47" s="2">
+        <v>21</v>
+      </c>
+      <c r="I47" s="2">
+        <v>11</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>18</v>
+      </c>
+      <c r="L47" s="2">
+        <v>30</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2">
+        <v>16</v>
+      </c>
+      <c r="O47" s="2">
+        <v>18</v>
+      </c>
+      <c r="P47" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2">
+        <v>2</v>
+      </c>
+      <c r="S47" s="2">
+        <v>3</v>
+      </c>
+      <c r="T47" s="2">
+        <v>26</v>
+      </c>
+      <c r="U47" s="2">
+        <v>34</v>
+      </c>
+      <c r="V47" s="2">
+        <v>25</v>
+      </c>
+      <c r="W47" s="2">
+        <v>10</v>
+      </c>
+      <c r="X47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>26</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>26</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>18</v>
+      </c>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>38</v>
+      </c>
+      <c r="F48">
+        <v>34</v>
+      </c>
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <v>22</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>37</v>
+      </c>
+      <c r="L48">
+        <v>27</v>
+      </c>
+      <c r="M48">
+        <v>8</v>
+      </c>
+      <c r="N48">
+        <v>23</v>
+      </c>
+      <c r="O48">
+        <v>20</v>
+      </c>
+      <c r="P48">
+        <v>13</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>22</v>
+      </c>
+      <c r="S48">
+        <v>4</v>
+      </c>
+      <c r="T48">
+        <v>23</v>
+      </c>
+      <c r="U48">
+        <v>17</v>
+      </c>
+      <c r="V48">
+        <v>33</v>
+      </c>
+      <c r="W48">
+        <v>19</v>
+      </c>
+      <c r="Y48">
+        <v>34</v>
+      </c>
+      <c r="Z48">
+        <v>35</v>
+      </c>
+      <c r="AA48">
+        <v>38</v>
+      </c>
+      <c r="AB48">
+        <v>19</v>
+      </c>
+      <c r="AC48">
+        <v>29</v>
+      </c>
+      <c r="AG48">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
+        <v>25</v>
+      </c>
+      <c r="E49" s="2">
+        <v>27</v>
+      </c>
+      <c r="F49" s="2">
+        <v>21</v>
+      </c>
+      <c r="G49" s="2">
+        <v>13</v>
+      </c>
+      <c r="H49" s="2">
+        <v>19</v>
+      </c>
+      <c r="I49" s="2">
+        <v>10</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>24</v>
+      </c>
+      <c r="L49" s="2">
+        <v>30</v>
+      </c>
+      <c r="M49" s="2">
+        <v>9</v>
+      </c>
+      <c r="N49" s="2">
+        <v>18</v>
+      </c>
+      <c r="O49" s="2">
+        <v>19</v>
+      </c>
+      <c r="P49" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2">
+        <v>26</v>
+      </c>
+      <c r="S49" s="2">
+        <v>5</v>
+      </c>
+      <c r="T49" s="2">
+        <v>18</v>
+      </c>
+      <c r="U49" s="2">
+        <v>18</v>
+      </c>
+      <c r="V49" s="2">
+        <v>30</v>
+      </c>
+      <c r="W49" s="2">
+        <v>6</v>
+      </c>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>31</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>24</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>16</v>
+      </c>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>32</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <v>29</v>
+      </c>
+      <c r="H50">
+        <v>18</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>19</v>
+      </c>
+      <c r="L50">
+        <v>56</v>
+      </c>
+      <c r="N50">
+        <v>30</v>
+      </c>
+      <c r="O50">
+        <v>24</v>
+      </c>
+      <c r="P50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>55</v>
+      </c>
+      <c r="V50">
+        <v>27</v>
+      </c>
+      <c r="W50">
+        <v>7</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>24</v>
+      </c>
+      <c r="Z50">
+        <v>32</v>
+      </c>
+      <c r="AA50">
+        <v>19</v>
+      </c>
+      <c r="AB50">
+        <v>29</v>
+      </c>
+      <c r="AC50">
+        <v>18</v>
+      </c>
+      <c r="AG50">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>34</v>
+      </c>
+      <c r="C51" s="2">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2">
+        <v>51</v>
+      </c>
+      <c r="E51" s="2">
+        <v>38</v>
+      </c>
+      <c r="F51" s="2">
+        <v>33</v>
+      </c>
+      <c r="G51" s="2">
+        <v>56</v>
+      </c>
+      <c r="H51" s="2">
+        <v>43</v>
+      </c>
+      <c r="I51" s="2">
+        <v>30</v>
+      </c>
+      <c r="J51" s="2">
+        <v>10</v>
+      </c>
+      <c r="K51" s="2">
+        <v>47</v>
+      </c>
+      <c r="L51" s="2">
+        <v>76</v>
+      </c>
+      <c r="M51" s="2">
+        <v>4</v>
+      </c>
+      <c r="N51" s="2">
+        <v>48</v>
+      </c>
+      <c r="O51" s="2">
+        <v>53</v>
+      </c>
+      <c r="P51" s="2">
+        <v>42</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>18</v>
+      </c>
+      <c r="R51" s="2">
+        <v>42</v>
+      </c>
+      <c r="S51" s="2">
+        <v>4</v>
+      </c>
+      <c r="T51" s="2">
+        <v>28</v>
+      </c>
+      <c r="U51" s="2">
+        <v>62</v>
+      </c>
+      <c r="V51" s="2">
+        <v>62</v>
+      </c>
+      <c r="W51" s="2">
+        <v>38</v>
+      </c>
+      <c r="X51" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>52</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>51</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>51</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>11</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>9</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+      <c r="P52">
+        <v>8</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+      <c r="R52">
+        <v>9</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>5</v>
+      </c>
+      <c r="V52">
+        <v>14</v>
+      </c>
+      <c r="W52">
+        <v>5</v>
+      </c>
+      <c r="Y52">
+        <v>8</v>
+      </c>
+      <c r="Z52">
+        <v>4</v>
+      </c>
+      <c r="AA52">
+        <v>13</v>
+      </c>
+      <c r="AB52">
+        <v>7</v>
+      </c>
+      <c r="AC52">
+        <v>11</v>
+      </c>
+      <c r="AG52">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2">
+        <v>15</v>
+      </c>
+      <c r="F53" s="2">
+        <v>16</v>
+      </c>
+      <c r="G53" s="2">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2">
+        <v>22</v>
+      </c>
+      <c r="I53" s="2">
+        <v>7</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2">
+        <v>16</v>
+      </c>
+      <c r="L53" s="2">
+        <v>9</v>
+      </c>
+      <c r="M53" s="2">
+        <v>5</v>
+      </c>
+      <c r="N53" s="2">
+        <v>8</v>
+      </c>
+      <c r="O53" s="2">
+        <v>16</v>
+      </c>
+      <c r="P53" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>1</v>
+      </c>
+      <c r="R53" s="2">
+        <v>12</v>
+      </c>
+      <c r="S53" s="2">
+        <v>4</v>
+      </c>
+      <c r="T53" s="2">
+        <v>11</v>
+      </c>
+      <c r="U53" s="2">
+        <v>11</v>
+      </c>
+      <c r="V53" s="2">
+        <v>16</v>
+      </c>
+      <c r="W53" s="2">
+        <v>9</v>
+      </c>
+      <c r="X53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>13</v>
+      </c>
+      <c r="U54">
+        <v>6</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>3</v>
+      </c>
+      <c r="Z54">
+        <v>3</v>
+      </c>
+      <c r="AA54">
+        <v>5</v>
+      </c>
+      <c r="AB54">
+        <v>3</v>
+      </c>
+      <c r="AC54">
+        <v>6</v>
+      </c>
+      <c r="AG54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8</v>
+      </c>
+      <c r="F55" s="2">
+        <v>8</v>
+      </c>
+      <c r="G55" s="2">
+        <v>3</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2">
+        <v>4</v>
+      </c>
+      <c r="L55" s="2">
+        <v>7</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2">
+        <v>2</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2">
+        <v>1</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2">
+        <v>4</v>
+      </c>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>8</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>6</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="R56">
+        <v>3</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <v>3</v>
+      </c>
+      <c r="W56">
+        <v>2</v>
+      </c>
+      <c r="Y56">
+        <v>3</v>
+      </c>
+      <c r="Z56">
+        <v>5</v>
+      </c>
+      <c r="AA56">
+        <v>3</v>
+      </c>
+      <c r="AB56">
+        <v>11</v>
+      </c>
+      <c r="AC56">
+        <v>7</v>
+      </c>
+      <c r="AG56">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:AG3" xr:uid="{D8399D67-E68B-42D7-AFC3-15C82B91E2D5}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A65A5CD-B538-4B7C-B2A7-48592120D8ED}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:AG56"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2:AG3"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:AG3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:AG3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -10243,21 +14603,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG3" xr:uid="{D8399D67-E68B-42D7-AFC3-15C82B91E2D5}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{34968F86-018E-44E2-A2A3-E904B7A2DFA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A65A5CD-B538-4B7C-B2A7-48592120D8ED}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633557D5-54F2-4CB6-8A69-0FAA84994F48}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B2" sqref="B2:AG3"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:AG3"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:AG3"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -11507,14 +15866,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{34968F86-018E-44E2-A2A3-E904B7A2DFA5}"/>
+  <autoFilter ref="A3:AG3" xr:uid="{9030ABEF-4467-42E7-BCDA-FF968810D030}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633557D5-54F2-4CB6-8A69-0FAA84994F48}">
-  <sheetPr codeName="Sheet8"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F019DD36-2470-4123-8256-7D454BF2199F}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12770,14 +17129,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG3" xr:uid="{9030ABEF-4467-42E7-BCDA-FF968810D030}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{CF4BD388-15BB-4ED1-B3EC-71F3785ED5DD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F019DD36-2470-4123-8256-7D454BF2199F}">
-  <sheetPr codeName="Sheet10"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7559C5-98A6-49B7-ABC7-2F44371F9A3D}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14033,14 +18392,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{CF4BD388-15BB-4ED1-B3EC-71F3785ED5DD}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{56447E71-7667-4E1B-8A2F-C07AA18E89A6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7559C5-98A6-49B7-ABC7-2F44371F9A3D}">
-  <sheetPr codeName="Sheet12"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -15296,14 +19655,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{56447E71-7667-4E1B-8A2F-C07AA18E89A6}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
-  <sheetPr codeName="Sheet14"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -16559,14 +20918,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
-  <sheetPr codeName="Sheet16"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17822,1270 +22182,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:AG56"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-      <c r="AA1">
-        <v>26</v>
-      </c>
-      <c r="AB1">
-        <v>27</v>
-      </c>
-      <c r="AC1">
-        <v>28</v>
-      </c>
-      <c r="AD1">
-        <v>29</v>
-      </c>
-      <c r="AE1">
-        <v>30</v>
-      </c>
-      <c r="AF1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
   <autoFilter ref="A3:AG56" xr:uid="{AFC2BCF1-614C-4B72-8DE9-95317B022DA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
+++ b/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D0DE6-2A78-4BA7-B513-DC0B66DF7FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB1498-F502-4E22-B20B-78D399AE87E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="69">
   <si>
     <t>branchname</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>2025-02-01 - 2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-01 - 2025-03-30</t>
   </si>
 </sst>
 </file>
@@ -13350,10 +13353,4714 @@
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2:AG3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:AG3"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:AG3"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45718</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45719</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45720</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45721</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45722</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45723</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45724</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45725</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45726</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45727</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45728</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45729</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45730</v>
+      </c>
+      <c r="P2" s="1">
+        <v>45731</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45732</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45733</v>
+      </c>
+      <c r="S2" s="1">
+        <v>45734</v>
+      </c>
+      <c r="T2" s="1">
+        <v>45735</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45736</v>
+      </c>
+      <c r="V2" s="1">
+        <v>45737</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45738</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45739</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>45740</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>45741</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45742</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>45743</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>45744</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>45745</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>45746</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>45747</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>67</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2">
+        <v>56</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45</v>
+      </c>
+      <c r="N4" s="2">
+        <v>51</v>
+      </c>
+      <c r="O4" s="2">
+        <v>57</v>
+      </c>
+      <c r="P4" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>11</v>
+      </c>
+      <c r="R4" s="2">
+        <v>67</v>
+      </c>
+      <c r="S4" s="2">
+        <v>65</v>
+      </c>
+      <c r="T4" s="2">
+        <v>57</v>
+      </c>
+      <c r="U4" s="2">
+        <v>58</v>
+      </c>
+      <c r="V4" s="2">
+        <v>55</v>
+      </c>
+      <c r="W4" s="2">
+        <v>40</v>
+      </c>
+      <c r="X4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>57</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>37</v>
+      </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>51</v>
+      </c>
+      <c r="L5">
+        <v>37</v>
+      </c>
+      <c r="M5">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <v>44</v>
+      </c>
+      <c r="O5">
+        <v>31</v>
+      </c>
+      <c r="P5">
+        <v>28</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>51</v>
+      </c>
+      <c r="S5">
+        <v>47</v>
+      </c>
+      <c r="T5">
+        <v>38</v>
+      </c>
+      <c r="U5">
+        <v>39</v>
+      </c>
+      <c r="V5">
+        <v>29</v>
+      </c>
+      <c r="W5">
+        <v>24</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>55</v>
+      </c>
+      <c r="Z5">
+        <v>40</v>
+      </c>
+      <c r="AA5">
+        <v>34</v>
+      </c>
+      <c r="AB5">
+        <v>45</v>
+      </c>
+      <c r="AC5">
+        <v>27</v>
+      </c>
+      <c r="AD5">
+        <v>19</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>41</v>
+      </c>
+      <c r="AG5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2">
+        <v>82</v>
+      </c>
+      <c r="F6" s="2">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2">
+        <v>51</v>
+      </c>
+      <c r="I6" s="2">
+        <v>67</v>
+      </c>
+      <c r="J6" s="2">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2">
+        <v>70</v>
+      </c>
+      <c r="L6" s="2">
+        <v>66</v>
+      </c>
+      <c r="M6" s="2">
+        <v>88</v>
+      </c>
+      <c r="N6" s="2">
+        <v>66</v>
+      </c>
+      <c r="O6" s="2">
+        <v>75</v>
+      </c>
+      <c r="P6" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>30</v>
+      </c>
+      <c r="R6" s="2">
+        <v>80</v>
+      </c>
+      <c r="S6" s="2">
+        <v>84</v>
+      </c>
+      <c r="T6" s="2">
+        <v>90</v>
+      </c>
+      <c r="U6" s="2">
+        <v>84</v>
+      </c>
+      <c r="V6" s="2">
+        <v>39</v>
+      </c>
+      <c r="W6" s="2">
+        <v>44</v>
+      </c>
+      <c r="X6" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>68</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>57</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>53</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>4</v>
+      </c>
+      <c r="AG7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2">
+        <v>53</v>
+      </c>
+      <c r="M8" s="2">
+        <v>37</v>
+      </c>
+      <c r="N8" s="2">
+        <v>64</v>
+      </c>
+      <c r="O8" s="2">
+        <v>41</v>
+      </c>
+      <c r="P8" s="2">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>25</v>
+      </c>
+      <c r="R8" s="2">
+        <v>63</v>
+      </c>
+      <c r="S8" s="2">
+        <v>71</v>
+      </c>
+      <c r="T8" s="2">
+        <v>57</v>
+      </c>
+      <c r="U8" s="2">
+        <v>47</v>
+      </c>
+      <c r="V8" s="2">
+        <v>52</v>
+      </c>
+      <c r="W8" s="2">
+        <v>44</v>
+      </c>
+      <c r="X8" s="2">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>54</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>47</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>52</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>62</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>12</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>13</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>12</v>
+      </c>
+      <c r="AC9">
+        <v>20</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AF9">
+        <v>3</v>
+      </c>
+      <c r="AG9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>9</v>
+      </c>
+      <c r="M10" s="2">
+        <v>18</v>
+      </c>
+      <c r="N10" s="2">
+        <v>7</v>
+      </c>
+      <c r="O10" s="2">
+        <v>16</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>8</v>
+      </c>
+      <c r="S10" s="2">
+        <v>7</v>
+      </c>
+      <c r="T10" s="2">
+        <v>8</v>
+      </c>
+      <c r="U10" s="2">
+        <v>6</v>
+      </c>
+      <c r="V10" s="2">
+        <v>14</v>
+      </c>
+      <c r="W10" s="2">
+        <v>7</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>9</v>
+      </c>
+      <c r="AA11">
+        <v>11</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AD11">
+        <v>4</v>
+      </c>
+      <c r="AF11">
+        <v>6</v>
+      </c>
+      <c r="AG11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2">
+        <v>2</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>8</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3</v>
+      </c>
+      <c r="T14" s="2">
+        <v>3</v>
+      </c>
+      <c r="U14" s="2">
+        <v>2</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <v>7</v>
+      </c>
+      <c r="AB15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>3</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
+        <v>8</v>
+      </c>
+      <c r="L16" s="2">
+        <v>9</v>
+      </c>
+      <c r="M16" s="2">
+        <v>15</v>
+      </c>
+      <c r="N16" s="2">
+        <v>9</v>
+      </c>
+      <c r="O16" s="2">
+        <v>19</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>8</v>
+      </c>
+      <c r="S16" s="2">
+        <v>9</v>
+      </c>
+      <c r="T16" s="2">
+        <v>11</v>
+      </c>
+      <c r="U16" s="2">
+        <v>11</v>
+      </c>
+      <c r="V16" s="2">
+        <v>14</v>
+      </c>
+      <c r="W16" s="2">
+        <v>2</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>11</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <v>6</v>
+      </c>
+      <c r="AB17">
+        <v>5</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>7</v>
+      </c>
+      <c r="AG17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>10</v>
+      </c>
+      <c r="L18" s="2">
+        <v>5</v>
+      </c>
+      <c r="M18" s="2">
+        <v>5</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4</v>
+      </c>
+      <c r="P18" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2">
+        <v>8</v>
+      </c>
+      <c r="S18" s="2">
+        <v>4</v>
+      </c>
+      <c r="T18" s="2">
+        <v>6</v>
+      </c>
+      <c r="U18" s="2">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2">
+        <v>3</v>
+      </c>
+      <c r="W18" s="2">
+        <v>2</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>31</v>
+      </c>
+      <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>14</v>
+      </c>
+      <c r="O19">
+        <v>26</v>
+      </c>
+      <c r="P19">
+        <v>14</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>23</v>
+      </c>
+      <c r="S19">
+        <v>24</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>17</v>
+      </c>
+      <c r="V19">
+        <v>22</v>
+      </c>
+      <c r="W19">
+        <v>19</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>30</v>
+      </c>
+      <c r="Z19">
+        <v>24</v>
+      </c>
+      <c r="AA19">
+        <v>25</v>
+      </c>
+      <c r="AB19">
+        <v>26</v>
+      </c>
+      <c r="AC19">
+        <v>22</v>
+      </c>
+      <c r="AD19">
+        <v>18</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>23</v>
+      </c>
+      <c r="AG19">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2</v>
+      </c>
+      <c r="N20" s="2">
+        <v>4</v>
+      </c>
+      <c r="O20" s="2">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2">
+        <v>3</v>
+      </c>
+      <c r="T20" s="2">
+        <v>3</v>
+      </c>
+      <c r="U20" s="2">
+        <v>4</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="W20" s="2">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>39</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>32</v>
+      </c>
+      <c r="L21">
+        <v>27</v>
+      </c>
+      <c r="M21">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>27</v>
+      </c>
+      <c r="O21">
+        <v>13</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>35</v>
+      </c>
+      <c r="S21">
+        <v>23</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>37</v>
+      </c>
+      <c r="V21">
+        <v>27</v>
+      </c>
+      <c r="W21">
+        <v>20</v>
+      </c>
+      <c r="X21">
+        <v>14</v>
+      </c>
+      <c r="Y21">
+        <v>33</v>
+      </c>
+      <c r="Z21">
+        <v>21</v>
+      </c>
+      <c r="AA21">
+        <v>37</v>
+      </c>
+      <c r="AB21">
+        <v>20</v>
+      </c>
+      <c r="AC21">
+        <v>15</v>
+      </c>
+      <c r="AD21">
+        <v>17</v>
+      </c>
+      <c r="AE21">
+        <v>11</v>
+      </c>
+      <c r="AF21">
+        <v>22</v>
+      </c>
+      <c r="AG21">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2</v>
+      </c>
+      <c r="O22" s="2">
+        <v>3</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <v>33</v>
+      </c>
+      <c r="O23">
+        <v>26</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>28</v>
+      </c>
+      <c r="S23">
+        <v>31</v>
+      </c>
+      <c r="T23">
+        <v>26</v>
+      </c>
+      <c r="U23">
+        <v>29</v>
+      </c>
+      <c r="V23">
+        <v>31</v>
+      </c>
+      <c r="W23">
+        <v>8</v>
+      </c>
+      <c r="Y23">
+        <v>29</v>
+      </c>
+      <c r="Z23">
+        <v>26</v>
+      </c>
+      <c r="AA23">
+        <v>17</v>
+      </c>
+      <c r="AB23">
+        <v>39</v>
+      </c>
+      <c r="AC23">
+        <v>26</v>
+      </c>
+      <c r="AD23">
+        <v>10</v>
+      </c>
+      <c r="AF23">
+        <v>40</v>
+      </c>
+      <c r="AG23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>6</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5</v>
+      </c>
+      <c r="O24" s="2">
+        <v>6</v>
+      </c>
+      <c r="P24" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2">
+        <v>5</v>
+      </c>
+      <c r="S24" s="2">
+        <v>4</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+      <c r="U24" s="2">
+        <v>7</v>
+      </c>
+      <c r="V24" s="2">
+        <v>2</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>27</v>
+      </c>
+      <c r="H25">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>22</v>
+      </c>
+      <c r="L25">
+        <v>28</v>
+      </c>
+      <c r="M25">
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <v>31</v>
+      </c>
+      <c r="O25">
+        <v>38</v>
+      </c>
+      <c r="P25">
+        <v>23</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>37</v>
+      </c>
+      <c r="S25">
+        <v>38</v>
+      </c>
+      <c r="T25">
+        <v>28</v>
+      </c>
+      <c r="U25">
+        <v>32</v>
+      </c>
+      <c r="V25">
+        <v>37</v>
+      </c>
+      <c r="W25">
+        <v>18</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>27</v>
+      </c>
+      <c r="Z25">
+        <v>36</v>
+      </c>
+      <c r="AA25">
+        <v>29</v>
+      </c>
+      <c r="AB25">
+        <v>31</v>
+      </c>
+      <c r="AC25">
+        <v>28</v>
+      </c>
+      <c r="AD25">
+        <v>24</v>
+      </c>
+      <c r="AE25">
+        <v>5</v>
+      </c>
+      <c r="AF25">
+        <v>33</v>
+      </c>
+      <c r="AG25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>91</v>
+      </c>
+      <c r="C26" s="2">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2">
+        <v>102</v>
+      </c>
+      <c r="E26" s="2">
+        <v>92</v>
+      </c>
+      <c r="F26" s="2">
+        <v>67</v>
+      </c>
+      <c r="G26" s="2">
+        <v>101</v>
+      </c>
+      <c r="H26" s="2">
+        <v>75</v>
+      </c>
+      <c r="I26" s="2">
+        <v>101</v>
+      </c>
+      <c r="J26" s="2">
+        <v>32</v>
+      </c>
+      <c r="K26" s="2">
+        <v>98</v>
+      </c>
+      <c r="L26" s="2">
+        <v>97</v>
+      </c>
+      <c r="M26" s="2">
+        <v>76</v>
+      </c>
+      <c r="N26" s="2">
+        <v>84</v>
+      </c>
+      <c r="O26" s="2">
+        <v>76</v>
+      </c>
+      <c r="P26" s="2">
+        <v>67</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>44</v>
+      </c>
+      <c r="R26" s="2">
+        <v>104</v>
+      </c>
+      <c r="S26" s="2">
+        <v>102</v>
+      </c>
+      <c r="T26" s="2">
+        <v>79</v>
+      </c>
+      <c r="U26" s="2">
+        <v>109</v>
+      </c>
+      <c r="V26" s="2">
+        <v>97</v>
+      </c>
+      <c r="W26" s="2">
+        <v>73</v>
+      </c>
+      <c r="X26" s="2">
+        <v>48</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>54</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>8</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>8</v>
+      </c>
+      <c r="S27">
+        <v>7</v>
+      </c>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>12</v>
+      </c>
+      <c r="V27">
+        <v>8</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27">
+        <v>7</v>
+      </c>
+      <c r="AA27">
+        <v>10</v>
+      </c>
+      <c r="AB27">
+        <v>9</v>
+      </c>
+      <c r="AC27">
+        <v>10</v>
+      </c>
+      <c r="AD27">
+        <v>5</v>
+      </c>
+      <c r="AF27">
+        <v>9</v>
+      </c>
+      <c r="AG27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>11</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>12</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <v>11</v>
+      </c>
+      <c r="Z29">
+        <v>12</v>
+      </c>
+      <c r="AA29">
+        <v>9</v>
+      </c>
+      <c r="AB29">
+        <v>7</v>
+      </c>
+      <c r="AD29">
+        <v>4</v>
+      </c>
+      <c r="AF29">
+        <v>11</v>
+      </c>
+      <c r="AG29">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
+        <v>6</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>6</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5</v>
+      </c>
+      <c r="O30" s="2">
+        <v>4</v>
+      </c>
+      <c r="P30" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2">
+        <v>3</v>
+      </c>
+      <c r="S30" s="2">
+        <v>5</v>
+      </c>
+      <c r="T30" s="2">
+        <v>5</v>
+      </c>
+      <c r="U30" s="2">
+        <v>4</v>
+      </c>
+      <c r="V30" s="2">
+        <v>5</v>
+      </c>
+      <c r="W30" s="2">
+        <v>2</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>11</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>23</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>24</v>
+      </c>
+      <c r="O31">
+        <v>26</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>20</v>
+      </c>
+      <c r="S31">
+        <v>14</v>
+      </c>
+      <c r="T31">
+        <v>26</v>
+      </c>
+      <c r="U31">
+        <v>21</v>
+      </c>
+      <c r="V31">
+        <v>13</v>
+      </c>
+      <c r="W31">
+        <v>8</v>
+      </c>
+      <c r="Y31">
+        <v>18</v>
+      </c>
+      <c r="Z31">
+        <v>15</v>
+      </c>
+      <c r="AA31">
+        <v>37</v>
+      </c>
+      <c r="AB31">
+        <v>12</v>
+      </c>
+      <c r="AC31">
+        <v>20</v>
+      </c>
+      <c r="AD31">
+        <v>12</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>24</v>
+      </c>
+      <c r="AG31">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>2</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2">
+        <v>2</v>
+      </c>
+      <c r="S32" s="2">
+        <v>2</v>
+      </c>
+      <c r="T32" s="2">
+        <v>2</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>6</v>
+      </c>
+      <c r="V33">
+        <v>7</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <v>3</v>
+      </c>
+      <c r="AC33">
+        <v>5</v>
+      </c>
+      <c r="AG33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <v>40</v>
+      </c>
+      <c r="E34" s="2">
+        <v>26</v>
+      </c>
+      <c r="F34" s="2">
+        <v>27</v>
+      </c>
+      <c r="G34" s="2">
+        <v>31</v>
+      </c>
+      <c r="H34" s="2">
+        <v>24</v>
+      </c>
+      <c r="I34" s="2">
+        <v>13</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>28</v>
+      </c>
+      <c r="L34" s="2">
+        <v>27</v>
+      </c>
+      <c r="M34" s="2">
+        <v>40</v>
+      </c>
+      <c r="N34" s="2">
+        <v>23</v>
+      </c>
+      <c r="O34" s="2">
+        <v>23</v>
+      </c>
+      <c r="P34" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2">
+        <v>26</v>
+      </c>
+      <c r="S34" s="2">
+        <v>19</v>
+      </c>
+      <c r="T34" s="2">
+        <v>20</v>
+      </c>
+      <c r="U34" s="2">
+        <v>23</v>
+      </c>
+      <c r="V34" s="2">
+        <v>26</v>
+      </c>
+      <c r="W34" s="2">
+        <v>12</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>32</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>23</v>
+      </c>
+      <c r="G35">
+        <v>21</v>
+      </c>
+      <c r="H35">
+        <v>21</v>
+      </c>
+      <c r="I35">
+        <v>19</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>26</v>
+      </c>
+      <c r="L35">
+        <v>14</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>17</v>
+      </c>
+      <c r="O35">
+        <v>21</v>
+      </c>
+      <c r="P35">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>27</v>
+      </c>
+      <c r="S35">
+        <v>17</v>
+      </c>
+      <c r="T35">
+        <v>13</v>
+      </c>
+      <c r="U35">
+        <v>20</v>
+      </c>
+      <c r="V35">
+        <v>30</v>
+      </c>
+      <c r="W35">
+        <v>12</v>
+      </c>
+      <c r="X35">
+        <v>2</v>
+      </c>
+      <c r="Y35">
+        <v>20</v>
+      </c>
+      <c r="Z35">
+        <v>28</v>
+      </c>
+      <c r="AA35">
+        <v>23</v>
+      </c>
+      <c r="AB35">
+        <v>14</v>
+      </c>
+      <c r="AC35">
+        <v>29</v>
+      </c>
+      <c r="AD35">
+        <v>8</v>
+      </c>
+      <c r="AE35">
+        <v>2</v>
+      </c>
+      <c r="AF35">
+        <v>31</v>
+      </c>
+      <c r="AG35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2">
+        <v>13</v>
+      </c>
+      <c r="H36" s="2">
+        <v>16</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>14</v>
+      </c>
+      <c r="L36" s="2">
+        <v>5</v>
+      </c>
+      <c r="M36" s="2">
+        <v>11</v>
+      </c>
+      <c r="N36" s="2">
+        <v>14</v>
+      </c>
+      <c r="O36" s="2">
+        <v>15</v>
+      </c>
+      <c r="P36" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2">
+        <v>13</v>
+      </c>
+      <c r="S36" s="2">
+        <v>8</v>
+      </c>
+      <c r="T36" s="2">
+        <v>14</v>
+      </c>
+      <c r="U36" s="2">
+        <v>13</v>
+      </c>
+      <c r="V36" s="2">
+        <v>12</v>
+      </c>
+      <c r="W36" s="2">
+        <v>10</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>6</v>
+      </c>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2">
+        <v>19</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>84</v>
+      </c>
+      <c r="E37">
+        <v>58</v>
+      </c>
+      <c r="F37">
+        <v>63</v>
+      </c>
+      <c r="G37">
+        <v>77</v>
+      </c>
+      <c r="H37">
+        <v>82</v>
+      </c>
+      <c r="I37">
+        <v>36</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>68</v>
+      </c>
+      <c r="L37">
+        <v>70</v>
+      </c>
+      <c r="M37">
+        <v>59</v>
+      </c>
+      <c r="N37">
+        <v>64</v>
+      </c>
+      <c r="O37">
+        <v>59</v>
+      </c>
+      <c r="P37">
+        <v>39</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>71</v>
+      </c>
+      <c r="S37">
+        <v>73</v>
+      </c>
+      <c r="T37">
+        <v>62</v>
+      </c>
+      <c r="U37">
+        <v>75</v>
+      </c>
+      <c r="V37">
+        <v>74</v>
+      </c>
+      <c r="W37">
+        <v>39</v>
+      </c>
+      <c r="X37">
+        <v>4</v>
+      </c>
+      <c r="Y37">
+        <v>63</v>
+      </c>
+      <c r="Z37">
+        <v>66</v>
+      </c>
+      <c r="AA37">
+        <v>58</v>
+      </c>
+      <c r="AB37">
+        <v>70</v>
+      </c>
+      <c r="AC37">
+        <v>74</v>
+      </c>
+      <c r="AD37">
+        <v>31</v>
+      </c>
+      <c r="AE37">
+        <v>4</v>
+      </c>
+      <c r="AF37">
+        <v>84</v>
+      </c>
+      <c r="AG37">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2">
+        <v>7</v>
+      </c>
+      <c r="G38" s="2">
+        <v>13</v>
+      </c>
+      <c r="H38" s="2">
+        <v>11</v>
+      </c>
+      <c r="I38" s="2">
+        <v>11</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2">
+        <v>11</v>
+      </c>
+      <c r="L38" s="2">
+        <v>14</v>
+      </c>
+      <c r="M38" s="2">
+        <v>16</v>
+      </c>
+      <c r="N38" s="2">
+        <v>9</v>
+      </c>
+      <c r="O38" s="2">
+        <v>14</v>
+      </c>
+      <c r="P38" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+      <c r="R38" s="2">
+        <v>19</v>
+      </c>
+      <c r="S38" s="2">
+        <v>17</v>
+      </c>
+      <c r="T38" s="2">
+        <v>7</v>
+      </c>
+      <c r="U38" s="2">
+        <v>17</v>
+      </c>
+      <c r="V38" s="2">
+        <v>15</v>
+      </c>
+      <c r="W38" s="2">
+        <v>5</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>16</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>34</v>
+      </c>
+      <c r="G39">
+        <v>53</v>
+      </c>
+      <c r="H39">
+        <v>61</v>
+      </c>
+      <c r="I39">
+        <v>37</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>63</v>
+      </c>
+      <c r="L39">
+        <v>43</v>
+      </c>
+      <c r="M39">
+        <v>55</v>
+      </c>
+      <c r="N39">
+        <v>63</v>
+      </c>
+      <c r="O39">
+        <v>59</v>
+      </c>
+      <c r="P39">
+        <v>32</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>60</v>
+      </c>
+      <c r="S39">
+        <v>61</v>
+      </c>
+      <c r="T39">
+        <v>64</v>
+      </c>
+      <c r="U39">
+        <v>53</v>
+      </c>
+      <c r="V39">
+        <v>47</v>
+      </c>
+      <c r="W39">
+        <v>32</v>
+      </c>
+      <c r="X39">
+        <v>4</v>
+      </c>
+      <c r="Y39">
+        <v>54</v>
+      </c>
+      <c r="Z39">
+        <v>52</v>
+      </c>
+      <c r="AA39">
+        <v>37</v>
+      </c>
+      <c r="AB39">
+        <v>70</v>
+      </c>
+      <c r="AC39">
+        <v>51</v>
+      </c>
+      <c r="AD39">
+        <v>25</v>
+      </c>
+      <c r="AE39">
+        <v>2</v>
+      </c>
+      <c r="AF39">
+        <v>61</v>
+      </c>
+      <c r="AG39">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2">
+        <v>8</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2">
+        <v>6</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2">
+        <v>1</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2">
+        <v>5</v>
+      </c>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2">
+        <v>2</v>
+      </c>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2">
+        <v>2</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>4</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>3</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>7</v>
+      </c>
+      <c r="AF41">
+        <v>3</v>
+      </c>
+      <c r="AG41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
+        <v>23</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>15</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2">
+        <v>12</v>
+      </c>
+      <c r="L42" s="2">
+        <v>16</v>
+      </c>
+      <c r="M42" s="2">
+        <v>35</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>89</v>
+      </c>
+      <c r="E43">
+        <v>84</v>
+      </c>
+      <c r="G43">
+        <v>57</v>
+      </c>
+      <c r="H43">
+        <v>57</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>98</v>
+      </c>
+      <c r="L43">
+        <v>90</v>
+      </c>
+      <c r="M43">
+        <v>66</v>
+      </c>
+      <c r="N43">
+        <v>66</v>
+      </c>
+      <c r="O43">
+        <v>61</v>
+      </c>
+      <c r="Y43">
+        <v>95</v>
+      </c>
+      <c r="Z43">
+        <v>75</v>
+      </c>
+      <c r="AA43">
+        <v>77</v>
+      </c>
+      <c r="AB43">
+        <v>65</v>
+      </c>
+      <c r="AC43">
+        <v>52</v>
+      </c>
+      <c r="AG43">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2">
+        <v>3</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>7</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="Y45">
+        <v>14</v>
+      </c>
+      <c r="Z45">
+        <v>4</v>
+      </c>
+      <c r="AA45">
+        <v>14</v>
+      </c>
+      <c r="AB45">
+        <v>3</v>
+      </c>
+      <c r="AC45">
+        <v>19</v>
+      </c>
+      <c r="AG45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>8</v>
+      </c>
+      <c r="L46">
+        <v>6</v>
+      </c>
+      <c r="M46">
+        <v>8</v>
+      </c>
+      <c r="N46">
+        <v>12</v>
+      </c>
+      <c r="O46">
+        <v>6</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>10</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>7</v>
+      </c>
+      <c r="U46">
+        <v>11</v>
+      </c>
+      <c r="V46">
+        <v>6</v>
+      </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
+      <c r="Y46">
+        <v>7</v>
+      </c>
+      <c r="Z46">
+        <v>8</v>
+      </c>
+      <c r="AA46">
+        <v>8</v>
+      </c>
+      <c r="AB46">
+        <v>8</v>
+      </c>
+      <c r="AC46">
+        <v>9</v>
+      </c>
+      <c r="AD46">
+        <v>4</v>
+      </c>
+      <c r="AF46">
+        <v>9</v>
+      </c>
+      <c r="AG46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>14</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <v>21</v>
+      </c>
+      <c r="E47" s="2">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2">
+        <v>17</v>
+      </c>
+      <c r="I47" s="2">
+        <v>7</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2">
+        <v>17</v>
+      </c>
+      <c r="L47" s="2">
+        <v>15</v>
+      </c>
+      <c r="M47" s="2">
+        <v>11</v>
+      </c>
+      <c r="N47" s="2">
+        <v>23</v>
+      </c>
+      <c r="O47" s="2">
+        <v>11</v>
+      </c>
+      <c r="P47" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>1</v>
+      </c>
+      <c r="R47" s="2">
+        <v>23</v>
+      </c>
+      <c r="S47" s="2">
+        <v>22</v>
+      </c>
+      <c r="T47" s="2">
+        <v>28</v>
+      </c>
+      <c r="U47" s="2">
+        <v>13</v>
+      </c>
+      <c r="V47" s="2">
+        <v>18</v>
+      </c>
+      <c r="W47" s="2">
+        <v>8</v>
+      </c>
+      <c r="X47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>18</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>16</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>34</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <v>39</v>
+      </c>
+      <c r="I48">
+        <v>18</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>34</v>
+      </c>
+      <c r="L48">
+        <v>27</v>
+      </c>
+      <c r="M48">
+        <v>32</v>
+      </c>
+      <c r="N48">
+        <v>21</v>
+      </c>
+      <c r="O48">
+        <v>33</v>
+      </c>
+      <c r="P48">
+        <v>14</v>
+      </c>
+      <c r="R48">
+        <v>37</v>
+      </c>
+      <c r="S48">
+        <v>34</v>
+      </c>
+      <c r="T48">
+        <v>17</v>
+      </c>
+      <c r="U48">
+        <v>27</v>
+      </c>
+      <c r="V48">
+        <v>22</v>
+      </c>
+      <c r="W48">
+        <v>17</v>
+      </c>
+      <c r="X48">
+        <v>2</v>
+      </c>
+      <c r="Y48">
+        <v>23</v>
+      </c>
+      <c r="Z48">
+        <v>38</v>
+      </c>
+      <c r="AA48">
+        <v>29</v>
+      </c>
+      <c r="AB48">
+        <v>18</v>
+      </c>
+      <c r="AC48">
+        <v>22</v>
+      </c>
+      <c r="AD48">
+        <v>17</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>27</v>
+      </c>
+      <c r="AG48">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
+        <v>16</v>
+      </c>
+      <c r="E49" s="2">
+        <v>33</v>
+      </c>
+      <c r="F49" s="2">
+        <v>21</v>
+      </c>
+      <c r="G49" s="2">
+        <v>18</v>
+      </c>
+      <c r="H49" s="2">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2">
+        <v>12</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2">
+        <v>29</v>
+      </c>
+      <c r="L49" s="2">
+        <v>24</v>
+      </c>
+      <c r="M49" s="2">
+        <v>26</v>
+      </c>
+      <c r="N49" s="2">
+        <v>29</v>
+      </c>
+      <c r="O49" s="2">
+        <v>15</v>
+      </c>
+      <c r="P49" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>3</v>
+      </c>
+      <c r="R49" s="2">
+        <v>18</v>
+      </c>
+      <c r="S49" s="2">
+        <v>17</v>
+      </c>
+      <c r="T49" s="2">
+        <v>10</v>
+      </c>
+      <c r="U49" s="2">
+        <v>26</v>
+      </c>
+      <c r="V49" s="2">
+        <v>18</v>
+      </c>
+      <c r="W49" s="2">
+        <v>12</v>
+      </c>
+      <c r="X49" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>29</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>14</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2">
+        <v>19</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>37</v>
+      </c>
+      <c r="F50">
+        <v>14</v>
+      </c>
+      <c r="G50">
+        <v>48</v>
+      </c>
+      <c r="H50">
+        <v>22</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>20</v>
+      </c>
+      <c r="L50">
+        <v>30</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>21</v>
+      </c>
+      <c r="O50">
+        <v>13</v>
+      </c>
+      <c r="P50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>17</v>
+      </c>
+      <c r="S50">
+        <v>42</v>
+      </c>
+      <c r="T50">
+        <v>14</v>
+      </c>
+      <c r="U50">
+        <v>12</v>
+      </c>
+      <c r="V50">
+        <v>12</v>
+      </c>
+      <c r="W50">
+        <v>4</v>
+      </c>
+      <c r="Y50">
+        <v>22</v>
+      </c>
+      <c r="Z50">
+        <v>11</v>
+      </c>
+      <c r="AA50">
+        <v>30</v>
+      </c>
+      <c r="AB50">
+        <v>16</v>
+      </c>
+      <c r="AC50">
+        <v>17</v>
+      </c>
+      <c r="AD50">
+        <v>5</v>
+      </c>
+      <c r="AF50">
+        <v>15</v>
+      </c>
+      <c r="AG50">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>34</v>
+      </c>
+      <c r="C51" s="2">
+        <v>18</v>
+      </c>
+      <c r="D51" s="2">
+        <v>50</v>
+      </c>
+      <c r="E51" s="2">
+        <v>53</v>
+      </c>
+      <c r="F51" s="2">
+        <v>33</v>
+      </c>
+      <c r="G51" s="2">
+        <v>62</v>
+      </c>
+      <c r="H51" s="2">
+        <v>55</v>
+      </c>
+      <c r="I51" s="2">
+        <v>25</v>
+      </c>
+      <c r="J51" s="2">
+        <v>19</v>
+      </c>
+      <c r="K51" s="2">
+        <v>43</v>
+      </c>
+      <c r="L51" s="2">
+        <v>47</v>
+      </c>
+      <c r="M51" s="2">
+        <v>46</v>
+      </c>
+      <c r="N51" s="2">
+        <v>41</v>
+      </c>
+      <c r="O51" s="2">
+        <v>44</v>
+      </c>
+      <c r="P51" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>12</v>
+      </c>
+      <c r="R51" s="2">
+        <v>41</v>
+      </c>
+      <c r="S51" s="2">
+        <v>47</v>
+      </c>
+      <c r="T51" s="2">
+        <v>45</v>
+      </c>
+      <c r="U51" s="2">
+        <v>43</v>
+      </c>
+      <c r="V51" s="2">
+        <v>53</v>
+      </c>
+      <c r="W51" s="2">
+        <v>32</v>
+      </c>
+      <c r="X51" s="2">
+        <v>16</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>51</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>51</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>48</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>49</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>14</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>10</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>8</v>
+      </c>
+      <c r="T52">
+        <v>6</v>
+      </c>
+      <c r="U52">
+        <v>8</v>
+      </c>
+      <c r="V52">
+        <v>11</v>
+      </c>
+      <c r="W52">
+        <v>4</v>
+      </c>
+      <c r="Y52">
+        <v>10</v>
+      </c>
+      <c r="Z52">
+        <v>5</v>
+      </c>
+      <c r="AA52">
+        <v>11</v>
+      </c>
+      <c r="AB52">
+        <v>3</v>
+      </c>
+      <c r="AC52">
+        <v>8</v>
+      </c>
+      <c r="AD52">
+        <v>6</v>
+      </c>
+      <c r="AF52">
+        <v>4</v>
+      </c>
+      <c r="AG52">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2">
+        <v>15</v>
+      </c>
+      <c r="F53" s="2">
+        <v>9</v>
+      </c>
+      <c r="G53" s="2">
+        <v>16</v>
+      </c>
+      <c r="H53" s="2">
+        <v>17</v>
+      </c>
+      <c r="I53" s="2">
+        <v>5</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2">
+        <v>17</v>
+      </c>
+      <c r="L53" s="2">
+        <v>12</v>
+      </c>
+      <c r="M53" s="2">
+        <v>9</v>
+      </c>
+      <c r="N53" s="2">
+        <v>12</v>
+      </c>
+      <c r="O53" s="2">
+        <v>17</v>
+      </c>
+      <c r="P53" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2">
+        <v>11</v>
+      </c>
+      <c r="S53" s="2">
+        <v>20</v>
+      </c>
+      <c r="T53" s="2">
+        <v>12</v>
+      </c>
+      <c r="U53" s="2">
+        <v>14</v>
+      </c>
+      <c r="V53" s="2">
+        <v>18</v>
+      </c>
+      <c r="W53" s="2">
+        <v>5</v>
+      </c>
+      <c r="X53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2">
+        <v>13</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>6</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>6</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>2</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>3</v>
+      </c>
+      <c r="AB54">
+        <v>3</v>
+      </c>
+      <c r="AC54">
+        <v>6</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
+      <c r="AF54">
+        <v>3</v>
+      </c>
+      <c r="AG54">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8</v>
+      </c>
+      <c r="F55" s="2">
+        <v>5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>4</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>3</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2">
+        <v>2</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2">
+        <v>3</v>
+      </c>
+      <c r="S55" s="2">
+        <v>4</v>
+      </c>
+      <c r="T55" s="2">
+        <v>9</v>
+      </c>
+      <c r="U55" s="2">
+        <v>2</v>
+      </c>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2">
+        <v>3</v>
+      </c>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG55" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>12</v>
+      </c>
+      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56">
+        <v>7</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>3</v>
+      </c>
+      <c r="S56">
+        <v>3</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>9</v>
+      </c>
+      <c r="V56">
+        <v>5</v>
+      </c>
+      <c r="W56">
+        <v>2</v>
+      </c>
+      <c r="Y56">
+        <v>4</v>
+      </c>
+      <c r="Z56">
+        <v>3</v>
+      </c>
+      <c r="AA56">
+        <v>5</v>
+      </c>
+      <c r="AB56">
+        <v>9</v>
+      </c>
+      <c r="AC56">
+        <v>4</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
+      <c r="AF56">
+        <v>7</v>
+      </c>
+      <c r="AG56">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:AG56" xr:uid="{34968F86-018E-44E2-A2A3-E904B7A2DFA5}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633557D5-54F2-4CB6-8A69-0FAA84994F48}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:AG56"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -14603,14 +19310,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{34968F86-018E-44E2-A2A3-E904B7A2DFA5}"/>
+  <autoFilter ref="A3:AG3" xr:uid="{9030ABEF-4467-42E7-BCDA-FF968810D030}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633557D5-54F2-4CB6-8A69-0FAA84994F48}">
-  <sheetPr codeName="Sheet8"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F019DD36-2470-4123-8256-7D454BF2199F}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -15866,14 +20573,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG3" xr:uid="{9030ABEF-4467-42E7-BCDA-FF968810D030}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{CF4BD388-15BB-4ED1-B3EC-71F3785ED5DD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F019DD36-2470-4123-8256-7D454BF2199F}">
-  <sheetPr codeName="Sheet10"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7559C5-98A6-49B7-ABC7-2F44371F9A3D}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17129,14 +21836,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{CF4BD388-15BB-4ED1-B3EC-71F3785ED5DD}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{56447E71-7667-4E1B-8A2F-C07AA18E89A6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7559C5-98A6-49B7-ABC7-2F44371F9A3D}">
-  <sheetPr codeName="Sheet12"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -18392,14 +23099,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{56447E71-7667-4E1B-8A2F-C07AA18E89A6}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
-  <sheetPr codeName="Sheet14"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -19655,14 +24362,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
-  <sheetPr codeName="Sheet16"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -20918,1270 +25626,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:AG56"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-      <c r="AA1">
-        <v>26</v>
-      </c>
-      <c r="AB1">
-        <v>27</v>
-      </c>
-      <c r="AC1">
-        <v>28</v>
-      </c>
-      <c r="AD1">
-        <v>29</v>
-      </c>
-      <c r="AE1">
-        <v>30</v>
-      </c>
-      <c r="AF1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
   <autoFilter ref="A3:AG56" xr:uid="{AFC2BCF1-614C-4B72-8DE9-95317B022DA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
+++ b/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB1498-F502-4E22-B20B-78D399AE87E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31589509-6F9C-44E9-A478-486B8EC772D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" activeTab="3" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="70">
   <si>
     <t>branchname</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>2025-03-01 - 2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-01 - 2025-04-30</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46:XFD46"/>
       <selection pane="topRight" activeCell="A46" sqref="A46:XFD46"/>
@@ -18057,6 +18060,4761 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45749</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45750</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45751</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45752</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45753</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45754</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45755</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45756</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45757</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45758</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45759</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45760</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45761</v>
+      </c>
+      <c r="P2" s="1">
+        <v>45762</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45763</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45764</v>
+      </c>
+      <c r="S2" s="1">
+        <v>45765</v>
+      </c>
+      <c r="T2" s="1">
+        <v>45766</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45767</v>
+      </c>
+      <c r="V2" s="1">
+        <v>45768</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45769</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45770</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>45771</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>45772</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45773</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>45774</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>45775</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>45776</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>45777</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>75</v>
+      </c>
+      <c r="I4" s="2">
+        <v>65</v>
+      </c>
+      <c r="J4" s="2">
+        <v>56</v>
+      </c>
+      <c r="K4" s="2">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2">
+        <v>44</v>
+      </c>
+      <c r="M4" s="2">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2">
+        <v>61</v>
+      </c>
+      <c r="P4" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>51</v>
+      </c>
+      <c r="R4" s="2">
+        <v>72</v>
+      </c>
+      <c r="S4" s="2">
+        <v>51</v>
+      </c>
+      <c r="T4" s="2">
+        <v>32</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>47</v>
+      </c>
+      <c r="W4" s="2">
+        <v>50</v>
+      </c>
+      <c r="X4" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>59</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>47</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>37</v>
+      </c>
+      <c r="L5">
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>50</v>
+      </c>
+      <c r="P5">
+        <v>36</v>
+      </c>
+      <c r="Q5">
+        <v>47</v>
+      </c>
+      <c r="R5">
+        <v>43</v>
+      </c>
+      <c r="S5">
+        <v>35</v>
+      </c>
+      <c r="T5">
+        <v>15</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>49</v>
+      </c>
+      <c r="W5">
+        <v>33</v>
+      </c>
+      <c r="X5">
+        <v>38</v>
+      </c>
+      <c r="Y5">
+        <v>49</v>
+      </c>
+      <c r="Z5">
+        <v>21</v>
+      </c>
+      <c r="AA5">
+        <v>31</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>59</v>
+      </c>
+      <c r="AD5">
+        <v>30</v>
+      </c>
+      <c r="AE5">
+        <v>35</v>
+      </c>
+      <c r="AG5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2">
+        <v>71</v>
+      </c>
+      <c r="F6" s="2">
+        <v>67</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2">
+        <v>76</v>
+      </c>
+      <c r="J6" s="2">
+        <v>72</v>
+      </c>
+      <c r="K6" s="2">
+        <v>75</v>
+      </c>
+      <c r="L6" s="2">
+        <v>52</v>
+      </c>
+      <c r="M6" s="2">
+        <v>46</v>
+      </c>
+      <c r="N6" s="2">
+        <v>51</v>
+      </c>
+      <c r="O6" s="2">
+        <v>65</v>
+      </c>
+      <c r="P6" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>59</v>
+      </c>
+      <c r="R6" s="2">
+        <v>65</v>
+      </c>
+      <c r="S6" s="2">
+        <v>66</v>
+      </c>
+      <c r="T6" s="2">
+        <v>67</v>
+      </c>
+      <c r="U6" s="2">
+        <v>12</v>
+      </c>
+      <c r="V6" s="2">
+        <v>83</v>
+      </c>
+      <c r="W6" s="2">
+        <v>74</v>
+      </c>
+      <c r="X6" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>50</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>58</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <v>7</v>
+      </c>
+      <c r="AG7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2">
+        <v>57</v>
+      </c>
+      <c r="G8" s="2">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" s="2">
+        <v>49</v>
+      </c>
+      <c r="L8" s="2">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2">
+        <v>40</v>
+      </c>
+      <c r="N8" s="2">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2">
+        <v>57</v>
+      </c>
+      <c r="P8" s="2">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>48</v>
+      </c>
+      <c r="R8" s="2">
+        <v>58</v>
+      </c>
+      <c r="S8" s="2">
+        <v>46</v>
+      </c>
+      <c r="T8" s="2">
+        <v>41</v>
+      </c>
+      <c r="U8" s="2">
+        <v>2</v>
+      </c>
+      <c r="V8" s="2">
+        <v>62</v>
+      </c>
+      <c r="W8" s="2">
+        <v>46</v>
+      </c>
+      <c r="X8" s="2">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>56</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9">
+        <v>11</v>
+      </c>
+      <c r="AG9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8</v>
+      </c>
+      <c r="M10" s="2">
+        <v>6</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>11</v>
+      </c>
+      <c r="R10" s="2">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2">
+        <v>7</v>
+      </c>
+      <c r="T10" s="2">
+        <v>5</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2">
+        <v>7</v>
+      </c>
+      <c r="W10" s="2">
+        <v>7</v>
+      </c>
+      <c r="X10" s="2">
+        <v>11</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>13</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>15</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>3</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AG11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
+        <v>2</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>3</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2">
+        <v>9</v>
+      </c>
+      <c r="J16" s="2">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2">
+        <v>7</v>
+      </c>
+      <c r="L16" s="2">
+        <v>11</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2">
+        <v>8</v>
+      </c>
+      <c r="P16" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>10</v>
+      </c>
+      <c r="R16" s="2">
+        <v>10</v>
+      </c>
+      <c r="S16" s="2">
+        <v>9</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2">
+        <v>11</v>
+      </c>
+      <c r="W16" s="2">
+        <v>6</v>
+      </c>
+      <c r="X16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>8</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
+      <c r="AA17">
+        <v>5</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>6</v>
+      </c>
+      <c r="AD17">
+        <v>6</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2">
+        <v>6</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2">
+        <v>6</v>
+      </c>
+      <c r="P18" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2">
+        <v>7</v>
+      </c>
+      <c r="S18" s="2">
+        <v>6</v>
+      </c>
+      <c r="T18" s="2">
+        <v>2</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2">
+        <v>10</v>
+      </c>
+      <c r="W18" s="2">
+        <v>2</v>
+      </c>
+      <c r="X18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="O19">
+        <v>27</v>
+      </c>
+      <c r="P19">
+        <v>22</v>
+      </c>
+      <c r="Q19">
+        <v>22</v>
+      </c>
+      <c r="R19">
+        <v>20</v>
+      </c>
+      <c r="S19">
+        <v>18</v>
+      </c>
+      <c r="T19">
+        <v>16</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>34</v>
+      </c>
+      <c r="W19">
+        <v>8</v>
+      </c>
+      <c r="X19">
+        <v>22</v>
+      </c>
+      <c r="Y19">
+        <v>21</v>
+      </c>
+      <c r="Z19">
+        <v>19</v>
+      </c>
+      <c r="AA19">
+        <v>20</v>
+      </c>
+      <c r="AC19">
+        <v>28</v>
+      </c>
+      <c r="AD19">
+        <v>26</v>
+      </c>
+      <c r="AE19">
+        <v>17</v>
+      </c>
+      <c r="AG19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>4</v>
+      </c>
+      <c r="R20" s="2">
+        <v>3</v>
+      </c>
+      <c r="S20" s="2">
+        <v>2</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="W20" s="2">
+        <v>2</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>24</v>
+      </c>
+      <c r="L21">
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <v>15</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>28</v>
+      </c>
+      <c r="P21">
+        <v>24</v>
+      </c>
+      <c r="Q21">
+        <v>23</v>
+      </c>
+      <c r="R21">
+        <v>18</v>
+      </c>
+      <c r="S21">
+        <v>16</v>
+      </c>
+      <c r="T21">
+        <v>17</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>28</v>
+      </c>
+      <c r="W21">
+        <v>26</v>
+      </c>
+      <c r="X21">
+        <v>29</v>
+      </c>
+      <c r="Y21">
+        <v>22</v>
+      </c>
+      <c r="Z21">
+        <v>15</v>
+      </c>
+      <c r="AA21">
+        <v>17</v>
+      </c>
+      <c r="AB21">
+        <v>10</v>
+      </c>
+      <c r="AC21">
+        <v>22</v>
+      </c>
+      <c r="AD21">
+        <v>32</v>
+      </c>
+      <c r="AE21">
+        <v>37</v>
+      </c>
+      <c r="AG21">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>3</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>4</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2">
+        <v>2</v>
+      </c>
+      <c r="X22" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>37</v>
+      </c>
+      <c r="I23">
+        <v>39</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>34</v>
+      </c>
+      <c r="L23">
+        <v>27</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>27</v>
+      </c>
+      <c r="P23">
+        <v>25</v>
+      </c>
+      <c r="Q23">
+        <v>25</v>
+      </c>
+      <c r="R23">
+        <v>23</v>
+      </c>
+      <c r="S23">
+        <v>20</v>
+      </c>
+      <c r="T23">
+        <v>11</v>
+      </c>
+      <c r="V23">
+        <v>32</v>
+      </c>
+      <c r="W23">
+        <v>33</v>
+      </c>
+      <c r="X23">
+        <v>17</v>
+      </c>
+      <c r="Y23">
+        <v>22</v>
+      </c>
+      <c r="Z23">
+        <v>18</v>
+      </c>
+      <c r="AA23">
+        <v>12</v>
+      </c>
+      <c r="AC23">
+        <v>23</v>
+      </c>
+      <c r="AD23">
+        <v>25</v>
+      </c>
+      <c r="AE23">
+        <v>26</v>
+      </c>
+      <c r="AG23">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>7</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3</v>
+      </c>
+      <c r="L24" s="2">
+        <v>4</v>
+      </c>
+      <c r="M24" s="2">
+        <v>4</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2">
+        <v>5</v>
+      </c>
+      <c r="P24" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>7</v>
+      </c>
+      <c r="R24" s="2">
+        <v>2</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2">
+        <v>8</v>
+      </c>
+      <c r="W24" s="2">
+        <v>8</v>
+      </c>
+      <c r="X24" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>31</v>
+      </c>
+      <c r="J25">
+        <v>28</v>
+      </c>
+      <c r="K25">
+        <v>46</v>
+      </c>
+      <c r="L25">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>18</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>28</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <v>22</v>
+      </c>
+      <c r="S25">
+        <v>36</v>
+      </c>
+      <c r="T25">
+        <v>21</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>33</v>
+      </c>
+      <c r="W25">
+        <v>23</v>
+      </c>
+      <c r="X25">
+        <v>18</v>
+      </c>
+      <c r="Y25">
+        <v>50</v>
+      </c>
+      <c r="Z25">
+        <v>22</v>
+      </c>
+      <c r="AA25">
+        <v>19</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>43</v>
+      </c>
+      <c r="AD25">
+        <v>34</v>
+      </c>
+      <c r="AE25">
+        <v>20</v>
+      </c>
+      <c r="AG25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2">
+        <v>98</v>
+      </c>
+      <c r="D26" s="2">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2">
+        <v>99</v>
+      </c>
+      <c r="F26" s="2">
+        <v>95</v>
+      </c>
+      <c r="G26" s="2">
+        <v>49</v>
+      </c>
+      <c r="H26" s="2">
+        <v>94</v>
+      </c>
+      <c r="I26" s="2">
+        <v>97</v>
+      </c>
+      <c r="J26" s="2">
+        <v>88</v>
+      </c>
+      <c r="K26" s="2">
+        <v>90</v>
+      </c>
+      <c r="L26" s="2">
+        <v>77</v>
+      </c>
+      <c r="M26" s="2">
+        <v>62</v>
+      </c>
+      <c r="N26" s="2">
+        <v>48</v>
+      </c>
+      <c r="O26" s="2">
+        <v>90</v>
+      </c>
+      <c r="P26" s="2">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>95</v>
+      </c>
+      <c r="R26" s="2">
+        <v>72</v>
+      </c>
+      <c r="S26" s="2">
+        <v>87</v>
+      </c>
+      <c r="T26" s="2">
+        <v>59</v>
+      </c>
+      <c r="U26" s="2">
+        <v>9</v>
+      </c>
+      <c r="V26" s="2">
+        <v>102</v>
+      </c>
+      <c r="W26" s="2">
+        <v>106</v>
+      </c>
+      <c r="X26" s="2">
+        <v>105</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>68</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>54</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>86</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>103</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+      <c r="P27">
+        <v>11</v>
+      </c>
+      <c r="Q27">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>14</v>
+      </c>
+      <c r="W27">
+        <v>7</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+      <c r="Z27">
+        <v>4</v>
+      </c>
+      <c r="AA27">
+        <v>7</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>7</v>
+      </c>
+      <c r="AD27">
+        <v>9</v>
+      </c>
+      <c r="AE27">
+        <v>7</v>
+      </c>
+      <c r="AG27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>7</v>
+      </c>
+      <c r="W29">
+        <v>8</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29">
+        <v>9</v>
+      </c>
+      <c r="AA29">
+        <v>3</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>3</v>
+      </c>
+      <c r="AD29">
+        <v>12</v>
+      </c>
+      <c r="AE29">
+        <v>9</v>
+      </c>
+      <c r="AG29">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>7</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4</v>
+      </c>
+      <c r="K30" s="2">
+        <v>4</v>
+      </c>
+      <c r="L30" s="2">
+        <v>4</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2">
+        <v>3</v>
+      </c>
+      <c r="P30" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>5</v>
+      </c>
+      <c r="R30" s="2">
+        <v>4</v>
+      </c>
+      <c r="S30" s="2">
+        <v>2</v>
+      </c>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2">
+        <v>6</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>8</v>
+      </c>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>23</v>
+      </c>
+      <c r="J31">
+        <v>31</v>
+      </c>
+      <c r="K31">
+        <v>13</v>
+      </c>
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>21</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>18</v>
+      </c>
+      <c r="R31">
+        <v>24</v>
+      </c>
+      <c r="S31">
+        <v>9</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="V31">
+        <v>17</v>
+      </c>
+      <c r="W31">
+        <v>22</v>
+      </c>
+      <c r="X31">
+        <v>21</v>
+      </c>
+      <c r="Y31">
+        <v>21</v>
+      </c>
+      <c r="Z31">
+        <v>17</v>
+      </c>
+      <c r="AA31">
+        <v>12</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>16</v>
+      </c>
+      <c r="AD31">
+        <v>21</v>
+      </c>
+      <c r="AE31">
+        <v>19</v>
+      </c>
+      <c r="AG31">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>3</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>2</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1</v>
+      </c>
+      <c r="S32" s="2">
+        <v>2</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>6</v>
+      </c>
+      <c r="X33">
+        <v>6</v>
+      </c>
+      <c r="Y33">
+        <v>9</v>
+      </c>
+      <c r="Z33">
+        <v>7</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>6</v>
+      </c>
+      <c r="AE33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>29</v>
+      </c>
+      <c r="C34" s="2">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2">
+        <v>29</v>
+      </c>
+      <c r="F34" s="2">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>31</v>
+      </c>
+      <c r="I34" s="2">
+        <v>24</v>
+      </c>
+      <c r="J34" s="2">
+        <v>31</v>
+      </c>
+      <c r="K34" s="2">
+        <v>21</v>
+      </c>
+      <c r="L34" s="2">
+        <v>27</v>
+      </c>
+      <c r="M34" s="2">
+        <v>6</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>41</v>
+      </c>
+      <c r="P34" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>23</v>
+      </c>
+      <c r="R34" s="2">
+        <v>32</v>
+      </c>
+      <c r="S34" s="2">
+        <v>18</v>
+      </c>
+      <c r="T34" s="2">
+        <v>6</v>
+      </c>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2">
+        <v>24</v>
+      </c>
+      <c r="W34" s="2">
+        <v>35</v>
+      </c>
+      <c r="X34" s="2">
+        <v>28</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>27</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2">
+        <v>30</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>32</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>33</v>
+      </c>
+      <c r="I35">
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <v>26</v>
+      </c>
+      <c r="K35">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>17</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>19</v>
+      </c>
+      <c r="P35">
+        <v>19</v>
+      </c>
+      <c r="Q35">
+        <v>15</v>
+      </c>
+      <c r="R35">
+        <v>18</v>
+      </c>
+      <c r="S35">
+        <v>17</v>
+      </c>
+      <c r="T35">
+        <v>13</v>
+      </c>
+      <c r="V35">
+        <v>34</v>
+      </c>
+      <c r="W35">
+        <v>26</v>
+      </c>
+      <c r="X35">
+        <v>25</v>
+      </c>
+      <c r="Y35">
+        <v>19</v>
+      </c>
+      <c r="Z35">
+        <v>12</v>
+      </c>
+      <c r="AA35">
+        <v>24</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>27</v>
+      </c>
+      <c r="AD35">
+        <v>15</v>
+      </c>
+      <c r="AE35">
+        <v>17</v>
+      </c>
+      <c r="AG35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
+        <v>32</v>
+      </c>
+      <c r="E36" s="2">
+        <v>16</v>
+      </c>
+      <c r="F36" s="2">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>8</v>
+      </c>
+      <c r="I36" s="2">
+        <v>10</v>
+      </c>
+      <c r="J36" s="2">
+        <v>12</v>
+      </c>
+      <c r="K36" s="2">
+        <v>14</v>
+      </c>
+      <c r="L36" s="2">
+        <v>11</v>
+      </c>
+      <c r="M36" s="2">
+        <v>7</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2">
+        <v>17</v>
+      </c>
+      <c r="P36" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>11</v>
+      </c>
+      <c r="R36" s="2">
+        <v>9</v>
+      </c>
+      <c r="S36" s="2">
+        <v>15</v>
+      </c>
+      <c r="T36" s="2">
+        <v>4</v>
+      </c>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2">
+        <v>12</v>
+      </c>
+      <c r="W36" s="2">
+        <v>17</v>
+      </c>
+      <c r="X36" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>67</v>
+      </c>
+      <c r="C37">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>76</v>
+      </c>
+      <c r="E37">
+        <v>51</v>
+      </c>
+      <c r="F37">
+        <v>47</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>74</v>
+      </c>
+      <c r="I37">
+        <v>52</v>
+      </c>
+      <c r="J37">
+        <v>55</v>
+      </c>
+      <c r="K37">
+        <v>68</v>
+      </c>
+      <c r="L37">
+        <v>55</v>
+      </c>
+      <c r="M37">
+        <v>24</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>75</v>
+      </c>
+      <c r="P37">
+        <v>56</v>
+      </c>
+      <c r="Q37">
+        <v>52</v>
+      </c>
+      <c r="R37">
+        <v>56</v>
+      </c>
+      <c r="S37">
+        <v>75</v>
+      </c>
+      <c r="T37">
+        <v>35</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>72</v>
+      </c>
+      <c r="W37">
+        <v>43</v>
+      </c>
+      <c r="X37">
+        <v>42</v>
+      </c>
+      <c r="Y37">
+        <v>76</v>
+      </c>
+      <c r="Z37">
+        <v>66</v>
+      </c>
+      <c r="AA37">
+        <v>29</v>
+      </c>
+      <c r="AB37">
+        <v>4</v>
+      </c>
+      <c r="AC37">
+        <v>62</v>
+      </c>
+      <c r="AD37">
+        <v>70</v>
+      </c>
+      <c r="AE37">
+        <v>49</v>
+      </c>
+      <c r="AG37">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2">
+        <v>16</v>
+      </c>
+      <c r="I38" s="2">
+        <v>5</v>
+      </c>
+      <c r="J38" s="2">
+        <v>14</v>
+      </c>
+      <c r="K38" s="2">
+        <v>17</v>
+      </c>
+      <c r="L38" s="2">
+        <v>14</v>
+      </c>
+      <c r="M38" s="2">
+        <v>8</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>8</v>
+      </c>
+      <c r="P38" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>9</v>
+      </c>
+      <c r="R38" s="2">
+        <v>10</v>
+      </c>
+      <c r="S38" s="2">
+        <v>11</v>
+      </c>
+      <c r="T38" s="2">
+        <v>6</v>
+      </c>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2">
+        <v>18</v>
+      </c>
+      <c r="W38" s="2">
+        <v>19</v>
+      </c>
+      <c r="X38" s="2">
+        <v>14</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>48</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>80</v>
+      </c>
+      <c r="I39">
+        <v>43</v>
+      </c>
+      <c r="J39">
+        <v>43</v>
+      </c>
+      <c r="K39">
+        <v>56</v>
+      </c>
+      <c r="L39">
+        <v>48</v>
+      </c>
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>58</v>
+      </c>
+      <c r="P39">
+        <v>52</v>
+      </c>
+      <c r="Q39">
+        <v>57</v>
+      </c>
+      <c r="R39">
+        <v>86</v>
+      </c>
+      <c r="S39">
+        <v>45</v>
+      </c>
+      <c r="T39">
+        <v>26</v>
+      </c>
+      <c r="U39">
+        <v>4</v>
+      </c>
+      <c r="V39">
+        <v>64</v>
+      </c>
+      <c r="W39">
+        <v>56</v>
+      </c>
+      <c r="X39">
+        <v>59</v>
+      </c>
+      <c r="Y39">
+        <v>75</v>
+      </c>
+      <c r="Z39">
+        <v>41</v>
+      </c>
+      <c r="AA39">
+        <v>30</v>
+      </c>
+      <c r="AB39">
+        <v>3</v>
+      </c>
+      <c r="AC39">
+        <v>47</v>
+      </c>
+      <c r="AD39">
+        <v>52</v>
+      </c>
+      <c r="AE39">
+        <v>50</v>
+      </c>
+      <c r="AG39">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2">
+        <v>6</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2">
+        <v>1</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2">
+        <v>3</v>
+      </c>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2">
+        <v>1</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>6</v>
+      </c>
+      <c r="W41">
+        <v>8</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>6</v>
+      </c>
+      <c r="AE41">
+        <v>3</v>
+      </c>
+      <c r="AG41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2">
+        <v>26</v>
+      </c>
+      <c r="J42" s="2">
+        <v>12</v>
+      </c>
+      <c r="K42" s="2">
+        <v>12</v>
+      </c>
+      <c r="L42" s="2">
+        <v>4</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2">
+        <v>16</v>
+      </c>
+      <c r="P42" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>9</v>
+      </c>
+      <c r="R42" s="2">
+        <v>10</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2">
+        <v>8</v>
+      </c>
+      <c r="W42" s="2">
+        <v>7</v>
+      </c>
+      <c r="X42" s="2">
+        <v>24</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>18</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2">
+        <v>14</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>15</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>107</v>
+      </c>
+      <c r="C43">
+        <v>83</v>
+      </c>
+      <c r="D43">
+        <v>60</v>
+      </c>
+      <c r="E43">
+        <v>64</v>
+      </c>
+      <c r="H43">
+        <v>82</v>
+      </c>
+      <c r="I43">
+        <v>65</v>
+      </c>
+      <c r="J43">
+        <v>75</v>
+      </c>
+      <c r="K43">
+        <v>60</v>
+      </c>
+      <c r="L43">
+        <v>63</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>74</v>
+      </c>
+      <c r="W43">
+        <v>81</v>
+      </c>
+      <c r="X43">
+        <v>61</v>
+      </c>
+      <c r="Y43">
+        <v>71</v>
+      </c>
+      <c r="Z43">
+        <v>51</v>
+      </c>
+      <c r="AC43">
+        <v>87</v>
+      </c>
+      <c r="AD43">
+        <v>55</v>
+      </c>
+      <c r="AE43">
+        <v>71</v>
+      </c>
+      <c r="AG43">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2">
+        <v>2</v>
+      </c>
+      <c r="P44" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2">
+        <v>9</v>
+      </c>
+      <c r="W44" s="2">
+        <v>2</v>
+      </c>
+      <c r="X44" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>36</v>
+      </c>
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>8</v>
+      </c>
+      <c r="P45">
+        <v>7</v>
+      </c>
+      <c r="Q45">
+        <v>8</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>15</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>13</v>
+      </c>
+      <c r="AD45">
+        <v>4</v>
+      </c>
+      <c r="AE45">
+        <v>2</v>
+      </c>
+      <c r="AG45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>12</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>12</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <v>8</v>
+      </c>
+      <c r="Q46">
+        <v>11</v>
+      </c>
+      <c r="R46">
+        <v>9</v>
+      </c>
+      <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>6</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>5</v>
+      </c>
+      <c r="W46">
+        <v>10</v>
+      </c>
+      <c r="X46">
+        <v>8</v>
+      </c>
+      <c r="Y46">
+        <v>6</v>
+      </c>
+      <c r="Z46">
+        <v>13</v>
+      </c>
+      <c r="AA46">
+        <v>2</v>
+      </c>
+      <c r="AC46">
+        <v>6</v>
+      </c>
+      <c r="AD46">
+        <v>3</v>
+      </c>
+      <c r="AE46">
+        <v>9</v>
+      </c>
+      <c r="AG46">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2">
+        <v>16</v>
+      </c>
+      <c r="I47" s="2">
+        <v>20</v>
+      </c>
+      <c r="J47" s="2">
+        <v>31</v>
+      </c>
+      <c r="K47" s="2">
+        <v>39</v>
+      </c>
+      <c r="L47" s="2">
+        <v>24</v>
+      </c>
+      <c r="M47" s="2">
+        <v>5</v>
+      </c>
+      <c r="N47" s="2">
+        <v>1</v>
+      </c>
+      <c r="O47" s="2">
+        <v>9</v>
+      </c>
+      <c r="P47" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>8</v>
+      </c>
+      <c r="R47" s="2">
+        <v>15</v>
+      </c>
+      <c r="S47" s="2">
+        <v>14</v>
+      </c>
+      <c r="T47" s="2">
+        <v>3</v>
+      </c>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2">
+        <v>2</v>
+      </c>
+      <c r="W47" s="2">
+        <v>29</v>
+      </c>
+      <c r="X47" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2">
+        <v>29</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48">
+        <v>38</v>
+      </c>
+      <c r="J48">
+        <v>37</v>
+      </c>
+      <c r="K48">
+        <v>27</v>
+      </c>
+      <c r="L48">
+        <v>36</v>
+      </c>
+      <c r="M48">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>27</v>
+      </c>
+      <c r="P48">
+        <v>24</v>
+      </c>
+      <c r="Q48">
+        <v>31</v>
+      </c>
+      <c r="R48">
+        <v>18</v>
+      </c>
+      <c r="S48">
+        <v>24</v>
+      </c>
+      <c r="T48">
+        <v>9</v>
+      </c>
+      <c r="V48">
+        <v>32</v>
+      </c>
+      <c r="W48">
+        <v>22</v>
+      </c>
+      <c r="X48">
+        <v>26</v>
+      </c>
+      <c r="Y48">
+        <v>23</v>
+      </c>
+      <c r="Z48">
+        <v>27</v>
+      </c>
+      <c r="AA48">
+        <v>11</v>
+      </c>
+      <c r="AC48">
+        <v>25</v>
+      </c>
+      <c r="AD48">
+        <v>21</v>
+      </c>
+      <c r="AE48">
+        <v>25</v>
+      </c>
+      <c r="AG48">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>34</v>
+      </c>
+      <c r="C49" s="2">
+        <v>24</v>
+      </c>
+      <c r="D49" s="2">
+        <v>23</v>
+      </c>
+      <c r="E49" s="2">
+        <v>15</v>
+      </c>
+      <c r="F49" s="2">
+        <v>7</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>29</v>
+      </c>
+      <c r="I49" s="2">
+        <v>22</v>
+      </c>
+      <c r="J49" s="2">
+        <v>10</v>
+      </c>
+      <c r="K49" s="2">
+        <v>16</v>
+      </c>
+      <c r="L49" s="2">
+        <v>24</v>
+      </c>
+      <c r="M49" s="2">
+        <v>16</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2">
+        <v>26</v>
+      </c>
+      <c r="P49" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>24</v>
+      </c>
+      <c r="R49" s="2">
+        <v>10</v>
+      </c>
+      <c r="S49" s="2">
+        <v>8</v>
+      </c>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2">
+        <v>2</v>
+      </c>
+      <c r="V49" s="2">
+        <v>23</v>
+      </c>
+      <c r="W49" s="2">
+        <v>31</v>
+      </c>
+      <c r="X49" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>11</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>24</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>22</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>20</v>
+      </c>
+      <c r="K50">
+        <v>16</v>
+      </c>
+      <c r="L50">
+        <v>18</v>
+      </c>
+      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <v>23</v>
+      </c>
+      <c r="P50">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>23</v>
+      </c>
+      <c r="R50">
+        <v>14</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>4</v>
+      </c>
+      <c r="V50">
+        <v>25</v>
+      </c>
+      <c r="W50">
+        <v>21</v>
+      </c>
+      <c r="X50">
+        <v>20</v>
+      </c>
+      <c r="Y50">
+        <v>14</v>
+      </c>
+      <c r="Z50">
+        <v>15</v>
+      </c>
+      <c r="AA50">
+        <v>6</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AC50">
+        <v>18</v>
+      </c>
+      <c r="AD50">
+        <v>14</v>
+      </c>
+      <c r="AE50">
+        <v>24</v>
+      </c>
+      <c r="AG50">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>46</v>
+      </c>
+      <c r="C51" s="2">
+        <v>43</v>
+      </c>
+      <c r="D51" s="2">
+        <v>58</v>
+      </c>
+      <c r="E51" s="2">
+        <v>51</v>
+      </c>
+      <c r="F51" s="2">
+        <v>33</v>
+      </c>
+      <c r="G51" s="2">
+        <v>10</v>
+      </c>
+      <c r="H51" s="2">
+        <v>45</v>
+      </c>
+      <c r="I51" s="2">
+        <v>48</v>
+      </c>
+      <c r="J51" s="2">
+        <v>40</v>
+      </c>
+      <c r="K51" s="2">
+        <v>46</v>
+      </c>
+      <c r="L51" s="2">
+        <v>26</v>
+      </c>
+      <c r="M51" s="2">
+        <v>38</v>
+      </c>
+      <c r="N51" s="2">
+        <v>16</v>
+      </c>
+      <c r="O51" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2">
+        <v>48</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>33</v>
+      </c>
+      <c r="R51" s="2">
+        <v>54</v>
+      </c>
+      <c r="S51" s="2">
+        <v>31</v>
+      </c>
+      <c r="T51" s="2">
+        <v>18</v>
+      </c>
+      <c r="U51" s="2">
+        <v>2</v>
+      </c>
+      <c r="V51" s="2">
+        <v>43</v>
+      </c>
+      <c r="W51" s="2">
+        <v>44</v>
+      </c>
+      <c r="X51" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>57</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>9</v>
+      </c>
+      <c r="M52">
+        <v>10</v>
+      </c>
+      <c r="O52">
+        <v>7</v>
+      </c>
+      <c r="P52">
+        <v>6</v>
+      </c>
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="R52">
+        <v>9</v>
+      </c>
+      <c r="S52">
+        <v>8</v>
+      </c>
+      <c r="T52">
+        <v>6</v>
+      </c>
+      <c r="V52">
+        <v>3</v>
+      </c>
+      <c r="W52">
+        <v>3</v>
+      </c>
+      <c r="X52">
+        <v>5</v>
+      </c>
+      <c r="Y52">
+        <v>5</v>
+      </c>
+      <c r="Z52">
+        <v>9</v>
+      </c>
+      <c r="AA52">
+        <v>5</v>
+      </c>
+      <c r="AC52">
+        <v>5</v>
+      </c>
+      <c r="AD52">
+        <v>7</v>
+      </c>
+      <c r="AE52">
+        <v>9</v>
+      </c>
+      <c r="AG52">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2">
+        <v>15</v>
+      </c>
+      <c r="F53" s="2">
+        <v>7</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2">
+        <v>11</v>
+      </c>
+      <c r="I53" s="2">
+        <v>6</v>
+      </c>
+      <c r="J53" s="2">
+        <v>11</v>
+      </c>
+      <c r="K53" s="2">
+        <v>13</v>
+      </c>
+      <c r="L53" s="2">
+        <v>17</v>
+      </c>
+      <c r="M53" s="2">
+        <v>4</v>
+      </c>
+      <c r="N53" s="2">
+        <v>2</v>
+      </c>
+      <c r="O53" s="2">
+        <v>11</v>
+      </c>
+      <c r="P53" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>9</v>
+      </c>
+      <c r="R53" s="2">
+        <v>13</v>
+      </c>
+      <c r="S53" s="2">
+        <v>14</v>
+      </c>
+      <c r="T53" s="2">
+        <v>6</v>
+      </c>
+      <c r="U53" s="2">
+        <v>1</v>
+      </c>
+      <c r="V53" s="2">
+        <v>14</v>
+      </c>
+      <c r="W53" s="2">
+        <v>8</v>
+      </c>
+      <c r="X53" s="2">
+        <v>14</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>6</v>
+      </c>
+      <c r="Q54">
+        <v>8</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>9</v>
+      </c>
+      <c r="V54">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>2</v>
+      </c>
+      <c r="Y54">
+        <v>3</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>2</v>
+      </c>
+      <c r="AC54">
+        <v>10</v>
+      </c>
+      <c r="AD54">
+        <v>2</v>
+      </c>
+      <c r="AE54">
+        <v>7</v>
+      </c>
+      <c r="AG54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>3</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2">
+        <v>5</v>
+      </c>
+      <c r="I55" s="2">
+        <v>4</v>
+      </c>
+      <c r="J55" s="2">
+        <v>5</v>
+      </c>
+      <c r="K55" s="2">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2">
+        <v>4</v>
+      </c>
+      <c r="P55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>5</v>
+      </c>
+      <c r="R55" s="2">
+        <v>1</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2">
+        <v>4</v>
+      </c>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2">
+        <v>3</v>
+      </c>
+      <c r="W55" s="2">
+        <v>4</v>
+      </c>
+      <c r="X55" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>9</v>
+      </c>
+      <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="P56">
+        <v>7</v>
+      </c>
+      <c r="Q56">
+        <v>4</v>
+      </c>
+      <c r="R56">
+        <v>8</v>
+      </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
+      <c r="T56">
+        <v>4</v>
+      </c>
+      <c r="V56">
+        <v>5</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>3</v>
+      </c>
+      <c r="Y56">
+        <v>9</v>
+      </c>
+      <c r="Z56">
+        <v>5</v>
+      </c>
+      <c r="AA56">
+        <v>3</v>
+      </c>
+      <c r="AC56">
+        <v>8</v>
+      </c>
+      <c r="AD56">
+        <v>4</v>
+      </c>
+      <c r="AE56">
+        <v>4</v>
+      </c>
+      <c r="AG56">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:AG3" xr:uid="{9030ABEF-4467-42E7-BCDA-FF968810D030}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F019DD36-2470-4123-8256-7D454BF2199F}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:AG56"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
@@ -19310,14 +24068,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG3" xr:uid="{9030ABEF-4467-42E7-BCDA-FF968810D030}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{CF4BD388-15BB-4ED1-B3EC-71F3785ED5DD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F019DD36-2470-4123-8256-7D454BF2199F}">
-  <sheetPr codeName="Sheet10"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7559C5-98A6-49B7-ABC7-2F44371F9A3D}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -20573,14 +25331,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{CF4BD388-15BB-4ED1-B3EC-71F3785ED5DD}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{56447E71-7667-4E1B-8A2F-C07AA18E89A6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7559C5-98A6-49B7-ABC7-2F44371F9A3D}">
-  <sheetPr codeName="Sheet12"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -21836,14 +26594,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{56447E71-7667-4E1B-8A2F-C07AA18E89A6}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
-  <sheetPr codeName="Sheet14"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -23099,14 +27857,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
-  <sheetPr codeName="Sheet16"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -24362,1270 +29121,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:AG56"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-      <c r="AA1">
-        <v>26</v>
-      </c>
-      <c r="AB1">
-        <v>27</v>
-      </c>
-      <c r="AC1">
-        <v>28</v>
-      </c>
-      <c r="AD1">
-        <v>29</v>
-      </c>
-      <c r="AE1">
-        <v>30</v>
-      </c>
-      <c r="AF1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
   <autoFilter ref="A3:AG56" xr:uid="{AFC2BCF1-614C-4B72-8DE9-95317B022DA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
+++ b/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31589509-6F9C-44E9-A478-486B8EC772D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A080884-4A48-43E9-99BC-6B027F2FC3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" activeTab="3" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="71">
   <si>
     <t>branchname</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>2025-04-01 - 2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-01 - 2025-05-30</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46:XFD46"/>
       <selection pane="topRight" activeCell="A46" sqref="A46:XFD46"/>
@@ -18060,7 +18063,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -22816,6 +22819,4585 @@
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45779</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45781</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45782</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45783</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45784</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45785</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45786</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45787</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45788</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45789</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45790</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45791</v>
+      </c>
+      <c r="P2" s="1">
+        <v>45792</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45793</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45794</v>
+      </c>
+      <c r="S2" s="1">
+        <v>45795</v>
+      </c>
+      <c r="T2" s="1">
+        <v>45796</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45797</v>
+      </c>
+      <c r="V2" s="1">
+        <v>45798</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45799</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45800</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>45801</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>45802</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45803</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>45804</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>45805</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>45806</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>45807</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>45808</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2">
+        <v>56</v>
+      </c>
+      <c r="I4" s="2">
+        <v>57</v>
+      </c>
+      <c r="J4" s="2">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+      <c r="N4" s="2">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
+        <v>55</v>
+      </c>
+      <c r="P4" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>54</v>
+      </c>
+      <c r="R4" s="2">
+        <v>32</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>62</v>
+      </c>
+      <c r="U4" s="2">
+        <v>65</v>
+      </c>
+      <c r="V4" s="2">
+        <v>57</v>
+      </c>
+      <c r="W4" s="2">
+        <v>79</v>
+      </c>
+      <c r="X4" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>43</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>33</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>39</v>
+      </c>
+      <c r="N5">
+        <v>39</v>
+      </c>
+      <c r="O5">
+        <v>32</v>
+      </c>
+      <c r="P5">
+        <v>44</v>
+      </c>
+      <c r="Q5">
+        <v>28</v>
+      </c>
+      <c r="R5">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>41</v>
+      </c>
+      <c r="U5">
+        <v>39</v>
+      </c>
+      <c r="V5">
+        <v>44</v>
+      </c>
+      <c r="W5">
+        <v>53</v>
+      </c>
+      <c r="X5">
+        <v>32</v>
+      </c>
+      <c r="Y5">
+        <v>59</v>
+      </c>
+      <c r="Z5">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>8</v>
+      </c>
+      <c r="AB5">
+        <v>66</v>
+      </c>
+      <c r="AC5">
+        <v>55</v>
+      </c>
+      <c r="AD5">
+        <v>78</v>
+      </c>
+      <c r="AE5">
+        <v>53</v>
+      </c>
+      <c r="AF5">
+        <v>28</v>
+      </c>
+      <c r="AG5">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2">
+        <v>66</v>
+      </c>
+      <c r="G6" s="2">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2">
+        <v>76</v>
+      </c>
+      <c r="I6" s="2">
+        <v>83</v>
+      </c>
+      <c r="J6" s="2">
+        <v>53</v>
+      </c>
+      <c r="K6" s="2">
+        <v>58</v>
+      </c>
+      <c r="L6" s="2">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>67</v>
+      </c>
+      <c r="N6" s="2">
+        <v>62</v>
+      </c>
+      <c r="O6" s="2">
+        <v>71</v>
+      </c>
+      <c r="P6" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>41</v>
+      </c>
+      <c r="R6" s="2">
+        <v>61</v>
+      </c>
+      <c r="S6" s="2">
+        <v>38</v>
+      </c>
+      <c r="T6" s="2">
+        <v>85</v>
+      </c>
+      <c r="U6" s="2">
+        <v>97</v>
+      </c>
+      <c r="V6" s="2">
+        <v>73</v>
+      </c>
+      <c r="W6" s="2">
+        <v>83</v>
+      </c>
+      <c r="X6" s="2">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>158</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>125</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>126</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>58</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2">
+        <v>55</v>
+      </c>
+      <c r="I8" s="2">
+        <v>66</v>
+      </c>
+      <c r="J8" s="2">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2">
+        <v>42</v>
+      </c>
+      <c r="N8" s="2">
+        <v>56</v>
+      </c>
+      <c r="O8" s="2">
+        <v>42</v>
+      </c>
+      <c r="P8" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>43</v>
+      </c>
+      <c r="R8" s="2">
+        <v>46</v>
+      </c>
+      <c r="S8" s="2">
+        <v>23</v>
+      </c>
+      <c r="T8" s="2">
+        <v>52</v>
+      </c>
+      <c r="U8" s="2">
+        <v>49</v>
+      </c>
+      <c r="V8" s="2">
+        <v>66</v>
+      </c>
+      <c r="W8" s="2">
+        <v>54</v>
+      </c>
+      <c r="X8" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>57</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>61</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>62</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>9</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9">
+        <v>13</v>
+      </c>
+      <c r="AD9">
+        <v>10</v>
+      </c>
+      <c r="AF9">
+        <v>7</v>
+      </c>
+      <c r="AG9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>8</v>
+      </c>
+      <c r="R10" s="2">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
+        <v>5</v>
+      </c>
+      <c r="U10" s="2">
+        <v>7</v>
+      </c>
+      <c r="V10" s="2">
+        <v>9</v>
+      </c>
+      <c r="W10" s="2">
+        <v>15</v>
+      </c>
+      <c r="X10" s="2">
+        <v>27</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+      <c r="V11">
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>9</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>11</v>
+      </c>
+      <c r="AF11">
+        <v>2</v>
+      </c>
+      <c r="AG11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
+        <v>2</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2">
+        <v>3</v>
+      </c>
+      <c r="W14" s="2">
+        <v>2</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="AB15">
+        <v>9</v>
+      </c>
+      <c r="AC15">
+        <v>8</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15">
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>6</v>
+      </c>
+      <c r="N16" s="2">
+        <v>9</v>
+      </c>
+      <c r="O16" s="2">
+        <v>9</v>
+      </c>
+      <c r="P16" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>10</v>
+      </c>
+      <c r="R16" s="2">
+        <v>3</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2">
+        <v>14</v>
+      </c>
+      <c r="U16" s="2">
+        <v>6</v>
+      </c>
+      <c r="V16" s="2">
+        <v>14</v>
+      </c>
+      <c r="W16" s="2">
+        <v>11</v>
+      </c>
+      <c r="X16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>11</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>16</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="AB17">
+        <v>9</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <v>4</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>4</v>
+      </c>
+      <c r="AG17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
+        <v>7</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>7</v>
+      </c>
+      <c r="P18" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2">
+        <v>6</v>
+      </c>
+      <c r="U18" s="2">
+        <v>4</v>
+      </c>
+      <c r="V18" s="2">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2">
+        <v>6</v>
+      </c>
+      <c r="X18" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>31</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>29</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>24</v>
+      </c>
+      <c r="P19">
+        <v>19</v>
+      </c>
+      <c r="Q19">
+        <v>25</v>
+      </c>
+      <c r="R19">
+        <v>19</v>
+      </c>
+      <c r="T19">
+        <v>29</v>
+      </c>
+      <c r="U19">
+        <v>25</v>
+      </c>
+      <c r="V19">
+        <v>27</v>
+      </c>
+      <c r="W19">
+        <v>18</v>
+      </c>
+      <c r="X19">
+        <v>38</v>
+      </c>
+      <c r="Y19">
+        <v>21</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>34</v>
+      </c>
+      <c r="AC19">
+        <v>41</v>
+      </c>
+      <c r="AD19">
+        <v>26</v>
+      </c>
+      <c r="AE19">
+        <v>21</v>
+      </c>
+      <c r="AF19">
+        <v>17</v>
+      </c>
+      <c r="AG19">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2">
+        <v>4</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>3</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2">
+        <v>9</v>
+      </c>
+      <c r="V20" s="2">
+        <v>3</v>
+      </c>
+      <c r="W20" s="2">
+        <v>3</v>
+      </c>
+      <c r="X20" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>31</v>
+      </c>
+      <c r="H21">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>22</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>41</v>
+      </c>
+      <c r="N21">
+        <v>25</v>
+      </c>
+      <c r="O21">
+        <v>29</v>
+      </c>
+      <c r="P21">
+        <v>28</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+      <c r="R21">
+        <v>13</v>
+      </c>
+      <c r="S21">
+        <v>9</v>
+      </c>
+      <c r="T21">
+        <v>28</v>
+      </c>
+      <c r="U21">
+        <v>34</v>
+      </c>
+      <c r="V21">
+        <v>37</v>
+      </c>
+      <c r="W21">
+        <v>35</v>
+      </c>
+      <c r="X21">
+        <v>26</v>
+      </c>
+      <c r="Y21">
+        <v>15</v>
+      </c>
+      <c r="Z21">
+        <v>8</v>
+      </c>
+      <c r="AB21">
+        <v>46</v>
+      </c>
+      <c r="AC21">
+        <v>39</v>
+      </c>
+      <c r="AD21">
+        <v>30</v>
+      </c>
+      <c r="AE21">
+        <v>22</v>
+      </c>
+      <c r="AF21">
+        <v>8</v>
+      </c>
+      <c r="AG21">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
+        <v>2</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23">
+        <v>27</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
+      <c r="J23">
+        <v>17</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <v>36</v>
+      </c>
+      <c r="O23">
+        <v>19</v>
+      </c>
+      <c r="P23">
+        <v>21</v>
+      </c>
+      <c r="Q23">
+        <v>21</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>28</v>
+      </c>
+      <c r="U23">
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <v>29</v>
+      </c>
+      <c r="W23">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>36</v>
+      </c>
+      <c r="AB23">
+        <v>54</v>
+      </c>
+      <c r="AC23">
+        <v>32</v>
+      </c>
+      <c r="AD23">
+        <v>30</v>
+      </c>
+      <c r="AE23">
+        <v>28</v>
+      </c>
+      <c r="AF23">
+        <v>9</v>
+      </c>
+      <c r="AG23">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
+        <v>8</v>
+      </c>
+      <c r="N24" s="2">
+        <v>4</v>
+      </c>
+      <c r="O24" s="2">
+        <v>7</v>
+      </c>
+      <c r="P24" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2">
+        <v>3</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2">
+        <v>6</v>
+      </c>
+      <c r="U24" s="2">
+        <v>9</v>
+      </c>
+      <c r="V24" s="2">
+        <v>4</v>
+      </c>
+      <c r="W24" s="2">
+        <v>8</v>
+      </c>
+      <c r="X24" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>37</v>
+      </c>
+      <c r="J25">
+        <v>33</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>29</v>
+      </c>
+      <c r="N25">
+        <v>37</v>
+      </c>
+      <c r="O25">
+        <v>29</v>
+      </c>
+      <c r="P25">
+        <v>23</v>
+      </c>
+      <c r="Q25">
+        <v>37</v>
+      </c>
+      <c r="R25">
+        <v>22</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>32</v>
+      </c>
+      <c r="U25">
+        <v>35</v>
+      </c>
+      <c r="V25">
+        <v>27</v>
+      </c>
+      <c r="W25">
+        <v>50</v>
+      </c>
+      <c r="X25">
+        <v>33</v>
+      </c>
+      <c r="Y25">
+        <v>12</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25">
+        <v>47</v>
+      </c>
+      <c r="AC25">
+        <v>48</v>
+      </c>
+      <c r="AD25">
+        <v>50</v>
+      </c>
+      <c r="AE25">
+        <v>50</v>
+      </c>
+      <c r="AF25">
+        <v>18</v>
+      </c>
+      <c r="AG25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2">
+        <v>60</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43</v>
+      </c>
+      <c r="F26" s="2">
+        <v>72</v>
+      </c>
+      <c r="G26" s="2">
+        <v>90</v>
+      </c>
+      <c r="H26" s="2">
+        <v>104</v>
+      </c>
+      <c r="I26" s="2">
+        <v>82</v>
+      </c>
+      <c r="J26" s="2">
+        <v>94</v>
+      </c>
+      <c r="K26" s="2">
+        <v>70</v>
+      </c>
+      <c r="L26" s="2">
+        <v>26</v>
+      </c>
+      <c r="M26" s="2">
+        <v>82</v>
+      </c>
+      <c r="N26" s="2">
+        <v>78</v>
+      </c>
+      <c r="O26" s="2">
+        <v>92</v>
+      </c>
+      <c r="P26" s="2">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>75</v>
+      </c>
+      <c r="R26" s="2">
+        <v>60</v>
+      </c>
+      <c r="S26" s="2">
+        <v>36</v>
+      </c>
+      <c r="T26" s="2">
+        <v>88</v>
+      </c>
+      <c r="U26" s="2">
+        <v>89</v>
+      </c>
+      <c r="V26" s="2">
+        <v>99</v>
+      </c>
+      <c r="W26" s="2">
+        <v>90</v>
+      </c>
+      <c r="X26" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>86</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>53</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>161</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>130</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>102</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>63</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>7</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>11</v>
+      </c>
+      <c r="Q27">
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>4</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>8</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>11</v>
+      </c>
+      <c r="AC27">
+        <v>15</v>
+      </c>
+      <c r="AD27">
+        <v>9</v>
+      </c>
+      <c r="AE27">
+        <v>9</v>
+      </c>
+      <c r="AG27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>13</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>11</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>8</v>
+      </c>
+      <c r="U29">
+        <v>12</v>
+      </c>
+      <c r="V29">
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <v>7</v>
+      </c>
+      <c r="Y29">
+        <v>6</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>17</v>
+      </c>
+      <c r="AC29">
+        <v>11</v>
+      </c>
+      <c r="AD29">
+        <v>7</v>
+      </c>
+      <c r="AF29">
+        <v>7</v>
+      </c>
+      <c r="AG29">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+      <c r="K30" s="2">
+        <v>3</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2">
+        <v>4</v>
+      </c>
+      <c r="N30" s="2">
+        <v>3</v>
+      </c>
+      <c r="O30" s="2">
+        <v>6</v>
+      </c>
+      <c r="P30" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>4</v>
+      </c>
+      <c r="R30" s="2">
+        <v>3</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2">
+        <v>4</v>
+      </c>
+      <c r="U30" s="2">
+        <v>4</v>
+      </c>
+      <c r="V30" s="2">
+        <v>5</v>
+      </c>
+      <c r="W30" s="2">
+        <v>2</v>
+      </c>
+      <c r="X30" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>7</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>34</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>23</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>18</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>23</v>
+      </c>
+      <c r="P31">
+        <v>21</v>
+      </c>
+      <c r="Q31">
+        <v>18</v>
+      </c>
+      <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>15</v>
+      </c>
+      <c r="U31">
+        <v>14</v>
+      </c>
+      <c r="V31">
+        <v>17</v>
+      </c>
+      <c r="W31">
+        <v>56</v>
+      </c>
+      <c r="X31">
+        <v>43</v>
+      </c>
+      <c r="Y31">
+        <v>8</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>53</v>
+      </c>
+      <c r="AC31">
+        <v>20</v>
+      </c>
+      <c r="AD31">
+        <v>31</v>
+      </c>
+      <c r="AE31">
+        <v>18</v>
+      </c>
+      <c r="AF31">
+        <v>14</v>
+      </c>
+      <c r="AG31">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2">
+        <v>2</v>
+      </c>
+      <c r="U32" s="2">
+        <v>2</v>
+      </c>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2">
+        <v>2</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>8</v>
+      </c>
+      <c r="V33">
+        <v>10</v>
+      </c>
+      <c r="W33">
+        <v>5</v>
+      </c>
+      <c r="X33">
+        <v>9</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>9</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>5</v>
+      </c>
+      <c r="AE33">
+        <v>3</v>
+      </c>
+      <c r="AF33">
+        <v>2</v>
+      </c>
+      <c r="AG33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>35</v>
+      </c>
+      <c r="G34" s="2">
+        <v>31</v>
+      </c>
+      <c r="H34" s="2">
+        <v>27</v>
+      </c>
+      <c r="I34" s="2">
+        <v>18</v>
+      </c>
+      <c r="J34" s="2">
+        <v>21</v>
+      </c>
+      <c r="K34" s="2">
+        <v>18</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2">
+        <v>33</v>
+      </c>
+      <c r="N34" s="2">
+        <v>23</v>
+      </c>
+      <c r="O34" s="2">
+        <v>27</v>
+      </c>
+      <c r="P34" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>20</v>
+      </c>
+      <c r="R34" s="2">
+        <v>13</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2">
+        <v>28</v>
+      </c>
+      <c r="U34" s="2">
+        <v>30</v>
+      </c>
+      <c r="V34" s="2">
+        <v>17</v>
+      </c>
+      <c r="W34" s="2">
+        <v>27</v>
+      </c>
+      <c r="X34" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>16</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>29</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>19</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>19</v>
+      </c>
+      <c r="I35">
+        <v>25</v>
+      </c>
+      <c r="J35">
+        <v>26</v>
+      </c>
+      <c r="K35">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>25</v>
+      </c>
+      <c r="N35">
+        <v>16</v>
+      </c>
+      <c r="O35">
+        <v>15</v>
+      </c>
+      <c r="P35">
+        <v>23</v>
+      </c>
+      <c r="Q35">
+        <v>24</v>
+      </c>
+      <c r="R35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>29</v>
+      </c>
+      <c r="U35">
+        <v>19</v>
+      </c>
+      <c r="V35">
+        <v>23</v>
+      </c>
+      <c r="W35">
+        <v>30</v>
+      </c>
+      <c r="X35">
+        <v>20</v>
+      </c>
+      <c r="Y35">
+        <v>19</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>45</v>
+      </c>
+      <c r="AC35">
+        <v>40</v>
+      </c>
+      <c r="AD35">
+        <v>29</v>
+      </c>
+      <c r="AE35">
+        <v>24</v>
+      </c>
+      <c r="AF35">
+        <v>17</v>
+      </c>
+      <c r="AG35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2">
+        <v>9</v>
+      </c>
+      <c r="J36" s="2">
+        <v>12</v>
+      </c>
+      <c r="K36" s="2">
+        <v>5</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
+        <v>6</v>
+      </c>
+      <c r="N36" s="2">
+        <v>18</v>
+      </c>
+      <c r="O36" s="2">
+        <v>9</v>
+      </c>
+      <c r="P36" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>15</v>
+      </c>
+      <c r="R36" s="2">
+        <v>5</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>8</v>
+      </c>
+      <c r="U36" s="2">
+        <v>10</v>
+      </c>
+      <c r="V36" s="2">
+        <v>11</v>
+      </c>
+      <c r="W36" s="2">
+        <v>17</v>
+      </c>
+      <c r="X36" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>72</v>
+      </c>
+      <c r="C37">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>87</v>
+      </c>
+      <c r="G37">
+        <v>54</v>
+      </c>
+      <c r="H37">
+        <v>44</v>
+      </c>
+      <c r="I37">
+        <v>64</v>
+      </c>
+      <c r="J37">
+        <v>56</v>
+      </c>
+      <c r="K37">
+        <v>21</v>
+      </c>
+      <c r="M37">
+        <v>53</v>
+      </c>
+      <c r="N37">
+        <v>49</v>
+      </c>
+      <c r="O37">
+        <v>58</v>
+      </c>
+      <c r="P37">
+        <v>70</v>
+      </c>
+      <c r="Q37">
+        <v>61</v>
+      </c>
+      <c r="R37">
+        <v>30</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <v>67</v>
+      </c>
+      <c r="U37">
+        <v>77</v>
+      </c>
+      <c r="V37">
+        <v>73</v>
+      </c>
+      <c r="W37">
+        <v>89</v>
+      </c>
+      <c r="X37">
+        <v>77</v>
+      </c>
+      <c r="Y37">
+        <v>32</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>3</v>
+      </c>
+      <c r="AB37">
+        <v>120</v>
+      </c>
+      <c r="AC37">
+        <v>105</v>
+      </c>
+      <c r="AD37">
+        <v>96</v>
+      </c>
+      <c r="AE37">
+        <v>73</v>
+      </c>
+      <c r="AF37">
+        <v>44</v>
+      </c>
+      <c r="AG37">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2">
+        <v>12</v>
+      </c>
+      <c r="H38" s="2">
+        <v>9</v>
+      </c>
+      <c r="I38" s="2">
+        <v>9</v>
+      </c>
+      <c r="J38" s="2">
+        <v>10</v>
+      </c>
+      <c r="K38" s="2">
+        <v>8</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2">
+        <v>13</v>
+      </c>
+      <c r="N38" s="2">
+        <v>12</v>
+      </c>
+      <c r="O38" s="2">
+        <v>10</v>
+      </c>
+      <c r="P38" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>14</v>
+      </c>
+      <c r="R38" s="2">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2">
+        <v>15</v>
+      </c>
+      <c r="U38" s="2">
+        <v>15</v>
+      </c>
+      <c r="V38" s="2">
+        <v>13</v>
+      </c>
+      <c r="W38" s="2">
+        <v>10</v>
+      </c>
+      <c r="X38" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2">
+        <v>31</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>13</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>41</v>
+      </c>
+      <c r="D39">
+        <v>33</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>79</v>
+      </c>
+      <c r="H39">
+        <v>48</v>
+      </c>
+      <c r="I39">
+        <v>63</v>
+      </c>
+      <c r="J39">
+        <v>37</v>
+      </c>
+      <c r="K39">
+        <v>40</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>56</v>
+      </c>
+      <c r="N39">
+        <v>51</v>
+      </c>
+      <c r="O39">
+        <v>51</v>
+      </c>
+      <c r="P39">
+        <v>53</v>
+      </c>
+      <c r="Q39">
+        <v>44</v>
+      </c>
+      <c r="R39">
+        <v>26</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>62</v>
+      </c>
+      <c r="U39">
+        <v>66</v>
+      </c>
+      <c r="V39">
+        <v>64</v>
+      </c>
+      <c r="W39">
+        <v>90</v>
+      </c>
+      <c r="X39">
+        <v>64</v>
+      </c>
+      <c r="Y39">
+        <v>39</v>
+      </c>
+      <c r="AA39">
+        <v>3</v>
+      </c>
+      <c r="AB39">
+        <v>102</v>
+      </c>
+      <c r="AC39">
+        <v>98</v>
+      </c>
+      <c r="AD39">
+        <v>78</v>
+      </c>
+      <c r="AE39">
+        <v>65</v>
+      </c>
+      <c r="AF39">
+        <v>36</v>
+      </c>
+      <c r="AG39">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2">
+        <v>4</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2">
+        <v>3</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2">
+        <v>4</v>
+      </c>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2">
+        <v>4</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2">
+        <v>11</v>
+      </c>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>7</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>2</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>9</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>4</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>19</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2">
+        <v>6</v>
+      </c>
+      <c r="I42" s="2">
+        <v>7</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>61</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="AG43">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="AG45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="J46">
+        <v>11</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>7</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46">
+        <v>8</v>
+      </c>
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>7</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="V46">
+        <v>14</v>
+      </c>
+      <c r="W46">
+        <v>5</v>
+      </c>
+      <c r="X46">
+        <v>5</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>3</v>
+      </c>
+      <c r="AC46">
+        <v>17</v>
+      </c>
+      <c r="AD46">
+        <v>7</v>
+      </c>
+      <c r="AE46">
+        <v>9</v>
+      </c>
+      <c r="AF46">
+        <v>4</v>
+      </c>
+      <c r="AG46">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2">
+        <v>17</v>
+      </c>
+      <c r="H47" s="2">
+        <v>11</v>
+      </c>
+      <c r="I47" s="2">
+        <v>16</v>
+      </c>
+      <c r="J47" s="2">
+        <v>39</v>
+      </c>
+      <c r="K47" s="2">
+        <v>6</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2">
+        <v>10</v>
+      </c>
+      <c r="N47" s="2">
+        <v>20</v>
+      </c>
+      <c r="O47" s="2">
+        <v>13</v>
+      </c>
+      <c r="P47" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>14</v>
+      </c>
+      <c r="R47" s="2">
+        <v>9</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2">
+        <v>20</v>
+      </c>
+      <c r="U47" s="2">
+        <v>13</v>
+      </c>
+      <c r="V47" s="2">
+        <v>23</v>
+      </c>
+      <c r="W47" s="2">
+        <v>22</v>
+      </c>
+      <c r="X47" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>31</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>18</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>31</v>
+      </c>
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>32</v>
+      </c>
+      <c r="I48">
+        <v>16</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <v>29</v>
+      </c>
+      <c r="N48">
+        <v>14</v>
+      </c>
+      <c r="O48">
+        <v>30</v>
+      </c>
+      <c r="P48">
+        <v>24</v>
+      </c>
+      <c r="Q48">
+        <v>20</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>38</v>
+      </c>
+      <c r="U48">
+        <v>48</v>
+      </c>
+      <c r="V48">
+        <v>35</v>
+      </c>
+      <c r="W48">
+        <v>31</v>
+      </c>
+      <c r="X48">
+        <v>23</v>
+      </c>
+      <c r="Y48">
+        <v>20</v>
+      </c>
+      <c r="Z48">
+        <v>2</v>
+      </c>
+      <c r="AB48">
+        <v>52</v>
+      </c>
+      <c r="AC48">
+        <v>48</v>
+      </c>
+      <c r="AD48">
+        <v>38</v>
+      </c>
+      <c r="AE48">
+        <v>33</v>
+      </c>
+      <c r="AF48">
+        <v>12</v>
+      </c>
+      <c r="AG48">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
+        <v>24</v>
+      </c>
+      <c r="G49" s="2">
+        <v>20</v>
+      </c>
+      <c r="H49" s="2">
+        <v>19</v>
+      </c>
+      <c r="I49" s="2">
+        <v>32</v>
+      </c>
+      <c r="J49" s="2">
+        <v>24</v>
+      </c>
+      <c r="K49" s="2">
+        <v>5</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>24</v>
+      </c>
+      <c r="N49" s="2">
+        <v>10</v>
+      </c>
+      <c r="O49" s="2">
+        <v>17</v>
+      </c>
+      <c r="P49" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>25</v>
+      </c>
+      <c r="R49" s="2">
+        <v>7</v>
+      </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2">
+        <v>21</v>
+      </c>
+      <c r="U49" s="2">
+        <v>36</v>
+      </c>
+      <c r="V49" s="2">
+        <v>36</v>
+      </c>
+      <c r="W49" s="2">
+        <v>25</v>
+      </c>
+      <c r="X49" s="2">
+        <v>28</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>27</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>8</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>24</v>
+      </c>
+      <c r="I50">
+        <v>14</v>
+      </c>
+      <c r="J50">
+        <v>15</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <v>14</v>
+      </c>
+      <c r="N50">
+        <v>16</v>
+      </c>
+      <c r="O50">
+        <v>21</v>
+      </c>
+      <c r="P50">
+        <v>10</v>
+      </c>
+      <c r="Q50">
+        <v>11</v>
+      </c>
+      <c r="R50">
+        <v>6</v>
+      </c>
+      <c r="T50">
+        <v>20</v>
+      </c>
+      <c r="U50">
+        <v>13</v>
+      </c>
+      <c r="V50">
+        <v>20</v>
+      </c>
+      <c r="W50">
+        <v>12</v>
+      </c>
+      <c r="X50">
+        <v>19</v>
+      </c>
+      <c r="Y50">
+        <v>12</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>16</v>
+      </c>
+      <c r="AC50">
+        <v>17</v>
+      </c>
+      <c r="AD50">
+        <v>14</v>
+      </c>
+      <c r="AE50">
+        <v>16</v>
+      </c>
+      <c r="AF50">
+        <v>5</v>
+      </c>
+      <c r="AG50">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>42</v>
+      </c>
+      <c r="C51" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2">
+        <v>27</v>
+      </c>
+      <c r="E51" s="2">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2">
+        <v>33</v>
+      </c>
+      <c r="G51" s="2">
+        <v>51</v>
+      </c>
+      <c r="H51" s="2">
+        <v>45</v>
+      </c>
+      <c r="I51" s="2">
+        <v>53</v>
+      </c>
+      <c r="J51" s="2">
+        <v>43</v>
+      </c>
+      <c r="K51" s="2">
+        <v>22</v>
+      </c>
+      <c r="L51" s="2">
+        <v>12</v>
+      </c>
+      <c r="M51" s="2">
+        <v>50</v>
+      </c>
+      <c r="N51" s="2">
+        <v>36</v>
+      </c>
+      <c r="O51" s="2">
+        <v>35</v>
+      </c>
+      <c r="P51" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>59</v>
+      </c>
+      <c r="R51" s="2">
+        <v>25</v>
+      </c>
+      <c r="S51" s="2">
+        <v>13</v>
+      </c>
+      <c r="T51" s="2">
+        <v>57</v>
+      </c>
+      <c r="U51" s="2">
+        <v>52</v>
+      </c>
+      <c r="V51" s="2">
+        <v>46</v>
+      </c>
+      <c r="W51" s="2">
+        <v>62</v>
+      </c>
+      <c r="X51" s="2">
+        <v>50</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>32</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>32</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>24</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>12</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <v>6</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>8</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <v>16</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <v>6</v>
+      </c>
+      <c r="U52">
+        <v>7</v>
+      </c>
+      <c r="V52">
+        <v>7</v>
+      </c>
+      <c r="W52">
+        <v>8</v>
+      </c>
+      <c r="X52">
+        <v>7</v>
+      </c>
+      <c r="Y52">
+        <v>6</v>
+      </c>
+      <c r="AB52">
+        <v>10</v>
+      </c>
+      <c r="AC52">
+        <v>9</v>
+      </c>
+      <c r="AD52">
+        <v>3</v>
+      </c>
+      <c r="AE52">
+        <v>9</v>
+      </c>
+      <c r="AF52">
+        <v>3</v>
+      </c>
+      <c r="AG52">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2">
+        <v>16</v>
+      </c>
+      <c r="I53" s="2">
+        <v>13</v>
+      </c>
+      <c r="J53" s="2">
+        <v>15</v>
+      </c>
+      <c r="K53" s="2">
+        <v>8</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2">
+        <v>9</v>
+      </c>
+      <c r="N53" s="2">
+        <v>10</v>
+      </c>
+      <c r="O53" s="2">
+        <v>17</v>
+      </c>
+      <c r="P53" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>5</v>
+      </c>
+      <c r="R53" s="2">
+        <v>3</v>
+      </c>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2">
+        <v>23</v>
+      </c>
+      <c r="U53" s="2">
+        <v>19</v>
+      </c>
+      <c r="V53" s="2">
+        <v>13</v>
+      </c>
+      <c r="W53" s="2">
+        <v>20</v>
+      </c>
+      <c r="X53" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>32</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>5</v>
+      </c>
+      <c r="Q54">
+        <v>4</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
+      </c>
+      <c r="X54">
+        <v>6</v>
+      </c>
+      <c r="Y54">
+        <v>2</v>
+      </c>
+      <c r="AB54">
+        <v>5</v>
+      </c>
+      <c r="AC54">
+        <v>10</v>
+      </c>
+      <c r="AD54">
+        <v>4</v>
+      </c>
+      <c r="AE54">
+        <v>4</v>
+      </c>
+      <c r="AG54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>3</v>
+      </c>
+      <c r="H55" s="2">
+        <v>3</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2">
+        <v>2</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2">
+        <v>3</v>
+      </c>
+      <c r="P55" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2">
+        <v>3</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2">
+        <v>5</v>
+      </c>
+      <c r="U55" s="2">
+        <v>1</v>
+      </c>
+      <c r="V55" s="2">
+        <v>3</v>
+      </c>
+      <c r="W55" s="2">
+        <v>2</v>
+      </c>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>8</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>6</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56">
+        <v>5</v>
+      </c>
+      <c r="V56">
+        <v>4</v>
+      </c>
+      <c r="W56">
+        <v>9</v>
+      </c>
+      <c r="X56">
+        <v>5</v>
+      </c>
+      <c r="Y56">
+        <v>3</v>
+      </c>
+      <c r="AB56">
+        <v>14</v>
+      </c>
+      <c r="AC56">
+        <v>8</v>
+      </c>
+      <c r="AD56">
+        <v>16</v>
+      </c>
+      <c r="AE56">
+        <v>8</v>
+      </c>
+      <c r="AF56">
+        <v>6</v>
+      </c>
+      <c r="AG56">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:AG56" xr:uid="{CF4BD388-15BB-4ED1-B3EC-71F3785ED5DD}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7559C5-98A6-49B7-ABC7-2F44371F9A3D}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:AG56"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -24068,14 +28650,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{CF4BD388-15BB-4ED1-B3EC-71F3785ED5DD}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{56447E71-7667-4E1B-8A2F-C07AA18E89A6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7559C5-98A6-49B7-ABC7-2F44371F9A3D}">
-  <sheetPr codeName="Sheet12"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -25331,14 +29913,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{56447E71-7667-4E1B-8A2F-C07AA18E89A6}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
-  <sheetPr codeName="Sheet14"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -26594,14 +31176,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
-  <sheetPr codeName="Sheet16"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -27857,1270 +32440,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:AG56"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-      <c r="AA1">
-        <v>26</v>
-      </c>
-      <c r="AB1">
-        <v>27</v>
-      </c>
-      <c r="AC1">
-        <v>28</v>
-      </c>
-      <c r="AD1">
-        <v>29</v>
-      </c>
-      <c r="AE1">
-        <v>30</v>
-      </c>
-      <c r="AF1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
   <autoFilter ref="A3:AG56" xr:uid="{AFC2BCF1-614C-4B72-8DE9-95317B022DA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
+++ b/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A080884-4A48-43E9-99BC-6B027F2FC3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E2A392-75FC-4280-9CB4-0AA597F0FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" activeTab="5" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="72">
   <si>
     <t>branchname</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>2025-05-01 - 2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-01 - 2025-06-30</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46:XFD46"/>
       <selection pane="topRight" activeCell="A46" sqref="A46:XFD46"/>
@@ -27397,6 +27400,4481 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45809</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45810</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45811</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45812</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45813</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45814</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45815</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45816</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45817</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45818</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45819</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45820</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45821</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45822</v>
+      </c>
+      <c r="P2" s="1">
+        <v>45823</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45824</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45825</v>
+      </c>
+      <c r="S2" s="1">
+        <v>45826</v>
+      </c>
+      <c r="T2" s="1">
+        <v>45827</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45828</v>
+      </c>
+      <c r="V2" s="1">
+        <v>45829</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45830</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45831</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>45832</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>45833</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45834</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>45835</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>45836</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>45837</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>45838</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <v>75</v>
+      </c>
+      <c r="K4" s="2">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2">
+        <v>61</v>
+      </c>
+      <c r="M4" s="2">
+        <v>72</v>
+      </c>
+      <c r="N4" s="2">
+        <v>65</v>
+      </c>
+      <c r="O4" s="2">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>70</v>
+      </c>
+      <c r="R4" s="2">
+        <v>66</v>
+      </c>
+      <c r="S4" s="2">
+        <v>72</v>
+      </c>
+      <c r="T4" s="2">
+        <v>8</v>
+      </c>
+      <c r="U4" s="2">
+        <v>88</v>
+      </c>
+      <c r="V4" s="2">
+        <v>30</v>
+      </c>
+      <c r="W4" s="2">
+        <v>6</v>
+      </c>
+      <c r="X4" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>61</v>
+      </c>
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>44</v>
+      </c>
+      <c r="M5">
+        <v>46</v>
+      </c>
+      <c r="N5">
+        <v>44</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>43</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>67</v>
+      </c>
+      <c r="U5">
+        <v>44</v>
+      </c>
+      <c r="V5">
+        <v>37</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>63</v>
+      </c>
+      <c r="Y5">
+        <v>47</v>
+      </c>
+      <c r="Z5">
+        <v>44</v>
+      </c>
+      <c r="AA5">
+        <v>51</v>
+      </c>
+      <c r="AB5">
+        <v>39</v>
+      </c>
+      <c r="AC5">
+        <v>17</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>50</v>
+      </c>
+      <c r="AG5">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2">
+        <v>97</v>
+      </c>
+      <c r="E6" s="2">
+        <v>135</v>
+      </c>
+      <c r="F6" s="2">
+        <v>98</v>
+      </c>
+      <c r="G6" s="2">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2">
+        <v>96</v>
+      </c>
+      <c r="K6" s="2">
+        <v>113</v>
+      </c>
+      <c r="L6" s="2">
+        <v>99</v>
+      </c>
+      <c r="M6" s="2">
+        <v>94</v>
+      </c>
+      <c r="N6" s="2">
+        <v>77</v>
+      </c>
+      <c r="O6" s="2">
+        <v>55</v>
+      </c>
+      <c r="P6" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>110</v>
+      </c>
+      <c r="R6" s="2">
+        <v>104</v>
+      </c>
+      <c r="S6" s="2">
+        <v>121</v>
+      </c>
+      <c r="T6" s="2">
+        <v>12</v>
+      </c>
+      <c r="U6" s="2">
+        <v>76</v>
+      </c>
+      <c r="V6" s="2">
+        <v>76</v>
+      </c>
+      <c r="W6" s="2">
+        <v>44</v>
+      </c>
+      <c r="X6" s="2">
+        <v>104</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>111</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>121</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>66</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AG7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2">
+        <v>89</v>
+      </c>
+      <c r="E8" s="2">
+        <v>84</v>
+      </c>
+      <c r="F8" s="2">
+        <v>68</v>
+      </c>
+      <c r="G8" s="2">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2">
+        <v>66</v>
+      </c>
+      <c r="K8" s="2">
+        <v>73</v>
+      </c>
+      <c r="L8" s="2">
+        <v>67</v>
+      </c>
+      <c r="M8" s="2">
+        <v>75</v>
+      </c>
+      <c r="N8" s="2">
+        <v>52</v>
+      </c>
+      <c r="O8" s="2">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>68</v>
+      </c>
+      <c r="R8" s="2">
+        <v>62</v>
+      </c>
+      <c r="S8" s="2">
+        <v>83</v>
+      </c>
+      <c r="T8" s="2">
+        <v>4</v>
+      </c>
+      <c r="U8" s="2">
+        <v>62</v>
+      </c>
+      <c r="V8" s="2">
+        <v>39</v>
+      </c>
+      <c r="W8" s="2">
+        <v>35</v>
+      </c>
+      <c r="X8" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>48</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>18</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>15</v>
+      </c>
+      <c r="AA9">
+        <v>8</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>9</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AG9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2">
+        <v>10</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9</v>
+      </c>
+      <c r="O10" s="2">
+        <v>6</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2">
+        <v>10</v>
+      </c>
+      <c r="S10" s="2">
+        <v>8</v>
+      </c>
+      <c r="T10" s="2">
+        <v>10</v>
+      </c>
+      <c r="U10" s="2">
+        <v>13</v>
+      </c>
+      <c r="V10" s="2">
+        <v>6</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>16</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>12</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>15</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+      <c r="AG11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
+        <v>3</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>9</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>8</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>8</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <v>6</v>
+      </c>
+      <c r="AG15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2">
+        <v>9</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>10</v>
+      </c>
+      <c r="M16" s="2">
+        <v>13</v>
+      </c>
+      <c r="N16" s="2">
+        <v>9</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>13</v>
+      </c>
+      <c r="R16" s="2">
+        <v>13</v>
+      </c>
+      <c r="S16" s="2">
+        <v>5</v>
+      </c>
+      <c r="T16" s="2">
+        <v>8</v>
+      </c>
+      <c r="U16" s="2">
+        <v>14</v>
+      </c>
+      <c r="V16" s="2">
+        <v>4</v>
+      </c>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>7</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <v>5</v>
+      </c>
+      <c r="AG17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <v>10</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>3</v>
+      </c>
+      <c r="O18" s="2">
+        <v>9</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2">
+        <v>5</v>
+      </c>
+      <c r="S18" s="2">
+        <v>10</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>51</v>
+      </c>
+      <c r="F19">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>28</v>
+      </c>
+      <c r="L19">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>24</v>
+      </c>
+      <c r="N19">
+        <v>31</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>39</v>
+      </c>
+      <c r="R19">
+        <v>29</v>
+      </c>
+      <c r="S19">
+        <v>53</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>27</v>
+      </c>
+      <c r="V19">
+        <v>22</v>
+      </c>
+      <c r="X19">
+        <v>37</v>
+      </c>
+      <c r="Y19">
+        <v>32</v>
+      </c>
+      <c r="Z19">
+        <v>35</v>
+      </c>
+      <c r="AA19">
+        <v>33</v>
+      </c>
+      <c r="AB19">
+        <v>23</v>
+      </c>
+      <c r="AC19">
+        <v>20</v>
+      </c>
+      <c r="AE19">
+        <v>28</v>
+      </c>
+      <c r="AG19">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <v>5</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3</v>
+      </c>
+      <c r="M20" s="2">
+        <v>5</v>
+      </c>
+      <c r="N20" s="2">
+        <v>3</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>2</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>4</v>
+      </c>
+      <c r="U20" s="2">
+        <v>3</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>33</v>
+      </c>
+      <c r="K21">
+        <v>39</v>
+      </c>
+      <c r="L21">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>18</v>
+      </c>
+      <c r="N21">
+        <v>14</v>
+      </c>
+      <c r="O21">
+        <v>11</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>30</v>
+      </c>
+      <c r="R21">
+        <v>30</v>
+      </c>
+      <c r="S21">
+        <v>32</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>14</v>
+      </c>
+      <c r="V21">
+        <v>13</v>
+      </c>
+      <c r="W21">
+        <v>7</v>
+      </c>
+      <c r="X21">
+        <v>33</v>
+      </c>
+      <c r="Y21">
+        <v>29</v>
+      </c>
+      <c r="Z21">
+        <v>23</v>
+      </c>
+      <c r="AA21">
+        <v>28</v>
+      </c>
+      <c r="AB21">
+        <v>14</v>
+      </c>
+      <c r="AC21">
+        <v>13</v>
+      </c>
+      <c r="AD21">
+        <v>6</v>
+      </c>
+      <c r="AE21">
+        <v>35</v>
+      </c>
+      <c r="AG21">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>37</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>35</v>
+      </c>
+      <c r="K23">
+        <v>35</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>34</v>
+      </c>
+      <c r="N23">
+        <v>25</v>
+      </c>
+      <c r="O23">
+        <v>15</v>
+      </c>
+      <c r="Q23">
+        <v>33</v>
+      </c>
+      <c r="R23">
+        <v>31</v>
+      </c>
+      <c r="S23">
+        <v>25</v>
+      </c>
+      <c r="U23">
+        <v>51</v>
+      </c>
+      <c r="V23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>41</v>
+      </c>
+      <c r="Y23">
+        <v>38</v>
+      </c>
+      <c r="Z23">
+        <v>32</v>
+      </c>
+      <c r="AA23">
+        <v>35</v>
+      </c>
+      <c r="AB23">
+        <v>26</v>
+      </c>
+      <c r="AC23">
+        <v>13</v>
+      </c>
+      <c r="AE23">
+        <v>32</v>
+      </c>
+      <c r="AG23">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2">
+        <v>17</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <v>7</v>
+      </c>
+      <c r="K24" s="2">
+        <v>10</v>
+      </c>
+      <c r="L24" s="2">
+        <v>7</v>
+      </c>
+      <c r="M24" s="2">
+        <v>4</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3</v>
+      </c>
+      <c r="O24" s="2">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2">
+        <v>10</v>
+      </c>
+      <c r="R24" s="2">
+        <v>4</v>
+      </c>
+      <c r="S24" s="2">
+        <v>3</v>
+      </c>
+      <c r="T24" s="2">
+        <v>6</v>
+      </c>
+      <c r="U24" s="2">
+        <v>7</v>
+      </c>
+      <c r="V24" s="2">
+        <v>4</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>35</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>45</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>35</v>
+      </c>
+      <c r="L25">
+        <v>35</v>
+      </c>
+      <c r="M25">
+        <v>47</v>
+      </c>
+      <c r="N25">
+        <v>31</v>
+      </c>
+      <c r="O25">
+        <v>19</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>40</v>
+      </c>
+      <c r="R25">
+        <v>34</v>
+      </c>
+      <c r="S25">
+        <v>35</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>40</v>
+      </c>
+      <c r="V25">
+        <v>24</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>47</v>
+      </c>
+      <c r="Y25">
+        <v>33</v>
+      </c>
+      <c r="Z25">
+        <v>47</v>
+      </c>
+      <c r="AA25">
+        <v>39</v>
+      </c>
+      <c r="AB25">
+        <v>37</v>
+      </c>
+      <c r="AC25">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>2</v>
+      </c>
+      <c r="AE25">
+        <v>50</v>
+      </c>
+      <c r="AG25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2">
+        <v>101</v>
+      </c>
+      <c r="D26" s="2">
+        <v>102</v>
+      </c>
+      <c r="E26" s="2">
+        <v>127</v>
+      </c>
+      <c r="F26" s="2">
+        <v>106</v>
+      </c>
+      <c r="G26" s="2">
+        <v>112</v>
+      </c>
+      <c r="H26" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" s="2">
+        <v>32</v>
+      </c>
+      <c r="J26" s="2">
+        <v>106</v>
+      </c>
+      <c r="K26" s="2">
+        <v>106</v>
+      </c>
+      <c r="L26" s="2">
+        <v>99</v>
+      </c>
+      <c r="M26" s="2">
+        <v>92</v>
+      </c>
+      <c r="N26" s="2">
+        <v>81</v>
+      </c>
+      <c r="O26" s="2">
+        <v>80</v>
+      </c>
+      <c r="P26" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>101</v>
+      </c>
+      <c r="R26" s="2">
+        <v>88</v>
+      </c>
+      <c r="S26" s="2">
+        <v>127</v>
+      </c>
+      <c r="T26" s="2">
+        <v>7</v>
+      </c>
+      <c r="U26" s="2">
+        <v>132</v>
+      </c>
+      <c r="V26" s="2">
+        <v>87</v>
+      </c>
+      <c r="W26" s="2">
+        <v>42</v>
+      </c>
+      <c r="X26" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>122</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>105</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>115</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>32</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>12</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <v>13</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>7</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>5</v>
+      </c>
+      <c r="V27">
+        <v>15</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>11</v>
+      </c>
+      <c r="Y27">
+        <v>13</v>
+      </c>
+      <c r="Z27">
+        <v>9</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AB27">
+        <v>14</v>
+      </c>
+      <c r="AC27">
+        <v>6</v>
+      </c>
+      <c r="AE27">
+        <v>9</v>
+      </c>
+      <c r="AG27">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="M29">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>11</v>
+      </c>
+      <c r="R29">
+        <v>15</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+      <c r="X29">
+        <v>11</v>
+      </c>
+      <c r="Y29">
+        <v>19</v>
+      </c>
+      <c r="Z29">
+        <v>11</v>
+      </c>
+      <c r="AA29">
+        <v>7</v>
+      </c>
+      <c r="AC29">
+        <v>6</v>
+      </c>
+      <c r="AE29">
+        <v>8</v>
+      </c>
+      <c r="AG29">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>10</v>
+      </c>
+      <c r="K30" s="2">
+        <v>4</v>
+      </c>
+      <c r="L30" s="2">
+        <v>12</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3</v>
+      </c>
+      <c r="N30" s="2">
+        <v>7</v>
+      </c>
+      <c r="O30" s="2">
+        <v>3</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2">
+        <v>5</v>
+      </c>
+      <c r="R30" s="2">
+        <v>2</v>
+      </c>
+      <c r="S30" s="2">
+        <v>16</v>
+      </c>
+      <c r="T30" s="2">
+        <v>2</v>
+      </c>
+      <c r="U30" s="2">
+        <v>5</v>
+      </c>
+      <c r="V30" s="2">
+        <v>4</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2">
+        <v>7</v>
+      </c>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>41</v>
+      </c>
+      <c r="F31">
+        <v>37</v>
+      </c>
+      <c r="G31">
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>33</v>
+      </c>
+      <c r="K31">
+        <v>37</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>33</v>
+      </c>
+      <c r="Q31">
+        <v>31</v>
+      </c>
+      <c r="R31">
+        <v>38</v>
+      </c>
+      <c r="S31">
+        <v>34</v>
+      </c>
+      <c r="T31">
+        <v>32</v>
+      </c>
+      <c r="U31">
+        <v>22</v>
+      </c>
+      <c r="V31">
+        <v>13</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>20</v>
+      </c>
+      <c r="Y31">
+        <v>36</v>
+      </c>
+      <c r="Z31">
+        <v>34</v>
+      </c>
+      <c r="AA31">
+        <v>30</v>
+      </c>
+      <c r="AB31">
+        <v>16</v>
+      </c>
+      <c r="AC31">
+        <v>10</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>33</v>
+      </c>
+      <c r="AG31">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2">
+        <v>2</v>
+      </c>
+      <c r="T32" s="2">
+        <v>3</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1</v>
+      </c>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>9</v>
+      </c>
+      <c r="U33">
+        <v>13</v>
+      </c>
+      <c r="Y33">
+        <v>16</v>
+      </c>
+      <c r="Z33">
+        <v>3</v>
+      </c>
+      <c r="AA33">
+        <v>10</v>
+      </c>
+      <c r="AB33">
+        <v>4</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2">
+        <v>30</v>
+      </c>
+      <c r="F34" s="2">
+        <v>41</v>
+      </c>
+      <c r="G34" s="2">
+        <v>35</v>
+      </c>
+      <c r="H34" s="2">
+        <v>21</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
+        <v>39</v>
+      </c>
+      <c r="K34" s="2">
+        <v>46</v>
+      </c>
+      <c r="L34" s="2">
+        <v>27</v>
+      </c>
+      <c r="M34" s="2">
+        <v>35</v>
+      </c>
+      <c r="N34" s="2">
+        <v>27</v>
+      </c>
+      <c r="O34" s="2">
+        <v>13</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2">
+        <v>34</v>
+      </c>
+      <c r="R34" s="2">
+        <v>31</v>
+      </c>
+      <c r="S34" s="2">
+        <v>19</v>
+      </c>
+      <c r="T34" s="2">
+        <v>17</v>
+      </c>
+      <c r="U34" s="2">
+        <v>22</v>
+      </c>
+      <c r="V34" s="2">
+        <v>17</v>
+      </c>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>55</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>28</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>28</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>14</v>
+      </c>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>39</v>
+      </c>
+      <c r="F35">
+        <v>23</v>
+      </c>
+      <c r="G35">
+        <v>31</v>
+      </c>
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="J35">
+        <v>45</v>
+      </c>
+      <c r="K35">
+        <v>36</v>
+      </c>
+      <c r="L35">
+        <v>25</v>
+      </c>
+      <c r="M35">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <v>30</v>
+      </c>
+      <c r="O35">
+        <v>13</v>
+      </c>
+      <c r="Q35">
+        <v>38</v>
+      </c>
+      <c r="R35">
+        <v>32</v>
+      </c>
+      <c r="S35">
+        <v>26</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <v>15</v>
+      </c>
+      <c r="X35">
+        <v>32</v>
+      </c>
+      <c r="Y35">
+        <v>22</v>
+      </c>
+      <c r="Z35">
+        <v>29</v>
+      </c>
+      <c r="AA35">
+        <v>29</v>
+      </c>
+      <c r="AB35">
+        <v>32</v>
+      </c>
+      <c r="AC35">
+        <v>14</v>
+      </c>
+      <c r="AE35">
+        <v>26</v>
+      </c>
+      <c r="AG35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2">
+        <v>23</v>
+      </c>
+      <c r="F36" s="2">
+        <v>18</v>
+      </c>
+      <c r="G36" s="2">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2">
+        <v>20</v>
+      </c>
+      <c r="K36" s="2">
+        <v>17</v>
+      </c>
+      <c r="L36" s="2">
+        <v>16</v>
+      </c>
+      <c r="M36" s="2">
+        <v>11</v>
+      </c>
+      <c r="N36" s="2">
+        <v>13</v>
+      </c>
+      <c r="O36" s="2">
+        <v>3</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2">
+        <v>14</v>
+      </c>
+      <c r="R36" s="2">
+        <v>12</v>
+      </c>
+      <c r="S36" s="2">
+        <v>12</v>
+      </c>
+      <c r="T36" s="2">
+        <v>15</v>
+      </c>
+      <c r="U36" s="2">
+        <v>12</v>
+      </c>
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>18</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>93</v>
+      </c>
+      <c r="D37">
+        <v>89</v>
+      </c>
+      <c r="E37">
+        <v>86</v>
+      </c>
+      <c r="F37">
+        <v>81</v>
+      </c>
+      <c r="G37">
+        <v>62</v>
+      </c>
+      <c r="H37">
+        <v>37</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>83</v>
+      </c>
+      <c r="K37">
+        <v>82</v>
+      </c>
+      <c r="L37">
+        <v>109</v>
+      </c>
+      <c r="M37">
+        <v>91</v>
+      </c>
+      <c r="N37">
+        <v>67</v>
+      </c>
+      <c r="O37">
+        <v>24</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>78</v>
+      </c>
+      <c r="R37">
+        <v>91</v>
+      </c>
+      <c r="S37">
+        <v>88</v>
+      </c>
+      <c r="T37">
+        <v>66</v>
+      </c>
+      <c r="U37">
+        <v>85</v>
+      </c>
+      <c r="V37">
+        <v>30</v>
+      </c>
+      <c r="W37">
+        <v>6</v>
+      </c>
+      <c r="X37">
+        <v>118</v>
+      </c>
+      <c r="Y37">
+        <v>71</v>
+      </c>
+      <c r="Z37">
+        <v>72</v>
+      </c>
+      <c r="AA37">
+        <v>85</v>
+      </c>
+      <c r="AB37">
+        <v>78</v>
+      </c>
+      <c r="AC37">
+        <v>38</v>
+      </c>
+      <c r="AD37">
+        <v>2</v>
+      </c>
+      <c r="AE37">
+        <v>103</v>
+      </c>
+      <c r="AG37">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2">
+        <v>21</v>
+      </c>
+      <c r="G38" s="2">
+        <v>17</v>
+      </c>
+      <c r="H38" s="2">
+        <v>6</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>10</v>
+      </c>
+      <c r="K38" s="2">
+        <v>24</v>
+      </c>
+      <c r="L38" s="2">
+        <v>17</v>
+      </c>
+      <c r="M38" s="2">
+        <v>18</v>
+      </c>
+      <c r="N38" s="2">
+        <v>9</v>
+      </c>
+      <c r="O38" s="2">
+        <v>4</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2">
+        <v>11</v>
+      </c>
+      <c r="R38" s="2">
+        <v>13</v>
+      </c>
+      <c r="S38" s="2">
+        <v>19</v>
+      </c>
+      <c r="T38" s="2">
+        <v>7</v>
+      </c>
+      <c r="U38" s="2">
+        <v>15</v>
+      </c>
+      <c r="V38" s="2">
+        <v>6</v>
+      </c>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2">
+        <v>15</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>18</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>16</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>71</v>
+      </c>
+      <c r="E39">
+        <v>87</v>
+      </c>
+      <c r="F39">
+        <v>92</v>
+      </c>
+      <c r="G39">
+        <v>59</v>
+      </c>
+      <c r="H39">
+        <v>37</v>
+      </c>
+      <c r="J39">
+        <v>74</v>
+      </c>
+      <c r="K39">
+        <v>64</v>
+      </c>
+      <c r="L39">
+        <v>85</v>
+      </c>
+      <c r="M39">
+        <v>63</v>
+      </c>
+      <c r="N39">
+        <v>78</v>
+      </c>
+      <c r="O39">
+        <v>29</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>76</v>
+      </c>
+      <c r="R39">
+        <v>76</v>
+      </c>
+      <c r="S39">
+        <v>84</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>71</v>
+      </c>
+      <c r="V39">
+        <v>38</v>
+      </c>
+      <c r="W39">
+        <v>4</v>
+      </c>
+      <c r="X39">
+        <v>77</v>
+      </c>
+      <c r="Y39">
+        <v>78</v>
+      </c>
+      <c r="Z39">
+        <v>67</v>
+      </c>
+      <c r="AA39">
+        <v>69</v>
+      </c>
+      <c r="AB39">
+        <v>59</v>
+      </c>
+      <c r="AC39">
+        <v>38</v>
+      </c>
+      <c r="AD39">
+        <v>2</v>
+      </c>
+      <c r="AE39">
+        <v>90</v>
+      </c>
+      <c r="AG39">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>19</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2">
+        <v>8</v>
+      </c>
+      <c r="L40" s="2">
+        <v>2</v>
+      </c>
+      <c r="M40" s="2">
+        <v>16</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2">
+        <v>2</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2">
+        <v>13</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2">
+        <v>17</v>
+      </c>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2">
+        <v>2</v>
+      </c>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>8</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>7</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>4</v>
+      </c>
+      <c r="AB41">
+        <v>5</v>
+      </c>
+      <c r="AC41">
+        <v>2</v>
+      </c>
+      <c r="AE41">
+        <v>3</v>
+      </c>
+      <c r="AG41">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>13</v>
+      </c>
+      <c r="F46">
+        <v>17</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>17</v>
+      </c>
+      <c r="M46">
+        <v>8</v>
+      </c>
+      <c r="N46">
+        <v>6</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>15</v>
+      </c>
+      <c r="T46">
+        <v>11</v>
+      </c>
+      <c r="U46">
+        <v>7</v>
+      </c>
+      <c r="V46">
+        <v>5</v>
+      </c>
+      <c r="X46">
+        <v>11</v>
+      </c>
+      <c r="Y46">
+        <v>7</v>
+      </c>
+      <c r="Z46">
+        <v>16</v>
+      </c>
+      <c r="AA46">
+        <v>11</v>
+      </c>
+      <c r="AB46">
+        <v>7</v>
+      </c>
+      <c r="AC46">
+        <v>4</v>
+      </c>
+      <c r="AE46">
+        <v>10</v>
+      </c>
+      <c r="AG46">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2">
+        <v>26</v>
+      </c>
+      <c r="D47" s="2">
+        <v>23</v>
+      </c>
+      <c r="E47" s="2">
+        <v>33</v>
+      </c>
+      <c r="F47" s="2">
+        <v>20</v>
+      </c>
+      <c r="G47" s="2">
+        <v>18</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2">
+        <v>18</v>
+      </c>
+      <c r="K47" s="2">
+        <v>31</v>
+      </c>
+      <c r="L47" s="2">
+        <v>30</v>
+      </c>
+      <c r="M47" s="2">
+        <v>52</v>
+      </c>
+      <c r="N47" s="2">
+        <v>23</v>
+      </c>
+      <c r="O47" s="2">
+        <v>5</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>22</v>
+      </c>
+      <c r="R47" s="2">
+        <v>36</v>
+      </c>
+      <c r="S47" s="2">
+        <v>21</v>
+      </c>
+      <c r="T47" s="2">
+        <v>12</v>
+      </c>
+      <c r="U47" s="2">
+        <v>19</v>
+      </c>
+      <c r="V47" s="2">
+        <v>3</v>
+      </c>
+      <c r="W47" s="2">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2">
+        <v>24</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>26</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>18</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>43</v>
+      </c>
+      <c r="F48">
+        <v>28</v>
+      </c>
+      <c r="G48">
+        <v>24</v>
+      </c>
+      <c r="H48">
+        <v>18</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>35</v>
+      </c>
+      <c r="K48">
+        <v>32</v>
+      </c>
+      <c r="L48">
+        <v>37</v>
+      </c>
+      <c r="M48">
+        <v>24</v>
+      </c>
+      <c r="N48">
+        <v>23</v>
+      </c>
+      <c r="O48">
+        <v>6</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>28</v>
+      </c>
+      <c r="R48">
+        <v>40</v>
+      </c>
+      <c r="S48">
+        <v>23</v>
+      </c>
+      <c r="T48">
+        <v>26</v>
+      </c>
+      <c r="U48">
+        <v>21</v>
+      </c>
+      <c r="V48">
+        <v>12</v>
+      </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
+      <c r="X48">
+        <v>33</v>
+      </c>
+      <c r="Y48">
+        <v>34</v>
+      </c>
+      <c r="Z48">
+        <v>37</v>
+      </c>
+      <c r="AA48">
+        <v>25</v>
+      </c>
+      <c r="AB48">
+        <v>26</v>
+      </c>
+      <c r="AC48">
+        <v>10</v>
+      </c>
+      <c r="AE48">
+        <v>29</v>
+      </c>
+      <c r="AG48">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2">
+        <v>36</v>
+      </c>
+      <c r="E49" s="2">
+        <v>42</v>
+      </c>
+      <c r="F49" s="2">
+        <v>24</v>
+      </c>
+      <c r="G49" s="2">
+        <v>18</v>
+      </c>
+      <c r="H49" s="2">
+        <v>6</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2">
+        <v>39</v>
+      </c>
+      <c r="K49" s="2">
+        <v>29</v>
+      </c>
+      <c r="L49" s="2">
+        <v>40</v>
+      </c>
+      <c r="M49" s="2">
+        <v>22</v>
+      </c>
+      <c r="N49" s="2">
+        <v>15</v>
+      </c>
+      <c r="O49" s="2">
+        <v>6</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2">
+        <v>35</v>
+      </c>
+      <c r="R49" s="2">
+        <v>24</v>
+      </c>
+      <c r="S49" s="2">
+        <v>30</v>
+      </c>
+      <c r="T49" s="2">
+        <v>22</v>
+      </c>
+      <c r="U49" s="2">
+        <v>17</v>
+      </c>
+      <c r="V49" s="2">
+        <v>12</v>
+      </c>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2">
+        <v>26</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <v>25</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>18</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>17</v>
+      </c>
+      <c r="K50">
+        <v>19</v>
+      </c>
+      <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>12</v>
+      </c>
+      <c r="O50">
+        <v>7</v>
+      </c>
+      <c r="Q50">
+        <v>12</v>
+      </c>
+      <c r="R50">
+        <v>21</v>
+      </c>
+      <c r="S50">
+        <v>20</v>
+      </c>
+      <c r="U50">
+        <v>24</v>
+      </c>
+      <c r="V50">
+        <v>8</v>
+      </c>
+      <c r="X50">
+        <v>18</v>
+      </c>
+      <c r="Y50">
+        <v>19</v>
+      </c>
+      <c r="Z50">
+        <v>27</v>
+      </c>
+      <c r="AA50">
+        <v>14</v>
+      </c>
+      <c r="AB50">
+        <v>12</v>
+      </c>
+      <c r="AC50">
+        <v>3</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>15</v>
+      </c>
+      <c r="AG50">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2">
+        <v>68</v>
+      </c>
+      <c r="D51" s="2">
+        <v>55</v>
+      </c>
+      <c r="E51" s="2">
+        <v>56</v>
+      </c>
+      <c r="F51" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" s="2">
+        <v>46</v>
+      </c>
+      <c r="H51" s="2">
+        <v>28</v>
+      </c>
+      <c r="I51" s="2">
+        <v>12</v>
+      </c>
+      <c r="J51" s="2">
+        <v>78</v>
+      </c>
+      <c r="K51" s="2">
+        <v>60</v>
+      </c>
+      <c r="L51" s="2">
+        <v>63</v>
+      </c>
+      <c r="M51" s="2">
+        <v>61</v>
+      </c>
+      <c r="N51" s="2">
+        <v>63</v>
+      </c>
+      <c r="O51" s="2">
+        <v>30</v>
+      </c>
+      <c r="P51" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>69</v>
+      </c>
+      <c r="R51" s="2">
+        <v>57</v>
+      </c>
+      <c r="S51" s="2">
+        <v>67</v>
+      </c>
+      <c r="T51" s="2">
+        <v>10</v>
+      </c>
+      <c r="U51" s="2">
+        <v>68</v>
+      </c>
+      <c r="V51" s="2">
+        <v>33</v>
+      </c>
+      <c r="W51" s="2">
+        <v>17</v>
+      </c>
+      <c r="X51" s="2">
+        <v>65</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>65</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>49</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>62</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>60</v>
+      </c>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>17</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>9</v>
+      </c>
+      <c r="L52">
+        <v>9</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
+      </c>
+      <c r="N52">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>8</v>
+      </c>
+      <c r="R52">
+        <v>8</v>
+      </c>
+      <c r="S52">
+        <v>10</v>
+      </c>
+      <c r="T52">
+        <v>5</v>
+      </c>
+      <c r="U52">
+        <v>6</v>
+      </c>
+      <c r="V52">
+        <v>11</v>
+      </c>
+      <c r="X52">
+        <v>5</v>
+      </c>
+      <c r="Y52">
+        <v>5</v>
+      </c>
+      <c r="Z52">
+        <v>5</v>
+      </c>
+      <c r="AA52">
+        <v>4</v>
+      </c>
+      <c r="AB52">
+        <v>10</v>
+      </c>
+      <c r="AC52">
+        <v>2</v>
+      </c>
+      <c r="AE52">
+        <v>5</v>
+      </c>
+      <c r="AG52">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2">
+        <v>26</v>
+      </c>
+      <c r="F53" s="2">
+        <v>13</v>
+      </c>
+      <c r="G53" s="2">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2">
+        <v>8</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2">
+        <v>16</v>
+      </c>
+      <c r="K53" s="2">
+        <v>11</v>
+      </c>
+      <c r="L53" s="2">
+        <v>21</v>
+      </c>
+      <c r="M53" s="2">
+        <v>13</v>
+      </c>
+      <c r="N53" s="2">
+        <v>15</v>
+      </c>
+      <c r="O53" s="2">
+        <v>5</v>
+      </c>
+      <c r="P53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>15</v>
+      </c>
+      <c r="R53" s="2">
+        <v>19</v>
+      </c>
+      <c r="S53" s="2">
+        <v>30</v>
+      </c>
+      <c r="T53" s="2">
+        <v>11</v>
+      </c>
+      <c r="U53" s="2">
+        <v>17</v>
+      </c>
+      <c r="V53" s="2">
+        <v>6</v>
+      </c>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>11</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>6</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>8</v>
+      </c>
+      <c r="T54">
+        <v>4</v>
+      </c>
+      <c r="U54">
+        <v>7</v>
+      </c>
+      <c r="V54">
+        <v>9</v>
+      </c>
+      <c r="X54">
+        <v>7</v>
+      </c>
+      <c r="Y54">
+        <v>3</v>
+      </c>
+      <c r="Z54">
+        <v>5</v>
+      </c>
+      <c r="AA54">
+        <v>6</v>
+      </c>
+      <c r="AB54">
+        <v>4</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
+        <v>4</v>
+      </c>
+      <c r="K55" s="2">
+        <v>6</v>
+      </c>
+      <c r="L55" s="2">
+        <v>3</v>
+      </c>
+      <c r="M55" s="2">
+        <v>2</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>5</v>
+      </c>
+      <c r="R55" s="2">
+        <v>4</v>
+      </c>
+      <c r="S55" s="2">
+        <v>1</v>
+      </c>
+      <c r="T55" s="2">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2">
+        <v>2</v>
+      </c>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>7</v>
+      </c>
+      <c r="K56">
+        <v>6</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>12</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>7</v>
+      </c>
+      <c r="R56">
+        <v>10</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>9</v>
+      </c>
+      <c r="U56">
+        <v>4</v>
+      </c>
+      <c r="V56">
+        <v>2</v>
+      </c>
+      <c r="X56">
+        <v>7</v>
+      </c>
+      <c r="Y56">
+        <v>6</v>
+      </c>
+      <c r="Z56">
+        <v>6</v>
+      </c>
+      <c r="AA56">
+        <v>12</v>
+      </c>
+      <c r="AB56">
+        <v>3</v>
+      </c>
+      <c r="AC56">
+        <v>5</v>
+      </c>
+      <c r="AE56">
+        <v>8</v>
+      </c>
+      <c r="AG56">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:AG56" xr:uid="{56447E71-7667-4E1B-8A2F-C07AA18E89A6}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:AG56"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
@@ -28650,14 +33128,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{56447E71-7667-4E1B-8A2F-C07AA18E89A6}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
-  <sheetPr codeName="Sheet14"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -29913,14 +34391,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
-  <sheetPr codeName="Sheet16"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -31176,1270 +35655,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:AG56"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-      <c r="AA1">
-        <v>26</v>
-      </c>
-      <c r="AB1">
-        <v>27</v>
-      </c>
-      <c r="AC1">
-        <v>28</v>
-      </c>
-      <c r="AD1">
-        <v>29</v>
-      </c>
-      <c r="AE1">
-        <v>30</v>
-      </c>
-      <c r="AF1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
   <autoFilter ref="A3:AG56" xr:uid="{AFC2BCF1-614C-4B72-8DE9-95317B022DA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
+++ b/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E2A392-75FC-4280-9CB4-0AA597F0FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD6B48F-4BE8-433D-827E-A9560D97FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" activeTab="5" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" activeTab="6" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="73">
   <si>
     <t>branchname</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>2025-06-01 - 2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-01 - 2025-07-31</t>
   </si>
 </sst>
 </file>
@@ -27400,7 +27403,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -31875,6 +31878,4569 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45839</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45840</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45841</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45842</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45843</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45844</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45845</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45846</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45847</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45848</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45849</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45850</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45851</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45852</v>
+      </c>
+      <c r="P2" s="1">
+        <v>45853</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45854</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45855</v>
+      </c>
+      <c r="S2" s="1">
+        <v>45856</v>
+      </c>
+      <c r="T2" s="1">
+        <v>45857</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45858</v>
+      </c>
+      <c r="V2" s="1">
+        <v>45859</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45860</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45861</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>45862</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>45863</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45864</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>45865</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>45866</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>45867</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>45868</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>45869</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2">
+        <v>83</v>
+      </c>
+      <c r="I4" s="2">
+        <v>61</v>
+      </c>
+      <c r="J4" s="2">
+        <v>70</v>
+      </c>
+      <c r="K4" s="2">
+        <v>56</v>
+      </c>
+      <c r="L4" s="2">
+        <v>65</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2">
+        <v>63</v>
+      </c>
+      <c r="P4" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>67</v>
+      </c>
+      <c r="R4" s="2">
+        <v>72</v>
+      </c>
+      <c r="S4" s="2">
+        <v>52</v>
+      </c>
+      <c r="T4" s="2">
+        <v>23</v>
+      </c>
+      <c r="U4" s="2">
+        <v>6</v>
+      </c>
+      <c r="V4" s="2">
+        <v>93</v>
+      </c>
+      <c r="W4" s="2">
+        <v>50</v>
+      </c>
+      <c r="X4" s="2">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>60</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>66</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>65</v>
+      </c>
+      <c r="K5">
+        <v>51</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>22</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>54</v>
+      </c>
+      <c r="P5">
+        <v>50</v>
+      </c>
+      <c r="Q5">
+        <v>49</v>
+      </c>
+      <c r="R5">
+        <v>48</v>
+      </c>
+      <c r="S5">
+        <v>34</v>
+      </c>
+      <c r="T5">
+        <v>29</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>54</v>
+      </c>
+      <c r="W5">
+        <v>37</v>
+      </c>
+      <c r="X5">
+        <v>49</v>
+      </c>
+      <c r="Y5">
+        <v>48</v>
+      </c>
+      <c r="Z5">
+        <v>40</v>
+      </c>
+      <c r="AA5">
+        <v>11</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>53</v>
+      </c>
+      <c r="AD5">
+        <v>48</v>
+      </c>
+      <c r="AE5">
+        <v>37</v>
+      </c>
+      <c r="AF5">
+        <v>33</v>
+      </c>
+      <c r="AG5">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>58</v>
+      </c>
+      <c r="G6" s="2">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2">
+        <v>105</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
+        <v>111</v>
+      </c>
+      <c r="K6" s="2">
+        <v>111</v>
+      </c>
+      <c r="L6" s="2">
+        <v>72</v>
+      </c>
+      <c r="M6" s="2">
+        <v>74</v>
+      </c>
+      <c r="N6" s="2">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2">
+        <v>98</v>
+      </c>
+      <c r="P6" s="2">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>95</v>
+      </c>
+      <c r="R6" s="2">
+        <v>91</v>
+      </c>
+      <c r="S6" s="2">
+        <v>67</v>
+      </c>
+      <c r="T6" s="2">
+        <v>51</v>
+      </c>
+      <c r="U6" s="2">
+        <v>42</v>
+      </c>
+      <c r="V6" s="2">
+        <v>93</v>
+      </c>
+      <c r="W6" s="2">
+        <v>118</v>
+      </c>
+      <c r="X6" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>91</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>51</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2">
+        <v>80</v>
+      </c>
+      <c r="J8" s="2">
+        <v>78</v>
+      </c>
+      <c r="K8" s="2">
+        <v>56</v>
+      </c>
+      <c r="L8" s="2">
+        <v>71</v>
+      </c>
+      <c r="M8" s="2">
+        <v>39</v>
+      </c>
+      <c r="N8" s="2">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2">
+        <v>84</v>
+      </c>
+      <c r="P8" s="2">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>78</v>
+      </c>
+      <c r="R8" s="2">
+        <v>50</v>
+      </c>
+      <c r="S8" s="2">
+        <v>58</v>
+      </c>
+      <c r="T8" s="2">
+        <v>42</v>
+      </c>
+      <c r="U8" s="2">
+        <v>27</v>
+      </c>
+      <c r="V8" s="2">
+        <v>74</v>
+      </c>
+      <c r="W8" s="2">
+        <v>94</v>
+      </c>
+      <c r="X8" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>64</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>48</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>52</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>8</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>9</v>
+      </c>
+      <c r="AF9">
+        <v>5</v>
+      </c>
+      <c r="AG9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
+        <v>8</v>
+      </c>
+      <c r="L10" s="2">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <v>8</v>
+      </c>
+      <c r="P10" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>12</v>
+      </c>
+      <c r="R10" s="2">
+        <v>9</v>
+      </c>
+      <c r="S10" s="2">
+        <v>11</v>
+      </c>
+      <c r="T10" s="2">
+        <v>8</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2">
+        <v>9</v>
+      </c>
+      <c r="W10" s="2">
+        <v>9</v>
+      </c>
+      <c r="X10" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>11</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>12</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>8</v>
+      </c>
+      <c r="AE11">
+        <v>11</v>
+      </c>
+      <c r="AF11">
+        <v>2</v>
+      </c>
+      <c r="AG11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
+        <v>3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2">
+        <v>2</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2">
+        <v>2</v>
+      </c>
+      <c r="W14" s="2">
+        <v>2</v>
+      </c>
+      <c r="X14" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>4</v>
+      </c>
+      <c r="AD15">
+        <v>6</v>
+      </c>
+      <c r="AE15">
+        <v>6</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2">
+        <v>11</v>
+      </c>
+      <c r="J16" s="2">
+        <v>12</v>
+      </c>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
+      <c r="L16" s="2">
+        <v>7</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2">
+        <v>18</v>
+      </c>
+      <c r="P16" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>14</v>
+      </c>
+      <c r="R16" s="2">
+        <v>15</v>
+      </c>
+      <c r="S16" s="2">
+        <v>8</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2">
+        <v>14</v>
+      </c>
+      <c r="W16" s="2">
+        <v>14</v>
+      </c>
+      <c r="X16" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>4</v>
+      </c>
+      <c r="AD17">
+        <v>3</v>
+      </c>
+      <c r="AE17">
+        <v>4</v>
+      </c>
+      <c r="AF17">
+        <v>6</v>
+      </c>
+      <c r="AG17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2">
+        <v>11</v>
+      </c>
+      <c r="K18" s="2">
+        <v>7</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2">
+        <v>3</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2">
+        <v>18</v>
+      </c>
+      <c r="P18" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>11</v>
+      </c>
+      <c r="R18" s="2">
+        <v>10</v>
+      </c>
+      <c r="S18" s="2">
+        <v>6</v>
+      </c>
+      <c r="T18" s="2">
+        <v>4</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2">
+        <v>6</v>
+      </c>
+      <c r="W18" s="2">
+        <v>3</v>
+      </c>
+      <c r="X18" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>24</v>
+      </c>
+      <c r="J19">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>26</v>
+      </c>
+      <c r="P19">
+        <v>31</v>
+      </c>
+      <c r="Q19">
+        <v>31</v>
+      </c>
+      <c r="R19">
+        <v>22</v>
+      </c>
+      <c r="S19">
+        <v>18</v>
+      </c>
+      <c r="T19">
+        <v>19</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>39</v>
+      </c>
+      <c r="W19">
+        <v>29</v>
+      </c>
+      <c r="X19">
+        <v>35</v>
+      </c>
+      <c r="Y19">
+        <v>31</v>
+      </c>
+      <c r="Z19">
+        <v>17</v>
+      </c>
+      <c r="AA19">
+        <v>17</v>
+      </c>
+      <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19">
+        <v>32</v>
+      </c>
+      <c r="AD19">
+        <v>19</v>
+      </c>
+      <c r="AE19">
+        <v>27</v>
+      </c>
+      <c r="AF19">
+        <v>21</v>
+      </c>
+      <c r="AG19">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>3</v>
+      </c>
+      <c r="T20" s="2">
+        <v>2</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>23</v>
+      </c>
+      <c r="J21">
+        <v>29</v>
+      </c>
+      <c r="K21">
+        <v>23</v>
+      </c>
+      <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>26</v>
+      </c>
+      <c r="P21">
+        <v>23</v>
+      </c>
+      <c r="Q21">
+        <v>25</v>
+      </c>
+      <c r="R21">
+        <v>29</v>
+      </c>
+      <c r="S21">
+        <v>23</v>
+      </c>
+      <c r="T21">
+        <v>13</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>43</v>
+      </c>
+      <c r="W21">
+        <v>18</v>
+      </c>
+      <c r="X21">
+        <v>22</v>
+      </c>
+      <c r="Y21">
+        <v>27</v>
+      </c>
+      <c r="Z21">
+        <v>19</v>
+      </c>
+      <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
+        <v>8</v>
+      </c>
+      <c r="AC21">
+        <v>32</v>
+      </c>
+      <c r="AD21">
+        <v>28</v>
+      </c>
+      <c r="AE21">
+        <v>2</v>
+      </c>
+      <c r="AF21">
+        <v>46</v>
+      </c>
+      <c r="AG21">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>39</v>
+      </c>
+      <c r="H23">
+        <v>36</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>31</v>
+      </c>
+      <c r="K23">
+        <v>36</v>
+      </c>
+      <c r="L23">
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>37</v>
+      </c>
+      <c r="P23">
+        <v>40</v>
+      </c>
+      <c r="Q23">
+        <v>28</v>
+      </c>
+      <c r="R23">
+        <v>28</v>
+      </c>
+      <c r="S23">
+        <v>23</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="V23">
+        <v>42</v>
+      </c>
+      <c r="W23">
+        <v>39</v>
+      </c>
+      <c r="X23">
+        <v>28</v>
+      </c>
+      <c r="Y23">
+        <v>35</v>
+      </c>
+      <c r="Z23">
+        <v>17</v>
+      </c>
+      <c r="AA23">
+        <v>13</v>
+      </c>
+      <c r="AC23">
+        <v>36</v>
+      </c>
+      <c r="AD23">
+        <v>33</v>
+      </c>
+      <c r="AE23">
+        <v>28</v>
+      </c>
+      <c r="AF23">
+        <v>23</v>
+      </c>
+      <c r="AG23">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2">
+        <v>13</v>
+      </c>
+      <c r="K24" s="2">
+        <v>6</v>
+      </c>
+      <c r="L24" s="2">
+        <v>9</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2">
+        <v>9</v>
+      </c>
+      <c r="P24" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>10</v>
+      </c>
+      <c r="R24" s="2">
+        <v>6</v>
+      </c>
+      <c r="S24" s="2">
+        <v>7</v>
+      </c>
+      <c r="T24" s="2">
+        <v>6</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2">
+        <v>9</v>
+      </c>
+      <c r="W24" s="2">
+        <v>10</v>
+      </c>
+      <c r="X24" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>46</v>
+      </c>
+      <c r="I25">
+        <v>45</v>
+      </c>
+      <c r="J25">
+        <v>39</v>
+      </c>
+      <c r="K25">
+        <v>50</v>
+      </c>
+      <c r="L25">
+        <v>41</v>
+      </c>
+      <c r="M25">
+        <v>16</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>44</v>
+      </c>
+      <c r="P25">
+        <v>43</v>
+      </c>
+      <c r="Q25">
+        <v>34</v>
+      </c>
+      <c r="R25">
+        <v>34</v>
+      </c>
+      <c r="S25">
+        <v>35</v>
+      </c>
+      <c r="T25">
+        <v>28</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>47</v>
+      </c>
+      <c r="W25">
+        <v>44</v>
+      </c>
+      <c r="X25">
+        <v>29</v>
+      </c>
+      <c r="Y25">
+        <v>47</v>
+      </c>
+      <c r="Z25">
+        <v>28</v>
+      </c>
+      <c r="AA25">
+        <v>23</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>30</v>
+      </c>
+      <c r="AD25">
+        <v>43</v>
+      </c>
+      <c r="AE25">
+        <v>31</v>
+      </c>
+      <c r="AF25">
+        <v>41</v>
+      </c>
+      <c r="AG25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>156</v>
+      </c>
+      <c r="C26" s="2">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2">
+        <v>104</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>87</v>
+      </c>
+      <c r="G26" s="2">
+        <v>44</v>
+      </c>
+      <c r="H26" s="2">
+        <v>130</v>
+      </c>
+      <c r="I26" s="2">
+        <v>115</v>
+      </c>
+      <c r="J26" s="2">
+        <v>178</v>
+      </c>
+      <c r="K26" s="2">
+        <v>112</v>
+      </c>
+      <c r="L26" s="2">
+        <v>110</v>
+      </c>
+      <c r="M26" s="2">
+        <v>96</v>
+      </c>
+      <c r="N26" s="2">
+        <v>55</v>
+      </c>
+      <c r="O26" s="2">
+        <v>121</v>
+      </c>
+      <c r="P26" s="2">
+        <v>120</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>125</v>
+      </c>
+      <c r="R26" s="2">
+        <v>109</v>
+      </c>
+      <c r="S26" s="2">
+        <v>100</v>
+      </c>
+      <c r="T26" s="2">
+        <v>84</v>
+      </c>
+      <c r="U26" s="2">
+        <v>50</v>
+      </c>
+      <c r="V26" s="2">
+        <v>119</v>
+      </c>
+      <c r="W26" s="2">
+        <v>140</v>
+      </c>
+      <c r="X26" s="2">
+        <v>93</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>48</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>125</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>106</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>12</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>8</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>9</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27">
+        <v>9</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <v>12</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AC27">
+        <v>10</v>
+      </c>
+      <c r="AD27">
+        <v>7</v>
+      </c>
+      <c r="AE27">
+        <v>4</v>
+      </c>
+      <c r="AF27">
+        <v>11</v>
+      </c>
+      <c r="AG27">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>12</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>13</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>15</v>
+      </c>
+      <c r="W29">
+        <v>18</v>
+      </c>
+      <c r="X29">
+        <v>10</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+      <c r="AA29">
+        <v>8</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>19</v>
+      </c>
+      <c r="AD29">
+        <v>10</v>
+      </c>
+      <c r="AE29">
+        <v>12</v>
+      </c>
+      <c r="AF29">
+        <v>6</v>
+      </c>
+      <c r="AG29">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>6</v>
+      </c>
+      <c r="J30" s="2">
+        <v>16</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>9</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2">
+        <v>5</v>
+      </c>
+      <c r="P30" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>3</v>
+      </c>
+      <c r="R30" s="2">
+        <v>5</v>
+      </c>
+      <c r="S30" s="2">
+        <v>6</v>
+      </c>
+      <c r="T30" s="2">
+        <v>2</v>
+      </c>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2">
+        <v>7</v>
+      </c>
+      <c r="W30" s="2">
+        <v>6</v>
+      </c>
+      <c r="X30" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <v>40</v>
+      </c>
+      <c r="J31">
+        <v>33</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>22</v>
+      </c>
+      <c r="P31">
+        <v>34</v>
+      </c>
+      <c r="Q31">
+        <v>26</v>
+      </c>
+      <c r="R31">
+        <v>33</v>
+      </c>
+      <c r="S31">
+        <v>28</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>21</v>
+      </c>
+      <c r="W31">
+        <v>29</v>
+      </c>
+      <c r="X31">
+        <v>24</v>
+      </c>
+      <c r="Y31">
+        <v>24</v>
+      </c>
+      <c r="Z31">
+        <v>23</v>
+      </c>
+      <c r="AA31">
+        <v>8</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
+      <c r="AC31">
+        <v>19</v>
+      </c>
+      <c r="AD31">
+        <v>34</v>
+      </c>
+      <c r="AE31">
+        <v>21</v>
+      </c>
+      <c r="AF31">
+        <v>25</v>
+      </c>
+      <c r="AG31">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2">
+        <v>3</v>
+      </c>
+      <c r="P32" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2">
+        <v>3</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2">
+        <v>3</v>
+      </c>
+      <c r="W32" s="2">
+        <v>2</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>13</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>7</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>12</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>7</v>
+      </c>
+      <c r="Z33">
+        <v>6</v>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AD33">
+        <v>4</v>
+      </c>
+      <c r="AE33">
+        <v>6</v>
+      </c>
+      <c r="AF33">
+        <v>8</v>
+      </c>
+      <c r="AG33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2">
+        <v>32</v>
+      </c>
+      <c r="D34" s="2">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>32</v>
+      </c>
+      <c r="I34" s="2">
+        <v>32</v>
+      </c>
+      <c r="J34" s="2">
+        <v>36</v>
+      </c>
+      <c r="K34" s="2">
+        <v>28</v>
+      </c>
+      <c r="L34" s="2">
+        <v>20</v>
+      </c>
+      <c r="M34" s="2">
+        <v>17</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2">
+        <v>37</v>
+      </c>
+      <c r="P34" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>40</v>
+      </c>
+      <c r="R34" s="2">
+        <v>21</v>
+      </c>
+      <c r="S34" s="2">
+        <v>23</v>
+      </c>
+      <c r="T34" s="2">
+        <v>16</v>
+      </c>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2">
+        <v>29</v>
+      </c>
+      <c r="W34" s="2">
+        <v>40</v>
+      </c>
+      <c r="X34" s="2">
+        <v>27</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>26</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>13</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>16</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>38</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>30</v>
+      </c>
+      <c r="K35">
+        <v>24</v>
+      </c>
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>14</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>36</v>
+      </c>
+      <c r="P35">
+        <v>19</v>
+      </c>
+      <c r="Q35">
+        <v>16</v>
+      </c>
+      <c r="R35">
+        <v>20</v>
+      </c>
+      <c r="S35">
+        <v>19</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="V35">
+        <v>28</v>
+      </c>
+      <c r="W35">
+        <v>17</v>
+      </c>
+      <c r="X35">
+        <v>29</v>
+      </c>
+      <c r="Y35">
+        <v>21</v>
+      </c>
+      <c r="Z35">
+        <v>33</v>
+      </c>
+      <c r="AA35">
+        <v>9</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>33</v>
+      </c>
+      <c r="AD35">
+        <v>18</v>
+      </c>
+      <c r="AE35">
+        <v>17</v>
+      </c>
+      <c r="AF35">
+        <v>23</v>
+      </c>
+      <c r="AG35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2">
+        <v>14</v>
+      </c>
+      <c r="I36" s="2">
+        <v>11</v>
+      </c>
+      <c r="J36" s="2">
+        <v>14</v>
+      </c>
+      <c r="K36" s="2">
+        <v>11</v>
+      </c>
+      <c r="L36" s="2">
+        <v>12</v>
+      </c>
+      <c r="M36" s="2">
+        <v>7</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2">
+        <v>20</v>
+      </c>
+      <c r="P36" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>39</v>
+      </c>
+      <c r="R36" s="2">
+        <v>11</v>
+      </c>
+      <c r="S36" s="2">
+        <v>12</v>
+      </c>
+      <c r="T36" s="2">
+        <v>9</v>
+      </c>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2">
+        <v>16</v>
+      </c>
+      <c r="W36" s="2">
+        <v>5</v>
+      </c>
+      <c r="X36" s="2">
+        <v>28</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>11</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>109</v>
+      </c>
+      <c r="C37">
+        <v>87</v>
+      </c>
+      <c r="D37">
+        <v>86</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>38</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>111</v>
+      </c>
+      <c r="I37">
+        <v>113</v>
+      </c>
+      <c r="J37">
+        <v>88</v>
+      </c>
+      <c r="K37">
+        <v>89</v>
+      </c>
+      <c r="L37">
+        <v>76</v>
+      </c>
+      <c r="M37">
+        <v>39</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>114</v>
+      </c>
+      <c r="P37">
+        <v>87</v>
+      </c>
+      <c r="Q37">
+        <v>62</v>
+      </c>
+      <c r="R37">
+        <v>73</v>
+      </c>
+      <c r="S37">
+        <v>57</v>
+      </c>
+      <c r="T37">
+        <v>28</v>
+      </c>
+      <c r="U37">
+        <v>5</v>
+      </c>
+      <c r="V37">
+        <v>105</v>
+      </c>
+      <c r="W37">
+        <v>74</v>
+      </c>
+      <c r="X37">
+        <v>97</v>
+      </c>
+      <c r="Y37">
+        <v>82</v>
+      </c>
+      <c r="Z37">
+        <v>54</v>
+      </c>
+      <c r="AA37">
+        <v>25</v>
+      </c>
+      <c r="AB37">
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <v>92</v>
+      </c>
+      <c r="AD37">
+        <v>75</v>
+      </c>
+      <c r="AE37">
+        <v>84</v>
+      </c>
+      <c r="AF37">
+        <v>80</v>
+      </c>
+      <c r="AG37">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>18</v>
+      </c>
+      <c r="I38" s="2">
+        <v>11</v>
+      </c>
+      <c r="J38" s="2">
+        <v>9</v>
+      </c>
+      <c r="K38" s="2">
+        <v>18</v>
+      </c>
+      <c r="L38" s="2">
+        <v>11</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>20</v>
+      </c>
+      <c r="P38" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>12</v>
+      </c>
+      <c r="R38" s="2">
+        <v>16</v>
+      </c>
+      <c r="S38" s="2">
+        <v>14</v>
+      </c>
+      <c r="T38" s="2">
+        <v>4</v>
+      </c>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2">
+        <v>14</v>
+      </c>
+      <c r="W38" s="2">
+        <v>11</v>
+      </c>
+      <c r="X38" s="2">
+        <v>14</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>18</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>16</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>8</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>83</v>
+      </c>
+      <c r="C39">
+        <v>77</v>
+      </c>
+      <c r="D39">
+        <v>79</v>
+      </c>
+      <c r="F39">
+        <v>35</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>77</v>
+      </c>
+      <c r="I39">
+        <v>81</v>
+      </c>
+      <c r="J39">
+        <v>69</v>
+      </c>
+      <c r="K39">
+        <v>57</v>
+      </c>
+      <c r="L39">
+        <v>49</v>
+      </c>
+      <c r="M39">
+        <v>30</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>91</v>
+      </c>
+      <c r="P39">
+        <v>74</v>
+      </c>
+      <c r="Q39">
+        <v>62</v>
+      </c>
+      <c r="R39">
+        <v>69</v>
+      </c>
+      <c r="S39">
+        <v>71</v>
+      </c>
+      <c r="T39">
+        <v>30</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>78</v>
+      </c>
+      <c r="W39">
+        <v>64</v>
+      </c>
+      <c r="X39">
+        <v>39</v>
+      </c>
+      <c r="Y39">
+        <v>59</v>
+      </c>
+      <c r="Z39">
+        <v>50</v>
+      </c>
+      <c r="AA39">
+        <v>27</v>
+      </c>
+      <c r="AB39">
+        <v>3</v>
+      </c>
+      <c r="AC39">
+        <v>83</v>
+      </c>
+      <c r="AD39">
+        <v>60</v>
+      </c>
+      <c r="AE39">
+        <v>71</v>
+      </c>
+      <c r="AF39">
+        <v>74</v>
+      </c>
+      <c r="AG39">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>14</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2">
+        <v>9</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2">
+        <v>5</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2">
+        <v>7</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2">
+        <v>13</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2">
+        <v>1</v>
+      </c>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2">
+        <v>5</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>7</v>
+      </c>
+      <c r="P41">
+        <v>8</v>
+      </c>
+      <c r="Q41">
+        <v>7</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>7</v>
+      </c>
+      <c r="AD41">
+        <v>4</v>
+      </c>
+      <c r="AE41">
+        <v>2</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>9</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>11</v>
+      </c>
+      <c r="P46">
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <v>13</v>
+      </c>
+      <c r="R46">
+        <v>15</v>
+      </c>
+      <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>7</v>
+      </c>
+      <c r="V46">
+        <v>14</v>
+      </c>
+      <c r="W46">
+        <v>6</v>
+      </c>
+      <c r="X46">
+        <v>9</v>
+      </c>
+      <c r="Y46">
+        <v>13</v>
+      </c>
+      <c r="Z46">
+        <v>7</v>
+      </c>
+      <c r="AA46">
+        <v>2</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <v>16</v>
+      </c>
+      <c r="AD46">
+        <v>7</v>
+      </c>
+      <c r="AE46">
+        <v>15</v>
+      </c>
+      <c r="AF46">
+        <v>10</v>
+      </c>
+      <c r="AG46">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2">
+        <v>22</v>
+      </c>
+      <c r="I47" s="2">
+        <v>33</v>
+      </c>
+      <c r="J47" s="2">
+        <v>24</v>
+      </c>
+      <c r="K47" s="2">
+        <v>23</v>
+      </c>
+      <c r="L47" s="2">
+        <v>20</v>
+      </c>
+      <c r="M47" s="2">
+        <v>7</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2">
+        <v>12</v>
+      </c>
+      <c r="P47" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>19</v>
+      </c>
+      <c r="R47" s="2">
+        <v>33</v>
+      </c>
+      <c r="S47" s="2">
+        <v>22</v>
+      </c>
+      <c r="T47" s="2">
+        <v>2</v>
+      </c>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2">
+        <v>20</v>
+      </c>
+      <c r="W47" s="2">
+        <v>22</v>
+      </c>
+      <c r="X47" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>18</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>26</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>31</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>51</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>24</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="H48">
+        <v>37</v>
+      </c>
+      <c r="I48">
+        <v>45</v>
+      </c>
+      <c r="J48">
+        <v>25</v>
+      </c>
+      <c r="K48">
+        <v>22</v>
+      </c>
+      <c r="L48">
+        <v>40</v>
+      </c>
+      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="O48">
+        <v>31</v>
+      </c>
+      <c r="P48">
+        <v>31</v>
+      </c>
+      <c r="Q48">
+        <v>25</v>
+      </c>
+      <c r="R48">
+        <v>21</v>
+      </c>
+      <c r="S48">
+        <v>23</v>
+      </c>
+      <c r="T48">
+        <v>19</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>36</v>
+      </c>
+      <c r="W48">
+        <v>25</v>
+      </c>
+      <c r="X48">
+        <v>32</v>
+      </c>
+      <c r="Y48">
+        <v>19</v>
+      </c>
+      <c r="Z48">
+        <v>31</v>
+      </c>
+      <c r="AA48">
+        <v>16</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>37</v>
+      </c>
+      <c r="AD48">
+        <v>33</v>
+      </c>
+      <c r="AE48">
+        <v>27</v>
+      </c>
+      <c r="AF48">
+        <v>13</v>
+      </c>
+      <c r="AG48">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>34</v>
+      </c>
+      <c r="C49" s="2">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2">
+        <v>27</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2</v>
+      </c>
+      <c r="H49" s="2">
+        <v>35</v>
+      </c>
+      <c r="I49" s="2">
+        <v>39</v>
+      </c>
+      <c r="J49" s="2">
+        <v>24</v>
+      </c>
+      <c r="K49" s="2">
+        <v>24</v>
+      </c>
+      <c r="L49" s="2">
+        <v>24</v>
+      </c>
+      <c r="M49" s="2">
+        <v>11</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2">
+        <v>30</v>
+      </c>
+      <c r="P49" s="2">
+        <v>27</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>26</v>
+      </c>
+      <c r="R49" s="2">
+        <v>22</v>
+      </c>
+      <c r="S49" s="2">
+        <v>19</v>
+      </c>
+      <c r="T49" s="2">
+        <v>11</v>
+      </c>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2">
+        <v>29</v>
+      </c>
+      <c r="W49" s="2">
+        <v>37</v>
+      </c>
+      <c r="X49" s="2">
+        <v>14</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>16</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>25</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>22</v>
+      </c>
+      <c r="I50">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>27</v>
+      </c>
+      <c r="K50">
+        <v>13</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <v>19</v>
+      </c>
+      <c r="P50">
+        <v>16</v>
+      </c>
+      <c r="Q50">
+        <v>22</v>
+      </c>
+      <c r="R50">
+        <v>21</v>
+      </c>
+      <c r="S50">
+        <v>14</v>
+      </c>
+      <c r="T50">
+        <v>11</v>
+      </c>
+      <c r="V50">
+        <v>26</v>
+      </c>
+      <c r="W50">
+        <v>8</v>
+      </c>
+      <c r="X50">
+        <v>19</v>
+      </c>
+      <c r="Y50">
+        <v>12</v>
+      </c>
+      <c r="Z50">
+        <v>13</v>
+      </c>
+      <c r="AA50">
+        <v>3</v>
+      </c>
+      <c r="AC50">
+        <v>16</v>
+      </c>
+      <c r="AD50">
+        <v>16</v>
+      </c>
+      <c r="AE50">
+        <v>16</v>
+      </c>
+      <c r="AF50">
+        <v>17</v>
+      </c>
+      <c r="AG50">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>53</v>
+      </c>
+      <c r="C51" s="2">
+        <v>56</v>
+      </c>
+      <c r="D51" s="2">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>7</v>
+      </c>
+      <c r="F51" s="2">
+        <v>28</v>
+      </c>
+      <c r="G51" s="2">
+        <v>20</v>
+      </c>
+      <c r="H51" s="2">
+        <v>52</v>
+      </c>
+      <c r="I51" s="2">
+        <v>61</v>
+      </c>
+      <c r="J51" s="2">
+        <v>60</v>
+      </c>
+      <c r="K51" s="2">
+        <v>77</v>
+      </c>
+      <c r="L51" s="2">
+        <v>52</v>
+      </c>
+      <c r="M51" s="2">
+        <v>24</v>
+      </c>
+      <c r="N51" s="2">
+        <v>18</v>
+      </c>
+      <c r="O51" s="2">
+        <v>36</v>
+      </c>
+      <c r="P51" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>53</v>
+      </c>
+      <c r="R51" s="2">
+        <v>76</v>
+      </c>
+      <c r="S51" s="2">
+        <v>52</v>
+      </c>
+      <c r="T51" s="2">
+        <v>24</v>
+      </c>
+      <c r="U51" s="2">
+        <v>13</v>
+      </c>
+      <c r="V51" s="2">
+        <v>52</v>
+      </c>
+      <c r="W51" s="2">
+        <v>50</v>
+      </c>
+      <c r="X51" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>59</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>49</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>55</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>57</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>53</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>15</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>10</v>
+      </c>
+      <c r="R52">
+        <v>5</v>
+      </c>
+      <c r="S52">
+        <v>3</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <v>3</v>
+      </c>
+      <c r="W52">
+        <v>7</v>
+      </c>
+      <c r="X52">
+        <v>8</v>
+      </c>
+      <c r="Y52">
+        <v>9</v>
+      </c>
+      <c r="Z52">
+        <v>5</v>
+      </c>
+      <c r="AA52">
+        <v>2</v>
+      </c>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+      <c r="AC52">
+        <v>4</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>6</v>
+      </c>
+      <c r="AF52">
+        <v>9</v>
+      </c>
+      <c r="AG52">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2">
+        <v>17</v>
+      </c>
+      <c r="I53" s="2">
+        <v>13</v>
+      </c>
+      <c r="J53" s="2">
+        <v>22</v>
+      </c>
+      <c r="K53" s="2">
+        <v>11</v>
+      </c>
+      <c r="L53" s="2">
+        <v>15</v>
+      </c>
+      <c r="M53" s="2">
+        <v>7</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2">
+        <v>16</v>
+      </c>
+      <c r="P53" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>15</v>
+      </c>
+      <c r="R53" s="2">
+        <v>14</v>
+      </c>
+      <c r="S53" s="2">
+        <v>12</v>
+      </c>
+      <c r="T53" s="2">
+        <v>5</v>
+      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2">
+        <v>18</v>
+      </c>
+      <c r="W53" s="2">
+        <v>14</v>
+      </c>
+      <c r="X53" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>13</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>11</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>16</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <v>4</v>
+      </c>
+      <c r="X54">
+        <v>2</v>
+      </c>
+      <c r="Y54">
+        <v>4</v>
+      </c>
+      <c r="Z54">
+        <v>4</v>
+      </c>
+      <c r="AC54">
+        <v>9</v>
+      </c>
+      <c r="AE54">
+        <v>5</v>
+      </c>
+      <c r="AF54">
+        <v>4</v>
+      </c>
+      <c r="AG54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2">
+        <v>4</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
+        <v>2</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2">
+        <v>7</v>
+      </c>
+      <c r="P55" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>5</v>
+      </c>
+      <c r="R55" s="2">
+        <v>1</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2">
+        <v>1</v>
+      </c>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2">
+        <v>3</v>
+      </c>
+      <c r="W55" s="2">
+        <v>1</v>
+      </c>
+      <c r="X55" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG55" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>17</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
+      <c r="K56">
+        <v>12</v>
+      </c>
+      <c r="L56">
+        <v>8</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>8</v>
+      </c>
+      <c r="S56">
+        <v>8</v>
+      </c>
+      <c r="T56">
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <v>9</v>
+      </c>
+      <c r="W56">
+        <v>8</v>
+      </c>
+      <c r="X56">
+        <v>3</v>
+      </c>
+      <c r="Y56">
+        <v>8</v>
+      </c>
+      <c r="Z56">
+        <v>6</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <v>5</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>2</v>
+      </c>
+      <c r="AF56">
+        <v>6</v>
+      </c>
+      <c r="AG56">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:AG56"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
@@ -33128,14 +37694,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{2F160593-007B-4EB6-9F27-C1EB30AC5D78}"/>
+  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
-  <sheetPr codeName="Sheet16"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -34391,1270 +38958,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:AG56"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-      <c r="AA1">
-        <v>26</v>
-      </c>
-      <c r="AB1">
-        <v>27</v>
-      </c>
-      <c r="AC1">
-        <v>28</v>
-      </c>
-      <c r="AD1">
-        <v>29</v>
-      </c>
-      <c r="AE1">
-        <v>30</v>
-      </c>
-      <c r="AF1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
   <autoFilter ref="A3:AG56" xr:uid="{AFC2BCF1-614C-4B72-8DE9-95317B022DA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
+++ b/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD6B48F-4BE8-433D-827E-A9560D97FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8CF2A8-A430-4301-A2A6-9BF151393E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" activeTab="6" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" activeTab="7" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -45,12 +45,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="74">
   <si>
     <t>branchname</t>
   </si>
@@ -269,6 +272,9 @@
   </si>
   <si>
     <t>2025-07-01 - 2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-08-01 - 2025-08-30</t>
   </si>
 </sst>
 </file>
@@ -31878,7 +31884,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -36441,6 +36447,4669 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45870</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45871</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45872</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45873</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45874</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45875</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45876</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45877</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45878</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45879</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45880</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45881</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45882</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45883</v>
+      </c>
+      <c r="P2" s="1">
+        <v>45884</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45885</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45886</v>
+      </c>
+      <c r="S2" s="1">
+        <v>45887</v>
+      </c>
+      <c r="T2" s="1">
+        <v>45888</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45889</v>
+      </c>
+      <c r="V2" s="1">
+        <v>45890</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45891</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45892</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>45893</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>45894</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45895</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>45896</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>45897</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>45898</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>45899</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>45900</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>64</v>
+      </c>
+      <c r="F4" s="2">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2">
+        <v>74</v>
+      </c>
+      <c r="I4" s="2">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2">
+        <v>65</v>
+      </c>
+      <c r="M4" s="2">
+        <v>55</v>
+      </c>
+      <c r="N4" s="2">
+        <v>58</v>
+      </c>
+      <c r="O4" s="2">
+        <v>70</v>
+      </c>
+      <c r="P4" s="2">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>29</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>63</v>
+      </c>
+      <c r="T4" s="2">
+        <v>62</v>
+      </c>
+      <c r="U4" s="2">
+        <v>49</v>
+      </c>
+      <c r="V4" s="2">
+        <v>65</v>
+      </c>
+      <c r="W4" s="2">
+        <v>34</v>
+      </c>
+      <c r="X4" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>57</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>57</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>40</v>
+      </c>
+      <c r="O5">
+        <v>49</v>
+      </c>
+      <c r="P5">
+        <v>35</v>
+      </c>
+      <c r="Q5">
+        <v>31</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>47</v>
+      </c>
+      <c r="T5">
+        <v>36</v>
+      </c>
+      <c r="U5">
+        <v>39</v>
+      </c>
+      <c r="V5">
+        <v>47</v>
+      </c>
+      <c r="W5">
+        <v>57</v>
+      </c>
+      <c r="X5">
+        <v>28</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>50</v>
+      </c>
+      <c r="AA5">
+        <v>38</v>
+      </c>
+      <c r="AB5">
+        <v>44</v>
+      </c>
+      <c r="AC5">
+        <v>52</v>
+      </c>
+      <c r="AD5">
+        <v>38</v>
+      </c>
+      <c r="AE5">
+        <v>20</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2">
+        <v>77</v>
+      </c>
+      <c r="F6" s="2">
+        <v>74</v>
+      </c>
+      <c r="G6" s="2">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2">
+        <v>90</v>
+      </c>
+      <c r="I6" s="2">
+        <v>73</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2">
+        <v>101</v>
+      </c>
+      <c r="M6" s="2">
+        <v>95</v>
+      </c>
+      <c r="N6" s="2">
+        <v>93</v>
+      </c>
+      <c r="O6" s="2">
+        <v>81</v>
+      </c>
+      <c r="P6" s="2">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>52</v>
+      </c>
+      <c r="R6" s="2">
+        <v>52</v>
+      </c>
+      <c r="S6" s="2">
+        <v>83</v>
+      </c>
+      <c r="T6" s="2">
+        <v>88</v>
+      </c>
+      <c r="U6" s="2">
+        <v>73</v>
+      </c>
+      <c r="V6" s="2">
+        <v>73</v>
+      </c>
+      <c r="W6" s="2">
+        <v>53</v>
+      </c>
+      <c r="X6" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>55</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2">
+        <v>35</v>
+      </c>
+      <c r="L8" s="2">
+        <v>73</v>
+      </c>
+      <c r="M8" s="2">
+        <v>59</v>
+      </c>
+      <c r="N8" s="2">
+        <v>59</v>
+      </c>
+      <c r="O8" s="2">
+        <v>39</v>
+      </c>
+      <c r="P8" s="2">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>34</v>
+      </c>
+      <c r="R8" s="2">
+        <v>25</v>
+      </c>
+      <c r="S8" s="2">
+        <v>58</v>
+      </c>
+      <c r="T8" s="2">
+        <v>54</v>
+      </c>
+      <c r="U8" s="2">
+        <v>74</v>
+      </c>
+      <c r="V8" s="2">
+        <v>49</v>
+      </c>
+      <c r="W8" s="2">
+        <v>55</v>
+      </c>
+      <c r="X8" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>44</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>75</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>11</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9">
+        <v>6</v>
+      </c>
+      <c r="AG9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9</v>
+      </c>
+      <c r="O10" s="2">
+        <v>6</v>
+      </c>
+      <c r="P10" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>9</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2">
+        <v>12</v>
+      </c>
+      <c r="T10" s="2">
+        <v>10</v>
+      </c>
+      <c r="U10" s="2">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2">
+        <v>10</v>
+      </c>
+      <c r="W10" s="2">
+        <v>10</v>
+      </c>
+      <c r="X10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>13</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>16</v>
+      </c>
+      <c r="U11">
+        <v>12</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>13</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>13</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11">
+        <v>11</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>4</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2">
+        <v>4</v>
+      </c>
+      <c r="T14" s="2">
+        <v>7</v>
+      </c>
+      <c r="U14" s="2">
+        <v>3</v>
+      </c>
+      <c r="V14" s="2">
+        <v>2</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <v>6</v>
+      </c>
+      <c r="AG15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2">
+        <v>14</v>
+      </c>
+      <c r="J16" s="2">
+        <v>7</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>16</v>
+      </c>
+      <c r="N16" s="2">
+        <v>20</v>
+      </c>
+      <c r="O16" s="2">
+        <v>15</v>
+      </c>
+      <c r="P16" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>6</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2">
+        <v>16</v>
+      </c>
+      <c r="T16" s="2">
+        <v>8</v>
+      </c>
+      <c r="U16" s="2">
+        <v>12</v>
+      </c>
+      <c r="V16" s="2">
+        <v>13</v>
+      </c>
+      <c r="W16" s="2">
+        <v>9</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>4</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <v>6</v>
+      </c>
+      <c r="AG17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>5</v>
+      </c>
+      <c r="M18" s="2">
+        <v>9</v>
+      </c>
+      <c r="N18" s="2">
+        <v>4</v>
+      </c>
+      <c r="O18" s="2">
+        <v>3</v>
+      </c>
+      <c r="P18" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2">
+        <v>5</v>
+      </c>
+      <c r="T18" s="2">
+        <v>3</v>
+      </c>
+      <c r="U18" s="2">
+        <v>7</v>
+      </c>
+      <c r="V18" s="2">
+        <v>3</v>
+      </c>
+      <c r="W18" s="2">
+        <v>3</v>
+      </c>
+      <c r="X18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>22</v>
+      </c>
+      <c r="N19">
+        <v>22</v>
+      </c>
+      <c r="O19">
+        <v>14</v>
+      </c>
+      <c r="P19">
+        <v>17</v>
+      </c>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>28</v>
+      </c>
+      <c r="T19">
+        <v>25</v>
+      </c>
+      <c r="U19">
+        <v>30</v>
+      </c>
+      <c r="V19">
+        <v>17</v>
+      </c>
+      <c r="W19">
+        <v>22</v>
+      </c>
+      <c r="X19">
+        <v>22</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19">
+        <v>34</v>
+      </c>
+      <c r="AA19">
+        <v>20</v>
+      </c>
+      <c r="AB19">
+        <v>25</v>
+      </c>
+      <c r="AC19">
+        <v>19</v>
+      </c>
+      <c r="AD19">
+        <v>21</v>
+      </c>
+      <c r="AE19">
+        <v>17</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AG19">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2</v>
+      </c>
+      <c r="O20" s="2">
+        <v>3</v>
+      </c>
+      <c r="P20" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2">
+        <v>3</v>
+      </c>
+      <c r="U20" s="2">
+        <v>3</v>
+      </c>
+      <c r="V20" s="2">
+        <v>2</v>
+      </c>
+      <c r="W20" s="2">
+        <v>3</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>40</v>
+      </c>
+      <c r="O21">
+        <v>26</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>23</v>
+      </c>
+      <c r="T21">
+        <v>18</v>
+      </c>
+      <c r="U21">
+        <v>17</v>
+      </c>
+      <c r="V21">
+        <v>23</v>
+      </c>
+      <c r="W21">
+        <v>25</v>
+      </c>
+      <c r="X21">
+        <v>15</v>
+      </c>
+      <c r="Y21">
+        <v>9</v>
+      </c>
+      <c r="Z21">
+        <v>27</v>
+      </c>
+      <c r="AA21">
+        <v>26</v>
+      </c>
+      <c r="AB21">
+        <v>24</v>
+      </c>
+      <c r="AC21">
+        <v>18</v>
+      </c>
+      <c r="AD21">
+        <v>11</v>
+      </c>
+      <c r="AE21">
+        <v>13</v>
+      </c>
+      <c r="AF21">
+        <v>8</v>
+      </c>
+      <c r="AG21">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2">
+        <v>3</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2">
+        <v>5</v>
+      </c>
+      <c r="V22" s="2">
+        <v>2</v>
+      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>23</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>33</v>
+      </c>
+      <c r="I23">
+        <v>23</v>
+      </c>
+      <c r="J23">
+        <v>13</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>22</v>
+      </c>
+      <c r="O23">
+        <v>27</v>
+      </c>
+      <c r="P23">
+        <v>28</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+      <c r="S23">
+        <v>27</v>
+      </c>
+      <c r="T23">
+        <v>27</v>
+      </c>
+      <c r="U23">
+        <v>23</v>
+      </c>
+      <c r="V23">
+        <v>31</v>
+      </c>
+      <c r="W23">
+        <v>32</v>
+      </c>
+      <c r="X23">
+        <v>12</v>
+      </c>
+      <c r="Z23">
+        <v>29</v>
+      </c>
+      <c r="AA23">
+        <v>19</v>
+      </c>
+      <c r="AB23">
+        <v>21</v>
+      </c>
+      <c r="AC23">
+        <v>32</v>
+      </c>
+      <c r="AD23">
+        <v>22</v>
+      </c>
+      <c r="AG23">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
+        <v>9</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>3</v>
+      </c>
+      <c r="P24" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2">
+        <v>10</v>
+      </c>
+      <c r="U24" s="2">
+        <v>6</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2">
+        <v>7</v>
+      </c>
+      <c r="X24" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>22</v>
+      </c>
+      <c r="H25">
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>33</v>
+      </c>
+      <c r="J25">
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25">
+        <v>41</v>
+      </c>
+      <c r="N25">
+        <v>35</v>
+      </c>
+      <c r="O25">
+        <v>33</v>
+      </c>
+      <c r="P25">
+        <v>25</v>
+      </c>
+      <c r="Q25">
+        <v>16</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>31</v>
+      </c>
+      <c r="T25">
+        <v>42</v>
+      </c>
+      <c r="U25">
+        <v>34</v>
+      </c>
+      <c r="V25">
+        <v>46</v>
+      </c>
+      <c r="W25">
+        <v>36</v>
+      </c>
+      <c r="X25">
+        <v>15</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>35</v>
+      </c>
+      <c r="AA25">
+        <v>33</v>
+      </c>
+      <c r="AB25">
+        <v>29</v>
+      </c>
+      <c r="AC25">
+        <v>42</v>
+      </c>
+      <c r="AD25">
+        <v>27</v>
+      </c>
+      <c r="AE25">
+        <v>26</v>
+      </c>
+      <c r="AF25">
+        <v>5</v>
+      </c>
+      <c r="AG25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2">
+        <v>119</v>
+      </c>
+      <c r="F26" s="2">
+        <v>107</v>
+      </c>
+      <c r="G26" s="2">
+        <v>100</v>
+      </c>
+      <c r="H26" s="2">
+        <v>114</v>
+      </c>
+      <c r="I26" s="2">
+        <v>14</v>
+      </c>
+      <c r="J26" s="2">
+        <v>95</v>
+      </c>
+      <c r="K26" s="2">
+        <v>57</v>
+      </c>
+      <c r="L26" s="2">
+        <v>131</v>
+      </c>
+      <c r="M26" s="2">
+        <v>100</v>
+      </c>
+      <c r="N26" s="2">
+        <v>101</v>
+      </c>
+      <c r="O26" s="2">
+        <v>89</v>
+      </c>
+      <c r="P26" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>80</v>
+      </c>
+      <c r="R26" s="2">
+        <v>58</v>
+      </c>
+      <c r="S26" s="2">
+        <v>106</v>
+      </c>
+      <c r="T26" s="2">
+        <v>134</v>
+      </c>
+      <c r="U26" s="2">
+        <v>86</v>
+      </c>
+      <c r="V26" s="2">
+        <v>96</v>
+      </c>
+      <c r="W26" s="2">
+        <v>98</v>
+      </c>
+      <c r="X26" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>53</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>105</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>104</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <v>9</v>
+      </c>
+      <c r="N27">
+        <v>13</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>9</v>
+      </c>
+      <c r="T27">
+        <v>8</v>
+      </c>
+      <c r="U27">
+        <v>5</v>
+      </c>
+      <c r="V27">
+        <v>7</v>
+      </c>
+      <c r="W27">
+        <v>7</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <v>9</v>
+      </c>
+      <c r="AA27">
+        <v>8</v>
+      </c>
+      <c r="AB27">
+        <v>14</v>
+      </c>
+      <c r="AC27">
+        <v>4</v>
+      </c>
+      <c r="AD27">
+        <v>5</v>
+      </c>
+      <c r="AE27">
+        <v>4</v>
+      </c>
+      <c r="AG27">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>16</v>
+      </c>
+      <c r="M29">
+        <v>11</v>
+      </c>
+      <c r="N29">
+        <v>13</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+      <c r="Q29">
+        <v>7</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>15</v>
+      </c>
+      <c r="T29">
+        <v>7</v>
+      </c>
+      <c r="U29">
+        <v>7</v>
+      </c>
+      <c r="V29">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>6</v>
+      </c>
+      <c r="Z29">
+        <v>14</v>
+      </c>
+      <c r="AA29">
+        <v>8</v>
+      </c>
+      <c r="AB29">
+        <v>4</v>
+      </c>
+      <c r="AC29">
+        <v>14</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>12</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
+        <v>3</v>
+      </c>
+      <c r="M30" s="2">
+        <v>10</v>
+      </c>
+      <c r="N30" s="2">
+        <v>4</v>
+      </c>
+      <c r="O30" s="2">
+        <v>5</v>
+      </c>
+      <c r="P30" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2">
+        <v>3</v>
+      </c>
+      <c r="T30" s="2">
+        <v>3</v>
+      </c>
+      <c r="U30" s="2">
+        <v>10</v>
+      </c>
+      <c r="V30" s="2">
+        <v>5</v>
+      </c>
+      <c r="W30" s="2">
+        <v>6</v>
+      </c>
+      <c r="X30" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>21</v>
+      </c>
+      <c r="G31">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>16</v>
+      </c>
+      <c r="O31">
+        <v>15</v>
+      </c>
+      <c r="P31">
+        <v>21</v>
+      </c>
+      <c r="Q31">
+        <v>11</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>24</v>
+      </c>
+      <c r="T31">
+        <v>15</v>
+      </c>
+      <c r="U31">
+        <v>22</v>
+      </c>
+      <c r="V31">
+        <v>12</v>
+      </c>
+      <c r="W31">
+        <v>16</v>
+      </c>
+      <c r="X31">
+        <v>14</v>
+      </c>
+      <c r="Z31">
+        <v>14</v>
+      </c>
+      <c r="AA31">
+        <v>23</v>
+      </c>
+      <c r="AB31">
+        <v>17</v>
+      </c>
+      <c r="AC31">
+        <v>23</v>
+      </c>
+      <c r="AD31">
+        <v>20</v>
+      </c>
+      <c r="AE31">
+        <v>14</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2">
+        <v>4</v>
+      </c>
+      <c r="M32" s="2">
+        <v>2</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2">
+        <v>2</v>
+      </c>
+      <c r="T32" s="2">
+        <v>4</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1</v>
+      </c>
+      <c r="V32" s="2">
+        <v>2</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>6</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>3</v>
+      </c>
+      <c r="AB33">
+        <v>7</v>
+      </c>
+      <c r="AC33">
+        <v>11</v>
+      </c>
+      <c r="AD33">
+        <v>6</v>
+      </c>
+      <c r="AE33">
+        <v>2</v>
+      </c>
+      <c r="AG33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>26</v>
+      </c>
+      <c r="F34" s="2">
+        <v>32</v>
+      </c>
+      <c r="G34" s="2">
+        <v>31</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2">
+        <v>37</v>
+      </c>
+      <c r="J34" s="2">
+        <v>10</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2">
+        <v>39</v>
+      </c>
+      <c r="M34" s="2">
+        <v>28</v>
+      </c>
+      <c r="N34" s="2">
+        <v>28</v>
+      </c>
+      <c r="O34" s="2">
+        <v>21</v>
+      </c>
+      <c r="P34" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>9</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2">
+        <v>35</v>
+      </c>
+      <c r="T34" s="2">
+        <v>27</v>
+      </c>
+      <c r="U34" s="2">
+        <v>28</v>
+      </c>
+      <c r="V34" s="2">
+        <v>27</v>
+      </c>
+      <c r="W34" s="2">
+        <v>27</v>
+      </c>
+      <c r="X34" s="2">
+        <v>15</v>
+      </c>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>27</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>31</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>12</v>
+      </c>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>19</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>26</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="L35">
+        <v>27</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>16</v>
+      </c>
+      <c r="O35">
+        <v>22</v>
+      </c>
+      <c r="P35">
+        <v>18</v>
+      </c>
+      <c r="Q35">
+        <v>12</v>
+      </c>
+      <c r="S35">
+        <v>28</v>
+      </c>
+      <c r="T35">
+        <v>21</v>
+      </c>
+      <c r="U35">
+        <v>18</v>
+      </c>
+      <c r="V35">
+        <v>15</v>
+      </c>
+      <c r="W35">
+        <v>27</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>20</v>
+      </c>
+      <c r="AA35">
+        <v>14</v>
+      </c>
+      <c r="AB35">
+        <v>14</v>
+      </c>
+      <c r="AC35">
+        <v>20</v>
+      </c>
+      <c r="AD35">
+        <v>16</v>
+      </c>
+      <c r="AE35">
+        <v>4</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2">
+        <v>16</v>
+      </c>
+      <c r="H36" s="2">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2">
+        <v>6</v>
+      </c>
+      <c r="J36" s="2">
+        <v>7</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>15</v>
+      </c>
+      <c r="M36" s="2">
+        <v>8</v>
+      </c>
+      <c r="N36" s="2">
+        <v>12</v>
+      </c>
+      <c r="O36" s="2">
+        <v>10</v>
+      </c>
+      <c r="P36" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>5</v>
+      </c>
+      <c r="R36" s="2">
+        <v>1</v>
+      </c>
+      <c r="S36" s="2">
+        <v>14</v>
+      </c>
+      <c r="T36" s="2">
+        <v>14</v>
+      </c>
+      <c r="U36" s="2">
+        <v>18</v>
+      </c>
+      <c r="V36" s="2">
+        <v>7</v>
+      </c>
+      <c r="W36" s="2">
+        <v>7</v>
+      </c>
+      <c r="X36" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>14</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>63</v>
+      </c>
+      <c r="C37">
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>94</v>
+      </c>
+      <c r="F37">
+        <v>69</v>
+      </c>
+      <c r="G37">
+        <v>70</v>
+      </c>
+      <c r="H37">
+        <v>72</v>
+      </c>
+      <c r="I37">
+        <v>51</v>
+      </c>
+      <c r="J37">
+        <v>34</v>
+      </c>
+      <c r="L37">
+        <v>85</v>
+      </c>
+      <c r="M37">
+        <v>78</v>
+      </c>
+      <c r="N37">
+        <v>53</v>
+      </c>
+      <c r="O37">
+        <v>65</v>
+      </c>
+      <c r="P37">
+        <v>46</v>
+      </c>
+      <c r="Q37">
+        <v>45</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>84</v>
+      </c>
+      <c r="T37">
+        <v>77</v>
+      </c>
+      <c r="U37">
+        <v>53</v>
+      </c>
+      <c r="V37">
+        <v>85</v>
+      </c>
+      <c r="W37">
+        <v>57</v>
+      </c>
+      <c r="X37">
+        <v>28</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+      <c r="Z37">
+        <v>62</v>
+      </c>
+      <c r="AA37">
+        <v>58</v>
+      </c>
+      <c r="AB37">
+        <v>60</v>
+      </c>
+      <c r="AC37">
+        <v>73</v>
+      </c>
+      <c r="AD37">
+        <v>63</v>
+      </c>
+      <c r="AE37">
+        <v>38</v>
+      </c>
+      <c r="AF37">
+        <v>4</v>
+      </c>
+      <c r="AG37">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>23</v>
+      </c>
+      <c r="F38" s="2">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2">
+        <v>16</v>
+      </c>
+      <c r="I38" s="2">
+        <v>11</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2">
+        <v>12</v>
+      </c>
+      <c r="M38" s="2">
+        <v>14</v>
+      </c>
+      <c r="N38" s="2">
+        <v>8</v>
+      </c>
+      <c r="O38" s="2">
+        <v>17</v>
+      </c>
+      <c r="P38" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>8</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2">
+        <v>17</v>
+      </c>
+      <c r="T38" s="2">
+        <v>9</v>
+      </c>
+      <c r="U38" s="2">
+        <v>12</v>
+      </c>
+      <c r="V38" s="2">
+        <v>14</v>
+      </c>
+      <c r="W38" s="2">
+        <v>11</v>
+      </c>
+      <c r="X38" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>11</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>80</v>
+      </c>
+      <c r="F39">
+        <v>54</v>
+      </c>
+      <c r="G39">
+        <v>70</v>
+      </c>
+      <c r="H39">
+        <v>51</v>
+      </c>
+      <c r="I39">
+        <v>55</v>
+      </c>
+      <c r="J39">
+        <v>30</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>64</v>
+      </c>
+      <c r="M39">
+        <v>75</v>
+      </c>
+      <c r="N39">
+        <v>59</v>
+      </c>
+      <c r="O39">
+        <v>69</v>
+      </c>
+      <c r="P39">
+        <v>46</v>
+      </c>
+      <c r="Q39">
+        <v>33</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>62</v>
+      </c>
+      <c r="T39">
+        <v>63</v>
+      </c>
+      <c r="U39">
+        <v>63</v>
+      </c>
+      <c r="V39">
+        <v>43</v>
+      </c>
+      <c r="W39">
+        <v>48</v>
+      </c>
+      <c r="X39">
+        <v>33</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>66</v>
+      </c>
+      <c r="AA39">
+        <v>59</v>
+      </c>
+      <c r="AB39">
+        <v>71</v>
+      </c>
+      <c r="AC39">
+        <v>49</v>
+      </c>
+      <c r="AD39">
+        <v>33</v>
+      </c>
+      <c r="AE39">
+        <v>37</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>3</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <v>7</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2">
+        <v>2</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2">
+        <v>11</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2">
+        <v>2</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2">
+        <v>6</v>
+      </c>
+      <c r="U40" s="2">
+        <v>1</v>
+      </c>
+      <c r="V40" s="2">
+        <v>4</v>
+      </c>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>7</v>
+      </c>
+      <c r="T41">
+        <v>7</v>
+      </c>
+      <c r="U41">
+        <v>4</v>
+      </c>
+      <c r="V41">
+        <v>5</v>
+      </c>
+      <c r="X41">
+        <v>5</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>6</v>
+      </c>
+      <c r="AE41">
+        <v>7</v>
+      </c>
+      <c r="AG41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>2</v>
+      </c>
+      <c r="O42" s="2">
+        <v>27</v>
+      </c>
+      <c r="P42" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2">
+        <v>25</v>
+      </c>
+      <c r="T42" s="2">
+        <v>29</v>
+      </c>
+      <c r="U42" s="2">
+        <v>21</v>
+      </c>
+      <c r="V42" s="2">
+        <v>25</v>
+      </c>
+      <c r="W42" s="2">
+        <v>23</v>
+      </c>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>16</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>18</v>
+      </c>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>49</v>
+      </c>
+      <c r="P43">
+        <v>53</v>
+      </c>
+      <c r="S43">
+        <v>86</v>
+      </c>
+      <c r="T43">
+        <v>85</v>
+      </c>
+      <c r="U43">
+        <v>62</v>
+      </c>
+      <c r="V43">
+        <v>82</v>
+      </c>
+      <c r="W43">
+        <v>76</v>
+      </c>
+      <c r="Z43">
+        <v>86</v>
+      </c>
+      <c r="AA43">
+        <v>76</v>
+      </c>
+      <c r="AB43">
+        <v>71</v>
+      </c>
+      <c r="AC43">
+        <v>74</v>
+      </c>
+      <c r="AD43">
+        <v>76</v>
+      </c>
+      <c r="AG43">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2">
+        <v>3</v>
+      </c>
+      <c r="T44" s="2">
+        <v>7</v>
+      </c>
+      <c r="U44" s="2">
+        <v>35</v>
+      </c>
+      <c r="V44" s="2">
+        <v>3</v>
+      </c>
+      <c r="W44" s="2">
+        <v>2</v>
+      </c>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="P45">
+        <v>149</v>
+      </c>
+      <c r="S45">
+        <v>4</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <v>17</v>
+      </c>
+      <c r="Z45">
+        <v>8</v>
+      </c>
+      <c r="AA45">
+        <v>12</v>
+      </c>
+      <c r="AB45">
+        <v>6</v>
+      </c>
+      <c r="AC45">
+        <v>5</v>
+      </c>
+      <c r="AD45">
+        <v>14</v>
+      </c>
+      <c r="AG45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>5</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>13</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>7</v>
+      </c>
+      <c r="V46">
+        <v>13</v>
+      </c>
+      <c r="W46">
+        <v>6</v>
+      </c>
+      <c r="X46">
+        <v>7</v>
+      </c>
+      <c r="Z46">
+        <v>12</v>
+      </c>
+      <c r="AA46">
+        <v>7</v>
+      </c>
+      <c r="AB46">
+        <v>13</v>
+      </c>
+      <c r="AC46">
+        <v>8</v>
+      </c>
+      <c r="AD46">
+        <v>15</v>
+      </c>
+      <c r="AE46">
+        <v>3</v>
+      </c>
+      <c r="AG46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>16</v>
+      </c>
+      <c r="F47" s="2">
+        <v>42</v>
+      </c>
+      <c r="G47" s="2">
+        <v>21</v>
+      </c>
+      <c r="H47" s="2">
+        <v>18</v>
+      </c>
+      <c r="I47" s="2">
+        <v>13</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2">
+        <v>22</v>
+      </c>
+      <c r="M47" s="2">
+        <v>36</v>
+      </c>
+      <c r="N47" s="2">
+        <v>15</v>
+      </c>
+      <c r="O47" s="2">
+        <v>30</v>
+      </c>
+      <c r="P47" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>6</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2">
+        <v>20</v>
+      </c>
+      <c r="T47" s="2">
+        <v>17</v>
+      </c>
+      <c r="U47" s="2">
+        <v>14</v>
+      </c>
+      <c r="V47" s="2">
+        <v>17</v>
+      </c>
+      <c r="W47" s="2">
+        <v>18</v>
+      </c>
+      <c r="X47" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>11</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>21</v>
+      </c>
+      <c r="F48">
+        <v>18</v>
+      </c>
+      <c r="G48">
+        <v>25</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>23</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>34</v>
+      </c>
+      <c r="M48">
+        <v>29</v>
+      </c>
+      <c r="N48">
+        <v>31</v>
+      </c>
+      <c r="O48">
+        <v>18</v>
+      </c>
+      <c r="P48">
+        <v>27</v>
+      </c>
+      <c r="Q48">
+        <v>10</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>27</v>
+      </c>
+      <c r="T48">
+        <v>24</v>
+      </c>
+      <c r="U48">
+        <v>30</v>
+      </c>
+      <c r="V48">
+        <v>15</v>
+      </c>
+      <c r="W48">
+        <v>19</v>
+      </c>
+      <c r="X48">
+        <v>13</v>
+      </c>
+      <c r="Z48">
+        <v>30</v>
+      </c>
+      <c r="AA48">
+        <v>26</v>
+      </c>
+      <c r="AB48">
+        <v>31</v>
+      </c>
+      <c r="AC48">
+        <v>17</v>
+      </c>
+      <c r="AD48">
+        <v>27</v>
+      </c>
+      <c r="AE48">
+        <v>14</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AG48">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
+        <v>35</v>
+      </c>
+      <c r="F49" s="2">
+        <v>34</v>
+      </c>
+      <c r="G49" s="2">
+        <v>20</v>
+      </c>
+      <c r="H49" s="2">
+        <v>21</v>
+      </c>
+      <c r="I49" s="2">
+        <v>20</v>
+      </c>
+      <c r="J49" s="2">
+        <v>10</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2">
+        <v>37</v>
+      </c>
+      <c r="M49" s="2">
+        <v>30</v>
+      </c>
+      <c r="N49" s="2">
+        <v>20</v>
+      </c>
+      <c r="O49" s="2">
+        <v>17</v>
+      </c>
+      <c r="P49" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>8</v>
+      </c>
+      <c r="R49" s="2">
+        <v>1</v>
+      </c>
+      <c r="S49" s="2">
+        <v>32</v>
+      </c>
+      <c r="T49" s="2">
+        <v>24</v>
+      </c>
+      <c r="U49" s="2">
+        <v>18</v>
+      </c>
+      <c r="V49" s="2">
+        <v>23</v>
+      </c>
+      <c r="W49" s="2">
+        <v>22</v>
+      </c>
+      <c r="X49" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2">
+        <v>27</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>18</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>13</v>
+      </c>
+      <c r="I50">
+        <v>15</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>19</v>
+      </c>
+      <c r="M50">
+        <v>22</v>
+      </c>
+      <c r="N50">
+        <v>18</v>
+      </c>
+      <c r="O50">
+        <v>21</v>
+      </c>
+      <c r="P50">
+        <v>25</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>19</v>
+      </c>
+      <c r="T50">
+        <v>17</v>
+      </c>
+      <c r="U50">
+        <v>23</v>
+      </c>
+      <c r="V50">
+        <v>13</v>
+      </c>
+      <c r="W50">
+        <v>25</v>
+      </c>
+      <c r="X50">
+        <v>3</v>
+      </c>
+      <c r="Z50">
+        <v>22</v>
+      </c>
+      <c r="AA50">
+        <v>16</v>
+      </c>
+      <c r="AB50">
+        <v>22</v>
+      </c>
+      <c r="AC50">
+        <v>14</v>
+      </c>
+      <c r="AD50">
+        <v>26</v>
+      </c>
+      <c r="AE50">
+        <v>3</v>
+      </c>
+      <c r="AG50">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>40</v>
+      </c>
+      <c r="C51" s="2">
+        <v>21</v>
+      </c>
+      <c r="D51" s="2">
+        <v>13</v>
+      </c>
+      <c r="E51" s="2">
+        <v>42</v>
+      </c>
+      <c r="F51" s="2">
+        <v>53</v>
+      </c>
+      <c r="G51" s="2">
+        <v>45</v>
+      </c>
+      <c r="H51" s="2">
+        <v>58</v>
+      </c>
+      <c r="I51" s="2">
+        <v>41</v>
+      </c>
+      <c r="J51" s="2">
+        <v>30</v>
+      </c>
+      <c r="K51" s="2">
+        <v>17</v>
+      </c>
+      <c r="L51" s="2">
+        <v>51</v>
+      </c>
+      <c r="M51" s="2">
+        <v>44</v>
+      </c>
+      <c r="N51" s="2">
+        <v>53</v>
+      </c>
+      <c r="O51" s="2">
+        <v>63</v>
+      </c>
+      <c r="P51" s="2">
+        <v>57</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>35</v>
+      </c>
+      <c r="R51" s="2">
+        <v>27</v>
+      </c>
+      <c r="S51" s="2">
+        <v>52</v>
+      </c>
+      <c r="T51" s="2">
+        <v>48</v>
+      </c>
+      <c r="U51" s="2">
+        <v>53</v>
+      </c>
+      <c r="V51" s="2">
+        <v>63</v>
+      </c>
+      <c r="W51" s="2">
+        <v>53</v>
+      </c>
+      <c r="X51" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>55</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>18</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>25</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>12</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <v>7</v>
+      </c>
+      <c r="T52">
+        <v>10</v>
+      </c>
+      <c r="U52">
+        <v>9</v>
+      </c>
+      <c r="V52">
+        <v>5</v>
+      </c>
+      <c r="W52">
+        <v>9</v>
+      </c>
+      <c r="X52">
+        <v>3</v>
+      </c>
+      <c r="Z52">
+        <v>5</v>
+      </c>
+      <c r="AA52">
+        <v>4</v>
+      </c>
+      <c r="AB52">
+        <v>10</v>
+      </c>
+      <c r="AC52">
+        <v>10</v>
+      </c>
+      <c r="AD52">
+        <v>4</v>
+      </c>
+      <c r="AE52">
+        <v>6</v>
+      </c>
+      <c r="AG52">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2">
+        <v>6</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2">
+        <v>13</v>
+      </c>
+      <c r="H53" s="2">
+        <v>22</v>
+      </c>
+      <c r="I53" s="2">
+        <v>14</v>
+      </c>
+      <c r="J53" s="2">
+        <v>8</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2">
+        <v>25</v>
+      </c>
+      <c r="M53" s="2">
+        <v>10</v>
+      </c>
+      <c r="N53" s="2">
+        <v>13</v>
+      </c>
+      <c r="O53" s="2">
+        <v>16</v>
+      </c>
+      <c r="P53" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>8</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2">
+        <v>10</v>
+      </c>
+      <c r="T53" s="2">
+        <v>11</v>
+      </c>
+      <c r="U53" s="2">
+        <v>17</v>
+      </c>
+      <c r="V53" s="2">
+        <v>7</v>
+      </c>
+      <c r="W53" s="2">
+        <v>14</v>
+      </c>
+      <c r="X53" s="2">
+        <v>9</v>
+      </c>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>14</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>7</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>4</v>
+      </c>
+      <c r="Q54">
+        <v>13</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>6</v>
+      </c>
+      <c r="U54">
+        <v>8</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>7</v>
+      </c>
+      <c r="Z54">
+        <v>3</v>
+      </c>
+      <c r="AA54">
+        <v>5</v>
+      </c>
+      <c r="AB54">
+        <v>4</v>
+      </c>
+      <c r="AC54">
+        <v>2</v>
+      </c>
+      <c r="AD54">
+        <v>4</v>
+      </c>
+      <c r="AE54">
+        <v>13</v>
+      </c>
+      <c r="AG54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
+        <v>6</v>
+      </c>
+      <c r="F55" s="2">
+        <v>3</v>
+      </c>
+      <c r="G55" s="2">
+        <v>9</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
+        <v>2</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2">
+        <v>2</v>
+      </c>
+      <c r="M55" s="2">
+        <v>4</v>
+      </c>
+      <c r="N55" s="2">
+        <v>4</v>
+      </c>
+      <c r="O55" s="2">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2">
+        <v>5</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2">
+        <v>2</v>
+      </c>
+      <c r="T55" s="2">
+        <v>2</v>
+      </c>
+      <c r="U55" s="2">
+        <v>7</v>
+      </c>
+      <c r="V55" s="2">
+        <v>1</v>
+      </c>
+      <c r="W55" s="2">
+        <v>2</v>
+      </c>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>13</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>9</v>
+      </c>
+      <c r="P56">
+        <v>8</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>5</v>
+      </c>
+      <c r="T56">
+        <v>6</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <v>10</v>
+      </c>
+      <c r="W56">
+        <v>6</v>
+      </c>
+      <c r="X56">
+        <v>2</v>
+      </c>
+      <c r="Z56">
+        <v>4</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+      <c r="AC56">
+        <v>12</v>
+      </c>
+      <c r="AD56">
+        <v>5</v>
+      </c>
+      <c r="AG56">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:AG56"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
@@ -37694,1270 +42363,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG56" xr:uid="{66F8D4AE-193E-4499-92C3-B3580DE659A3}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:AG56"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-      <c r="AA1">
-        <v>26</v>
-      </c>
-      <c r="AB1">
-        <v>27</v>
-      </c>
-      <c r="AC1">
-        <v>28</v>
-      </c>
-      <c r="AD1">
-        <v>29</v>
-      </c>
-      <c r="AE1">
-        <v>30</v>
-      </c>
-      <c r="AF1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
   <autoFilter ref="A3:AG56" xr:uid="{AFC2BCF1-614C-4B72-8DE9-95317B022DA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
+++ b/statistics_files/2025/2025_99_d_circulation_unique_daily_borrowers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8CF2A8-A430-4301-A2A6-9BF151393E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F796E886-7141-4167-A062-F55E984A354C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" activeTab="7" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="75">
   <si>
     <t>branchname</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>2025-08-01 - 2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-01 - 2025-09-30</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46:XFD46"/>
       <selection pane="topRight" activeCell="A46" sqref="A46:XFD46"/>
@@ -36447,7 +36450,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -41228,210 +41231,876 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+      <c r="B2" s="1">
+        <v>45901</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45902</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45903</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45904</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45905</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45906</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45907</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45908</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45909</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45910</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45911</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45912</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45913</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45914</v>
+      </c>
+      <c r="P2" s="1">
+        <v>45915</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45916</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45917</v>
+      </c>
+      <c r="S2" s="1">
+        <v>45918</v>
+      </c>
+      <c r="T2" s="1">
+        <v>45919</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45920</v>
+      </c>
+      <c r="V2" s="1">
+        <v>45921</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45922</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45923</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>45924</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>45925</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45926</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>45927</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>45928</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>45929</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>45930</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>90</v>
+      </c>
+      <c r="D4" s="2">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2">
+        <v>69</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45</v>
+      </c>
+      <c r="N4" s="2">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>58</v>
+      </c>
+      <c r="R4" s="2">
+        <v>57</v>
+      </c>
+      <c r="S4" s="2">
+        <v>61</v>
+      </c>
+      <c r="T4" s="2">
+        <v>57</v>
+      </c>
+      <c r="U4" s="2">
+        <v>35</v>
+      </c>
+      <c r="V4" s="2">
+        <v>4</v>
+      </c>
+      <c r="W4" s="2">
+        <v>85</v>
+      </c>
+      <c r="X4" s="2">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>57</v>
+      </c>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
+      <c r="AG4" s="2">
+        <v>576</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>52</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
+      </c>
+      <c r="L5">
+        <v>48</v>
+      </c>
+      <c r="M5">
+        <v>31</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>44</v>
+      </c>
+      <c r="Q5">
+        <v>41</v>
+      </c>
+      <c r="R5">
+        <v>30</v>
+      </c>
+      <c r="S5">
+        <v>49</v>
+      </c>
+      <c r="T5">
+        <v>40</v>
+      </c>
+      <c r="U5">
+        <v>16</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>46</v>
+      </c>
+      <c r="X5">
+        <v>32</v>
+      </c>
+      <c r="Y5">
+        <v>43</v>
+      </c>
+      <c r="Z5">
+        <v>45</v>
+      </c>
+      <c r="AA5">
+        <v>25</v>
+      </c>
+      <c r="AB5">
+        <v>16</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>39</v>
+      </c>
+      <c r="AE5">
+        <v>37</v>
+      </c>
+      <c r="AG5">
+        <v>424</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
+      <c r="B6" s="2">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2">
+        <v>71</v>
+      </c>
+      <c r="F6" s="2">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2">
+        <v>53</v>
+      </c>
+      <c r="I6" s="2">
+        <v>82</v>
+      </c>
+      <c r="J6" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" s="2">
+        <v>75</v>
+      </c>
+      <c r="L6" s="2">
+        <v>81</v>
+      </c>
+      <c r="M6" s="2">
+        <v>48</v>
+      </c>
+      <c r="N6" s="2">
+        <v>66</v>
+      </c>
+      <c r="O6" s="2">
+        <v>31</v>
+      </c>
+      <c r="P6" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>89</v>
+      </c>
+      <c r="R6" s="2">
+        <v>61</v>
+      </c>
+      <c r="S6" s="2">
+        <v>68</v>
+      </c>
+      <c r="T6" s="2">
+        <v>60</v>
+      </c>
+      <c r="U6" s="2">
+        <v>49</v>
+      </c>
+      <c r="V6" s="2">
+        <v>36</v>
+      </c>
+      <c r="W6" s="2">
+        <v>86</v>
+      </c>
+      <c r="X6" s="2">
+        <v>86</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>66</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>62</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>47</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>91</v>
+      </c>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
+      <c r="AG6" s="2">
+        <v>893</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>87</v>
+      </c>
+      <c r="D8" s="2">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2">
+        <v>61</v>
+      </c>
+      <c r="J8" s="2">
+        <v>53</v>
+      </c>
+      <c r="K8" s="2">
+        <v>62</v>
+      </c>
+      <c r="L8" s="2">
+        <v>52</v>
+      </c>
+      <c r="M8" s="2">
+        <v>42</v>
+      </c>
+      <c r="N8" s="2">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>58</v>
+      </c>
+      <c r="R8" s="2">
+        <v>71</v>
+      </c>
+      <c r="S8" s="2">
+        <v>48</v>
+      </c>
+      <c r="T8" s="2">
+        <v>47</v>
+      </c>
+      <c r="U8" s="2">
+        <v>33</v>
+      </c>
+      <c r="V8" s="2">
+        <v>30</v>
+      </c>
+      <c r="W8" s="2">
+        <v>62</v>
+      </c>
+      <c r="X8" s="2">
+        <v>68</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>14</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>63</v>
+      </c>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="AG8" s="2">
+        <v>698</v>
+      </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>12</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>14</v>
+      </c>
+      <c r="Z9">
+        <v>11</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
+      <c r="L10" s="2">
+        <v>7</v>
+      </c>
+      <c r="M10" s="2">
+        <v>12</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9</v>
+      </c>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="P10" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>17</v>
+      </c>
+      <c r="R10" s="2">
+        <v>10</v>
+      </c>
+      <c r="S10" s="2">
+        <v>9</v>
+      </c>
+      <c r="T10" s="2">
+        <v>8</v>
+      </c>
+      <c r="U10" s="2">
+        <v>8</v>
+      </c>
       <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="W10" s="2">
+        <v>6</v>
+      </c>
+      <c r="X10" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>7</v>
+      </c>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+      <c r="AD10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>2</v>
+      </c>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="AG10" s="2">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>12</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>14</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>16</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>8</v>
+      </c>
+      <c r="AG11">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -41439,28 +42108,40 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>2</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="X12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -41468,7 +42149,9 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
+      <c r="AG12" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -41480,293 +42163,1227 @@
         <v>14</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>5</v>
+      </c>
+      <c r="T14" s="2">
+        <v>2</v>
+      </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="W14" s="2">
+        <v>2</v>
+      </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="Z14" s="2">
+        <v>4</v>
+      </c>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
       <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
+      <c r="AD14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>2</v>
+      </c>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
+      <c r="AG14" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>4</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="I16" s="2">
+        <v>11</v>
+      </c>
+      <c r="J16" s="2">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2">
+        <v>18</v>
+      </c>
+      <c r="L16" s="2">
+        <v>8</v>
+      </c>
+      <c r="M16" s="2">
+        <v>11</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>8</v>
+      </c>
+      <c r="R16" s="2">
+        <v>9</v>
+      </c>
+      <c r="S16" s="2">
+        <v>16</v>
+      </c>
+      <c r="T16" s="2">
+        <v>13</v>
+      </c>
+      <c r="U16" s="2">
+        <v>4</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
+        <v>8</v>
+      </c>
+      <c r="X16" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>5</v>
+      </c>
       <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
+      <c r="AD16" s="2">
+        <v>18</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>17</v>
+      </c>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
+      <c r="AG16" s="2">
+        <v>110</v>
+      </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>4</v>
+      </c>
+      <c r="AE17">
+        <v>3</v>
+      </c>
+      <c r="AG17">
+        <v>52</v>
+      </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2</v>
+      </c>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="P18" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>4</v>
+      </c>
+      <c r="R18" s="2">
+        <v>4</v>
+      </c>
+      <c r="S18" s="2">
+        <v>2</v>
+      </c>
+      <c r="T18" s="2">
+        <v>2</v>
+      </c>
+      <c r="U18" s="2">
+        <v>3</v>
+      </c>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="W18" s="2">
+        <v>2</v>
+      </c>
+      <c r="X18" s="2">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>3</v>
+      </c>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
+      <c r="AC18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>6</v>
+      </c>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
+      <c r="AG18" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>34</v>
+      </c>
+      <c r="J19">
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <v>23</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>11</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>22</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+      <c r="R19">
+        <v>21</v>
+      </c>
+      <c r="S19">
+        <v>16</v>
+      </c>
+      <c r="T19">
+        <v>16</v>
+      </c>
+      <c r="U19">
+        <v>17</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>25</v>
+      </c>
+      <c r="X19">
+        <v>22</v>
+      </c>
+      <c r="Y19">
+        <v>25</v>
+      </c>
+      <c r="Z19">
+        <v>15</v>
+      </c>
+      <c r="AA19">
+        <v>16</v>
+      </c>
+      <c r="AB19">
+        <v>19</v>
+      </c>
+      <c r="AD19">
+        <v>32</v>
+      </c>
+      <c r="AE19">
+        <v>19</v>
+      </c>
+      <c r="AG19">
+        <v>224</v>
+      </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="J20" s="2">
+        <v>3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="Q20" s="2">
+        <v>4</v>
+      </c>
+      <c r="R20" s="2">
+        <v>5</v>
+      </c>
+      <c r="S20" s="2">
+        <v>3</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
+        <v>4</v>
+      </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="X20" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
+      <c r="AE20" s="2">
+        <v>3</v>
+      </c>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
+      <c r="AG20" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>28</v>
+      </c>
+      <c r="K21">
+        <v>37</v>
+      </c>
+      <c r="L21">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>18</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>24</v>
+      </c>
+      <c r="Q21">
+        <v>24</v>
+      </c>
+      <c r="R21">
+        <v>14</v>
+      </c>
+      <c r="S21">
+        <v>25</v>
+      </c>
+      <c r="T21">
+        <v>22</v>
+      </c>
+      <c r="U21">
+        <v>11</v>
+      </c>
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>36</v>
+      </c>
+      <c r="X21">
+        <v>25</v>
+      </c>
+      <c r="Y21">
+        <v>25</v>
+      </c>
+      <c r="Z21">
+        <v>29</v>
+      </c>
+      <c r="AA21">
+        <v>16</v>
+      </c>
+      <c r="AB21">
+        <v>9</v>
+      </c>
+      <c r="AC21">
+        <v>9</v>
+      </c>
+      <c r="AD21">
+        <v>31</v>
+      </c>
+      <c r="AE21">
+        <v>21</v>
+      </c>
+      <c r="AG21">
+        <v>274</v>
+      </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="2">
+        <v>3</v>
+      </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="R22" s="2">
+        <v>5</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
+      <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>2</v>
+      </c>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>3</v>
+      </c>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
+      <c r="AG22" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
+      <c r="C23">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>44</v>
+      </c>
+      <c r="J23">
+        <v>29</v>
+      </c>
+      <c r="K23">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>13</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>13</v>
+      </c>
+      <c r="R23">
+        <v>22</v>
+      </c>
+      <c r="S23">
+        <v>30</v>
+      </c>
+      <c r="T23">
+        <v>18</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>30</v>
+      </c>
+      <c r="Y23">
+        <v>28</v>
+      </c>
+      <c r="Z23">
+        <v>27</v>
+      </c>
+      <c r="AA23">
+        <v>19</v>
+      </c>
+      <c r="AB23">
+        <v>7</v>
+      </c>
+      <c r="AD23">
+        <v>34</v>
+      </c>
+      <c r="AE23">
+        <v>21</v>
+      </c>
+      <c r="AG23">
+        <v>289</v>
+      </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="J24" s="2">
+        <v>11</v>
+      </c>
+      <c r="K24" s="2">
+        <v>6</v>
+      </c>
+      <c r="L24" s="2">
+        <v>3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>4</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="Q24" s="2">
+        <v>9</v>
+      </c>
+      <c r="R24" s="2">
+        <v>6</v>
+      </c>
+      <c r="S24" s="2">
+        <v>4</v>
+      </c>
+      <c r="T24" s="2">
+        <v>7</v>
+      </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
+      <c r="W24" s="2">
+        <v>1</v>
+      </c>
+      <c r="X24" s="2">
+        <v>9</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>1</v>
+      </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
+      <c r="AE24" s="2">
+        <v>9</v>
+      </c>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
+      <c r="AG24" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>57</v>
+      </c>
+      <c r="F25">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>27</v>
+      </c>
+      <c r="J25">
+        <v>38</v>
+      </c>
+      <c r="K25">
+        <v>26</v>
+      </c>
+      <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>28</v>
+      </c>
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>37</v>
+      </c>
+      <c r="Q25">
+        <v>35</v>
+      </c>
+      <c r="R25">
+        <v>40</v>
+      </c>
+      <c r="S25">
+        <v>47</v>
+      </c>
+      <c r="T25">
+        <v>27</v>
+      </c>
+      <c r="U25">
+        <v>18</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>44</v>
+      </c>
+      <c r="X25">
+        <v>32</v>
+      </c>
+      <c r="Y25">
+        <v>24</v>
+      </c>
+      <c r="Z25">
+        <v>46</v>
+      </c>
+      <c r="AA25">
+        <v>27</v>
+      </c>
+      <c r="AB25">
+        <v>25</v>
+      </c>
+      <c r="AC25">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>33</v>
+      </c>
+      <c r="AE25">
+        <v>32</v>
+      </c>
+      <c r="AG25">
+        <v>390</v>
+      </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
+      <c r="B26" s="2">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>154</v>
+      </c>
+      <c r="D26" s="2">
+        <v>87</v>
+      </c>
+      <c r="E26" s="2">
+        <v>90</v>
+      </c>
+      <c r="F26" s="2">
+        <v>76</v>
+      </c>
+      <c r="G26" s="2">
+        <v>76</v>
+      </c>
+      <c r="H26" s="2">
+        <v>57</v>
+      </c>
+      <c r="I26" s="2">
+        <v>106</v>
+      </c>
+      <c r="J26" s="2">
+        <v>112</v>
+      </c>
+      <c r="K26" s="2">
+        <v>93</v>
+      </c>
+      <c r="L26" s="2">
+        <v>99</v>
+      </c>
+      <c r="M26" s="2">
+        <v>94</v>
+      </c>
+      <c r="N26" s="2">
+        <v>80</v>
+      </c>
+      <c r="O26" s="2">
+        <v>54</v>
+      </c>
+      <c r="P26" s="2">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>103</v>
+      </c>
+      <c r="R26" s="2">
+        <v>98</v>
+      </c>
+      <c r="S26" s="2">
+        <v>89</v>
+      </c>
+      <c r="T26" s="2">
+        <v>106</v>
+      </c>
+      <c r="U26" s="2">
+        <v>69</v>
+      </c>
+      <c r="V26" s="2">
+        <v>58</v>
+      </c>
+      <c r="W26" s="2">
+        <v>111</v>
+      </c>
+      <c r="X26" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>88</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>47</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>116</v>
+      </c>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
+      <c r="AG26" s="2">
+        <v>1123</v>
+      </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>8</v>
+      </c>
+      <c r="N27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <v>9</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>5</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+      <c r="Z27">
+        <v>7</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AB27">
+        <v>4</v>
+      </c>
+      <c r="AD27">
+        <v>8</v>
+      </c>
+      <c r="AE27">
+        <v>4</v>
+      </c>
+      <c r="AG27">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -41810,300 +43427,1243 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>11</v>
+      </c>
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>7</v>
+      </c>
+      <c r="S29">
+        <v>8</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>12</v>
+      </c>
+      <c r="X29">
+        <v>8</v>
+      </c>
+      <c r="Y29">
+        <v>11</v>
+      </c>
+      <c r="Z29">
+        <v>8</v>
+      </c>
+      <c r="AB29">
+        <v>5</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>11</v>
+      </c>
+      <c r="AE29">
+        <v>6</v>
+      </c>
+      <c r="AG29">
+        <v>90</v>
+      </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3</v>
+      </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="I30" s="2">
+        <v>6</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6</v>
+      </c>
+      <c r="K30" s="2">
+        <v>10</v>
+      </c>
+      <c r="L30" s="2">
+        <v>5</v>
+      </c>
+      <c r="M30" s="2">
+        <v>4</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2</v>
+      </c>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="P30" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>8</v>
+      </c>
+      <c r="R30" s="2">
+        <v>8</v>
+      </c>
+      <c r="S30" s="2">
+        <v>11</v>
+      </c>
+      <c r="T30" s="2">
+        <v>6</v>
+      </c>
+      <c r="U30" s="2">
+        <v>2</v>
+      </c>
       <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
+      <c r="W30" s="2">
+        <v>4</v>
+      </c>
+      <c r="X30" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>1</v>
+      </c>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
+      <c r="AD30" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>5</v>
+      </c>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
+      <c r="AG30" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>19</v>
+      </c>
+      <c r="J31">
+        <v>25</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>26</v>
+      </c>
+      <c r="Q31">
+        <v>16</v>
+      </c>
+      <c r="R31">
+        <v>21</v>
+      </c>
+      <c r="S31">
+        <v>18</v>
+      </c>
+      <c r="T31">
+        <v>16</v>
+      </c>
+      <c r="U31">
+        <v>6</v>
+      </c>
+      <c r="W31">
+        <v>20</v>
+      </c>
+      <c r="X31">
+        <v>15</v>
+      </c>
+      <c r="Y31">
+        <v>29</v>
+      </c>
+      <c r="Z31">
+        <v>20</v>
+      </c>
+      <c r="AA31">
+        <v>15</v>
+      </c>
+      <c r="AB31">
+        <v>10</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>22</v>
+      </c>
+      <c r="AE31">
+        <v>18</v>
+      </c>
+      <c r="AG31">
+        <v>198</v>
+      </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="P32" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1</v>
+      </c>
       <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
+      <c r="T32" s="2">
+        <v>2</v>
+      </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
+      <c r="W32" s="2">
+        <v>3</v>
+      </c>
       <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
+      <c r="Y32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>1</v>
+      </c>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
+      <c r="AD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>1</v>
+      </c>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
+      <c r="AG32" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33">
+        <v>7</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>5</v>
+      </c>
+      <c r="Y33">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>4</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>4</v>
+      </c>
+      <c r="AG33">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2">
+        <v>27</v>
+      </c>
+      <c r="F34" s="2">
+        <v>30</v>
+      </c>
+      <c r="G34" s="2">
+        <v>15</v>
+      </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="I34" s="2">
+        <v>32</v>
+      </c>
+      <c r="J34" s="2">
+        <v>36</v>
+      </c>
+      <c r="K34" s="2">
+        <v>34</v>
+      </c>
+      <c r="L34" s="2">
+        <v>28</v>
+      </c>
+      <c r="M34" s="2">
+        <v>25</v>
+      </c>
+      <c r="N34" s="2">
+        <v>15</v>
+      </c>
+      <c r="O34" s="2">
+        <v>2</v>
+      </c>
+      <c r="P34" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>25</v>
+      </c>
+      <c r="R34" s="2">
+        <v>25</v>
+      </c>
+      <c r="S34" s="2">
+        <v>28</v>
+      </c>
+      <c r="T34" s="2">
+        <v>17</v>
+      </c>
+      <c r="U34" s="2">
+        <v>10</v>
+      </c>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
+      <c r="W34" s="2">
+        <v>34</v>
+      </c>
+      <c r="X34" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>29</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>29</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>30</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>29</v>
+      </c>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
+      <c r="AG34" s="2">
+        <v>275</v>
+      </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>22</v>
+      </c>
+      <c r="L35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>11</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>27</v>
+      </c>
+      <c r="Q35">
+        <v>21</v>
+      </c>
+      <c r="R35">
+        <v>25</v>
+      </c>
+      <c r="S35">
+        <v>12</v>
+      </c>
+      <c r="T35">
+        <v>7</v>
+      </c>
+      <c r="U35">
+        <v>11</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>16</v>
+      </c>
+      <c r="X35">
+        <v>14</v>
+      </c>
+      <c r="Y35">
+        <v>20</v>
+      </c>
+      <c r="Z35">
+        <v>19</v>
+      </c>
+      <c r="AA35">
+        <v>20</v>
+      </c>
+      <c r="AB35">
+        <v>7</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>22</v>
+      </c>
+      <c r="AE35">
+        <v>32</v>
+      </c>
+      <c r="AG35">
+        <v>180</v>
+      </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5</v>
+      </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="I36" s="2">
+        <v>9</v>
+      </c>
+      <c r="J36" s="2">
+        <v>22</v>
+      </c>
+      <c r="K36" s="2">
+        <v>12</v>
+      </c>
+      <c r="L36" s="2">
+        <v>6</v>
+      </c>
+      <c r="M36" s="2">
+        <v>7</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2</v>
+      </c>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="P36" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>5</v>
+      </c>
+      <c r="R36" s="2">
+        <v>12</v>
+      </c>
+      <c r="S36" s="2">
+        <v>9</v>
+      </c>
+      <c r="T36" s="2">
+        <v>8</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1</v>
+      </c>
       <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
+      <c r="W36" s="2">
+        <v>11</v>
+      </c>
+      <c r="X36" s="2">
+        <v>9</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>5</v>
+      </c>
       <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
+      <c r="AD36" s="2">
+        <v>13</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>20</v>
+      </c>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
+      <c r="AG36" s="2">
+        <v>126</v>
+      </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <v>61</v>
+      </c>
+      <c r="E37">
+        <v>67</v>
+      </c>
+      <c r="F37">
+        <v>69</v>
+      </c>
+      <c r="G37">
+        <v>32</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>80</v>
+      </c>
+      <c r="J37">
+        <v>72</v>
+      </c>
+      <c r="K37">
+        <v>75</v>
+      </c>
+      <c r="L37">
+        <v>66</v>
+      </c>
+      <c r="M37">
+        <v>59</v>
+      </c>
+      <c r="N37">
+        <v>38</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>91</v>
+      </c>
+      <c r="Q37">
+        <v>61</v>
+      </c>
+      <c r="R37">
+        <v>62</v>
+      </c>
+      <c r="S37">
+        <v>61</v>
+      </c>
+      <c r="T37">
+        <v>54</v>
+      </c>
+      <c r="U37">
+        <v>34</v>
+      </c>
+      <c r="V37">
+        <v>4</v>
+      </c>
+      <c r="W37">
+        <v>61</v>
+      </c>
+      <c r="X37">
+        <v>71</v>
+      </c>
+      <c r="Y37">
+        <v>84</v>
+      </c>
+      <c r="Z37">
+        <v>63</v>
+      </c>
+      <c r="AA37">
+        <v>62</v>
+      </c>
+      <c r="AB37">
+        <v>35</v>
+      </c>
+      <c r="AC37">
+        <v>6</v>
+      </c>
+      <c r="AD37">
+        <v>75</v>
+      </c>
+      <c r="AE37">
+        <v>66</v>
+      </c>
+      <c r="AG37">
+        <v>717</v>
+      </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2">
+        <v>16</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="I38" s="2">
+        <v>12</v>
+      </c>
+      <c r="J38" s="2">
+        <v>11</v>
+      </c>
+      <c r="K38" s="2">
+        <v>8</v>
+      </c>
+      <c r="L38" s="2">
+        <v>14</v>
+      </c>
+      <c r="M38" s="2">
+        <v>11</v>
+      </c>
+      <c r="N38" s="2">
+        <v>5</v>
+      </c>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="P38" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>24</v>
+      </c>
+      <c r="R38" s="2">
+        <v>14</v>
+      </c>
+      <c r="S38" s="2">
+        <v>13</v>
+      </c>
+      <c r="T38" s="2">
+        <v>16</v>
+      </c>
+      <c r="U38" s="2">
+        <v>7</v>
+      </c>
       <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
+      <c r="W38" s="2">
+        <v>8</v>
+      </c>
+      <c r="X38" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>16</v>
+      </c>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
+      <c r="AG38" s="2">
+        <v>148</v>
+      </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>52</v>
+      </c>
+      <c r="F39">
+        <v>49</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>66</v>
+      </c>
+      <c r="J39">
+        <v>52</v>
+      </c>
+      <c r="K39">
+        <v>57</v>
+      </c>
+      <c r="L39">
+        <v>57</v>
+      </c>
+      <c r="M39">
+        <v>46</v>
+      </c>
+      <c r="N39">
+        <v>34</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>47</v>
+      </c>
+      <c r="Q39">
+        <v>60</v>
+      </c>
+      <c r="R39">
+        <v>62</v>
+      </c>
+      <c r="S39">
+        <v>39</v>
+      </c>
+      <c r="T39">
+        <v>49</v>
+      </c>
+      <c r="U39">
+        <v>42</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+      <c r="W39">
+        <v>47</v>
+      </c>
+      <c r="X39">
+        <v>69</v>
+      </c>
+      <c r="Y39">
+        <v>59</v>
+      </c>
+      <c r="Z39">
+        <v>56</v>
+      </c>
+      <c r="AA39">
+        <v>41</v>
+      </c>
+      <c r="AB39">
+        <v>37</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>74</v>
+      </c>
+      <c r="AE39">
+        <v>69</v>
+      </c>
+      <c r="AG39">
+        <v>552</v>
+      </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2">
+        <v>7</v>
+      </c>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="L40" s="2">
+        <v>4</v>
+      </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="Q40" s="2">
+        <v>8</v>
+      </c>
       <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
+      <c r="S40" s="2">
+        <v>4</v>
+      </c>
       <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
+      <c r="U40" s="2">
+        <v>5</v>
+      </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
+      <c r="X40" s="2">
+        <v>5</v>
+      </c>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
+      <c r="Z40" s="2">
+        <v>8</v>
+      </c>
       <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
+      <c r="AB40" s="2">
+        <v>1</v>
+      </c>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
+      <c r="AE40" s="2">
+        <v>5</v>
+      </c>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
+      <c r="AG40" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>5</v>
+      </c>
+      <c r="X41">
+        <v>4</v>
+      </c>
+      <c r="Z41">
+        <v>3</v>
+      </c>
+      <c r="AB41">
+        <v>8</v>
+      </c>
+      <c r="AD41">
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <v>3</v>
+      </c>
+      <c r="AG41">
+        <v>31</v>
+      </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="C42" s="2">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2">
+        <v>19</v>
+      </c>
+      <c r="E42" s="2">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2">
+        <v>12</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="I42" s="2">
+        <v>33</v>
+      </c>
+      <c r="J42" s="2">
+        <v>22</v>
+      </c>
+      <c r="K42" s="2">
+        <v>23</v>
+      </c>
+      <c r="L42" s="2">
+        <v>26</v>
+      </c>
+      <c r="M42" s="2">
+        <v>26</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
+      <c r="P42" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>10</v>
+      </c>
+      <c r="R42" s="2">
+        <v>18</v>
+      </c>
+      <c r="S42" s="2">
+        <v>25</v>
+      </c>
+      <c r="T42" s="2">
+        <v>14</v>
+      </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
+      <c r="W42" s="2">
+        <v>24</v>
+      </c>
+      <c r="X42" s="2">
+        <v>31</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>19</v>
+      </c>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
+      <c r="AA42" s="2">
+        <v>20</v>
+      </c>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
+      <c r="AD42" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>33</v>
+      </c>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
+      <c r="AG42" s="2">
+        <v>115</v>
+      </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
+      <c r="C43">
+        <v>124</v>
+      </c>
+      <c r="D43">
+        <v>79</v>
+      </c>
+      <c r="E43">
+        <v>85</v>
+      </c>
+      <c r="F43">
+        <v>70</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>86</v>
+      </c>
+      <c r="Q43">
+        <v>88</v>
+      </c>
+      <c r="R43">
+        <v>59</v>
+      </c>
+      <c r="S43">
+        <v>72</v>
+      </c>
+      <c r="T43">
+        <v>66</v>
+      </c>
+      <c r="W43">
+        <v>84</v>
+      </c>
+      <c r="X43">
+        <v>78</v>
+      </c>
+      <c r="Y43">
+        <v>58</v>
+      </c>
+      <c r="AA43">
+        <v>93</v>
+      </c>
+      <c r="AD43">
+        <v>77</v>
+      </c>
+      <c r="AE43">
+        <v>78</v>
+      </c>
+      <c r="AG43">
+        <v>333</v>
+      </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -42112,254 +44672,1101 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
+      <c r="P44" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>13</v>
+      </c>
+      <c r="R44" s="2">
+        <v>5</v>
+      </c>
       <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
+      <c r="T44" s="2">
+        <v>2</v>
+      </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
+      <c r="W44" s="2">
+        <v>2</v>
+      </c>
       <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
+      <c r="Y44" s="2">
+        <v>4</v>
+      </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
+      <c r="AD44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>2</v>
+      </c>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
+      <c r="AG44" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+      <c r="M45">
+        <v>11</v>
+      </c>
+      <c r="P45">
+        <v>11</v>
+      </c>
+      <c r="Q45">
+        <v>40</v>
+      </c>
+      <c r="R45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>10</v>
+      </c>
+      <c r="T45">
+        <v>15</v>
+      </c>
+      <c r="W45">
+        <v>7</v>
+      </c>
+      <c r="X45">
+        <v>6</v>
+      </c>
+      <c r="Y45">
+        <v>11</v>
+      </c>
+      <c r="AA45">
+        <v>8</v>
+      </c>
+      <c r="AD45">
+        <v>9</v>
+      </c>
+      <c r="AE45">
+        <v>18</v>
+      </c>
+      <c r="AG45">
+        <v>111</v>
+      </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>12</v>
+      </c>
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>12</v>
+      </c>
+      <c r="S46">
+        <v>13</v>
+      </c>
+      <c r="T46">
+        <v>5</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="W46">
+        <v>10</v>
+      </c>
+      <c r="X46">
+        <v>9</v>
+      </c>
+      <c r="Y46">
+        <v>8</v>
+      </c>
+      <c r="Z46">
+        <v>5</v>
+      </c>
+      <c r="AA46">
+        <v>9</v>
+      </c>
+      <c r="AB46">
+        <v>3</v>
+      </c>
+      <c r="AD46">
+        <v>4</v>
+      </c>
+      <c r="AE46">
+        <v>9</v>
+      </c>
+      <c r="AG46">
+        <v>48</v>
+      </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2">
+        <v>22</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2">
+        <v>14</v>
+      </c>
+      <c r="G47" s="2">
+        <v>7</v>
+      </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
+      <c r="I47" s="2">
+        <v>19</v>
+      </c>
+      <c r="J47" s="2">
+        <v>18</v>
+      </c>
+      <c r="K47" s="2">
+        <v>17</v>
+      </c>
+      <c r="L47" s="2">
+        <v>23</v>
+      </c>
+      <c r="M47" s="2">
+        <v>40</v>
+      </c>
+      <c r="N47" s="2">
+        <v>3</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>49</v>
+      </c>
+      <c r="R47" s="2">
+        <v>22</v>
+      </c>
+      <c r="S47" s="2">
+        <v>12</v>
+      </c>
+      <c r="T47" s="2">
+        <v>19</v>
+      </c>
+      <c r="U47" s="2">
+        <v>7</v>
+      </c>
       <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
+      <c r="W47" s="2">
+        <v>22</v>
+      </c>
+      <c r="X47" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>18</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>18</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>14</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>34</v>
+      </c>
       <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
+      <c r="AG47" s="2">
+        <v>232</v>
+      </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
+      <c r="C48">
+        <v>36</v>
+      </c>
+      <c r="D48">
+        <v>28</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>22</v>
+      </c>
+      <c r="G48">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>33</v>
+      </c>
+      <c r="J48">
+        <v>24</v>
+      </c>
+      <c r="K48">
+        <v>35</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>12</v>
+      </c>
+      <c r="P48">
+        <v>33</v>
+      </c>
+      <c r="Q48">
+        <v>25</v>
+      </c>
+      <c r="R48">
+        <v>34</v>
+      </c>
+      <c r="S48">
+        <v>21</v>
+      </c>
+      <c r="T48">
+        <v>17</v>
+      </c>
+      <c r="U48">
+        <v>12</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>28</v>
+      </c>
+      <c r="X48">
+        <v>25</v>
+      </c>
+      <c r="Y48">
+        <v>21</v>
+      </c>
+      <c r="Z48">
+        <v>38</v>
+      </c>
+      <c r="AA48">
+        <v>22</v>
+      </c>
+      <c r="AB48">
+        <v>14</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AD48">
+        <v>19</v>
+      </c>
+      <c r="AE48">
+        <v>21</v>
+      </c>
+      <c r="AG48">
+        <v>267</v>
+      </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="C49" s="2">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2">
+        <v>17</v>
+      </c>
+      <c r="E49" s="2">
+        <v>22</v>
+      </c>
+      <c r="F49" s="2">
+        <v>31</v>
+      </c>
+      <c r="G49" s="2">
+        <v>12</v>
+      </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="I49" s="2">
+        <v>35</v>
+      </c>
+      <c r="J49" s="2">
+        <v>19</v>
+      </c>
+      <c r="K49" s="2">
+        <v>23</v>
+      </c>
+      <c r="L49" s="2">
+        <v>20</v>
+      </c>
+      <c r="M49" s="2">
+        <v>20</v>
+      </c>
+      <c r="N49" s="2">
+        <v>6</v>
+      </c>
       <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
+      <c r="P49" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>25</v>
+      </c>
+      <c r="R49" s="2">
+        <v>22</v>
+      </c>
+      <c r="S49" s="2">
+        <v>18</v>
+      </c>
+      <c r="T49" s="2">
+        <v>17</v>
+      </c>
+      <c r="U49" s="2">
+        <v>7</v>
+      </c>
       <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
+      <c r="W49" s="2">
+        <v>23</v>
+      </c>
+      <c r="X49" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>10</v>
+      </c>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
+      <c r="AD49" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>22</v>
+      </c>
       <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
+      <c r="AG49" s="2">
+        <v>245</v>
+      </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>22</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>16</v>
+      </c>
+      <c r="L50">
+        <v>18</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>24</v>
+      </c>
+      <c r="Q50">
+        <v>16</v>
+      </c>
+      <c r="R50">
+        <v>12</v>
+      </c>
+      <c r="S50">
+        <v>16</v>
+      </c>
+      <c r="T50">
+        <v>16</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>19</v>
+      </c>
+      <c r="X50">
+        <v>12</v>
+      </c>
+      <c r="Y50">
+        <v>13</v>
+      </c>
+      <c r="Z50">
+        <v>14</v>
+      </c>
+      <c r="AA50">
+        <v>11</v>
+      </c>
+      <c r="AB50">
+        <v>3</v>
+      </c>
+      <c r="AD50">
+        <v>16</v>
+      </c>
+      <c r="AE50">
+        <v>8</v>
+      </c>
+      <c r="AG50">
+        <v>139</v>
+      </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
+      <c r="B51" s="2">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2">
+        <v>55</v>
+      </c>
+      <c r="D51" s="2">
+        <v>53</v>
+      </c>
+      <c r="E51" s="2">
+        <v>46</v>
+      </c>
+      <c r="F51" s="2">
+        <v>50</v>
+      </c>
+      <c r="G51" s="2">
+        <v>32</v>
+      </c>
+      <c r="H51" s="2">
+        <v>16</v>
+      </c>
+      <c r="I51" s="2">
+        <v>45</v>
+      </c>
+      <c r="J51" s="2">
+        <v>46</v>
+      </c>
+      <c r="K51" s="2">
+        <v>48</v>
+      </c>
+      <c r="L51" s="2">
+        <v>56</v>
+      </c>
+      <c r="M51" s="2">
+        <v>50</v>
+      </c>
+      <c r="N51" s="2">
+        <v>36</v>
+      </c>
+      <c r="O51" s="2">
+        <v>15</v>
+      </c>
+      <c r="P51" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>39</v>
+      </c>
+      <c r="R51" s="2">
+        <v>60</v>
+      </c>
+      <c r="S51" s="2">
+        <v>51</v>
+      </c>
+      <c r="T51" s="2">
+        <v>42</v>
+      </c>
+      <c r="U51" s="2">
+        <v>26</v>
+      </c>
+      <c r="V51" s="2">
+        <v>24</v>
+      </c>
+      <c r="W51" s="2">
+        <v>46</v>
+      </c>
+      <c r="X51" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>56</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>55</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>18</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>44</v>
+      </c>
       <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
+      <c r="AG51" s="2">
+        <v>531</v>
+      </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>13</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>8</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>12</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="R52">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>10</v>
+      </c>
+      <c r="T52">
+        <v>9</v>
+      </c>
+      <c r="U52">
+        <v>4</v>
+      </c>
+      <c r="W52">
+        <v>2</v>
+      </c>
+      <c r="X52">
+        <v>3</v>
+      </c>
+      <c r="Y52">
+        <v>6</v>
+      </c>
+      <c r="Z52">
+        <v>4</v>
+      </c>
+      <c r="AA52">
+        <v>3</v>
+      </c>
+      <c r="AB52">
+        <v>8</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>4</v>
+      </c>
+      <c r="AG52">
+        <v>71</v>
+      </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2">
+        <v>14</v>
+      </c>
+      <c r="D53" s="2">
+        <v>16</v>
+      </c>
+      <c r="E53" s="2">
+        <v>13</v>
+      </c>
+      <c r="F53" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8</v>
+      </c>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="I53" s="2">
+        <v>7</v>
+      </c>
+      <c r="J53" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" s="2">
+        <v>17</v>
+      </c>
+      <c r="L53" s="2">
+        <v>7</v>
+      </c>
+      <c r="M53" s="2">
+        <v>15</v>
+      </c>
+      <c r="N53" s="2">
+        <v>4</v>
+      </c>
       <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
+      <c r="P53" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>11</v>
+      </c>
+      <c r="R53" s="2">
+        <v>11</v>
+      </c>
+      <c r="S53" s="2">
+        <v>14</v>
+      </c>
+      <c r="T53" s="2">
+        <v>12</v>
+      </c>
+      <c r="U53" s="2">
+        <v>5</v>
+      </c>
       <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
+      <c r="W53" s="2">
+        <v>14</v>
+      </c>
+      <c r="X53" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>13</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>17</v>
+      </c>
       <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
+      <c r="AG53" s="2">
+        <v>137</v>
+      </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>7</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>11</v>
+      </c>
+      <c r="N54">
+        <v>11</v>
+      </c>
+      <c r="P54">
+        <v>5</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>6</v>
+      </c>
+      <c r="S54">
+        <v>6</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
+        <v>13</v>
+      </c>
+      <c r="W54">
+        <v>4</v>
+      </c>
+      <c r="X54">
+        <v>4</v>
+      </c>
+      <c r="Y54">
+        <v>4</v>
+      </c>
+      <c r="Z54">
+        <v>4</v>
+      </c>
+      <c r="AA54">
+        <v>5</v>
+      </c>
+      <c r="AB54">
+        <v>4</v>
+      </c>
+      <c r="AD54">
+        <v>6</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>39</v>
+      </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="C55" s="2">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="G55" s="2">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
+        <v>4</v>
+      </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2">
+        <v>1</v>
+      </c>
       <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
+      <c r="P55" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>5</v>
+      </c>
+      <c r="R55" s="2">
+        <v>4</v>
+      </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
+      <c r="U55" s="2">
+        <v>2</v>
+      </c>
       <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
+      <c r="W55" s="2">
+        <v>7</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>1</v>
+      </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
+      <c r="AB55" s="2">
+        <v>2</v>
+      </c>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
+      <c r="AD55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>1</v>
+      </c>
       <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
+      <c r="AG55" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>12</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56">
+        <v>8</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>4</v>
+      </c>
+      <c r="S56">
+        <v>10</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>5</v>
+      </c>
+      <c r="W56">
+        <v>2</v>
+      </c>
+      <c r="X56">
+        <v>5</v>
+      </c>
+      <c r="Y56">
+        <v>3</v>
+      </c>
+      <c r="Z56">
+        <v>9</v>
+      </c>
+      <c r="AA56">
+        <v>5</v>
+      </c>
+      <c r="AB56">
+        <v>3</v>
+      </c>
+      <c r="AD56">
+        <v>5</v>
+      </c>
+      <c r="AE56">
+        <v>9</v>
+      </c>
+      <c r="AG56">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
